--- a/warehouse/group/handler/TDATETF.xlsx
+++ b/warehouse/group/handler/TDATETF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/marketport/warehouse/group/handler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B10E95-689D-4536-9F01-87211191A957}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78BD26EC-7FEF-4F5E-9BD1-4D6C7EB532DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$498</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$503</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="562">
   <si>
     <t>종목코드</t>
   </si>
@@ -1769,6 +1769,26 @@
   </si>
   <si>
     <t>HANARO 글로벌탄소배출권선물ICE(합성)</t>
+  </si>
+  <si>
+    <t>KODEX K-메타버스액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER Fn메타버스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이다스 KoreaStock액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBSTAR iSelect메타버스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANARO Fn K-메타버스MZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2166,11 +2186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E65B9-4AFB-4959-9CD3-28669B32D629}">
-  <dimension ref="A1:D508"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C430" sqref="C430:D431"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159:D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4365,94 +4385,94 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>365000</v>
+        <v>401470</v>
       </c>
       <c r="B157" t="s">
-        <v>133</v>
+        <v>557</v>
       </c>
       <c r="C157" t="s">
         <v>64</v>
       </c>
       <c r="D157" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>91160</v>
+        <v>400970</v>
       </c>
       <c r="B158" t="s">
-        <v>134</v>
+        <v>558</v>
       </c>
       <c r="C158" t="s">
         <v>64</v>
       </c>
       <c r="D158" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>367740</v>
+        <v>403790</v>
       </c>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>559</v>
       </c>
       <c r="C159" t="s">
         <v>64</v>
       </c>
       <c r="D159" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>367760</v>
+        <v>401170</v>
       </c>
       <c r="B160" t="s">
-        <v>136</v>
+        <v>560</v>
       </c>
       <c r="C160" t="s">
         <v>64</v>
       </c>
       <c r="D160" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>402520</v>
+        <v>402460</v>
       </c>
       <c r="B161" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="C161" t="s">
         <v>64</v>
       </c>
       <c r="D161" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>367770</v>
+        <v>365000</v>
       </c>
       <c r="B162" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C162" t="s">
         <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>368190</v>
+        <v>91160</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C163" t="s">
         <v>64</v>
@@ -4463,10 +4483,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>368200</v>
+        <v>367740</v>
       </c>
       <c r="B164" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C164" t="s">
         <v>64</v>
@@ -4477,10 +4497,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>368470</v>
+        <v>367760</v>
       </c>
       <c r="B165" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C165" t="s">
         <v>64</v>
@@ -4491,10 +4511,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>368680</v>
+        <v>402520</v>
       </c>
       <c r="B166" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="C166" t="s">
         <v>64</v>
@@ -4505,122 +4525,122 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>396500</v>
+        <v>367770</v>
       </c>
       <c r="B167" t="s">
-        <v>543</v>
+        <v>137</v>
       </c>
       <c r="C167" t="s">
         <v>64</v>
       </c>
       <c r="D167" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>375760</v>
+        <v>368190</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C168" t="s">
         <v>64</v>
       </c>
       <c r="D168" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>375770</v>
+        <v>368200</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C169" t="s">
         <v>64</v>
       </c>
       <c r="D169" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>376250</v>
+        <v>368470</v>
       </c>
       <c r="B170" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C170" t="s">
         <v>64</v>
       </c>
       <c r="D170" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>376410</v>
+        <v>368680</v>
       </c>
       <c r="B171" t="s">
-        <v>145</v>
+        <v>533</v>
       </c>
       <c r="C171" t="s">
         <v>64</v>
       </c>
       <c r="D171" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>377990</v>
+        <v>396500</v>
       </c>
       <c r="B172" t="s">
-        <v>146</v>
+        <v>543</v>
       </c>
       <c r="C172" t="s">
         <v>64</v>
       </c>
       <c r="D172" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>380340</v>
+        <v>375760</v>
       </c>
       <c r="B173" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C173" t="s">
         <v>64</v>
       </c>
       <c r="D173" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>381560</v>
+        <v>375770</v>
       </c>
       <c r="B174" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C174" t="s">
         <v>64</v>
       </c>
       <c r="D174" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>381570</v>
+        <v>376250</v>
       </c>
       <c r="B175" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C175" t="s">
         <v>64</v>
@@ -4631,10 +4651,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>385510</v>
+        <v>376410</v>
       </c>
       <c r="B176" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C176" t="s">
         <v>64</v>
@@ -4645,80 +4665,80 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>385520</v>
+        <v>377990</v>
       </c>
       <c r="B177" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C177" t="s">
         <v>64</v>
       </c>
       <c r="D177" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>385590</v>
+        <v>380340</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s">
         <v>64</v>
       </c>
       <c r="D178" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>385600</v>
+        <v>381560</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C179" t="s">
         <v>64</v>
       </c>
       <c r="D179" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>385710</v>
+        <v>381570</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C180" t="s">
         <v>64</v>
       </c>
       <c r="D180" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>387280</v>
+        <v>385510</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C181" t="s">
         <v>64</v>
       </c>
       <c r="D181" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>373490</v>
+        <v>385520</v>
       </c>
       <c r="B182" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C182" t="s">
         <v>64</v>
@@ -4729,94 +4749,94 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>91180</v>
+        <v>385590</v>
       </c>
       <c r="B183" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C183" t="s">
         <v>64</v>
       </c>
       <c r="D183" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>102780</v>
+        <v>385600</v>
       </c>
       <c r="B184" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C184" t="s">
         <v>64</v>
       </c>
       <c r="D184" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>314700</v>
+        <v>385710</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C185" t="s">
         <v>64</v>
       </c>
       <c r="D185" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>315270</v>
+        <v>387280</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C186" t="s">
         <v>64</v>
       </c>
       <c r="D186" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>315480</v>
+        <v>373490</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C187" t="s">
         <v>64</v>
       </c>
       <c r="D187" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>315930</v>
+        <v>91180</v>
       </c>
       <c r="B188" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C188" t="s">
         <v>64</v>
       </c>
       <c r="D188" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>322120</v>
+        <v>102780</v>
       </c>
       <c r="B189" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C189" t="s">
         <v>64</v>
@@ -4827,52 +4847,52 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>322130</v>
+        <v>314700</v>
       </c>
       <c r="B190" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C190" t="s">
         <v>64</v>
       </c>
       <c r="D190" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>322150</v>
+        <v>315270</v>
       </c>
       <c r="B191" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C191" t="s">
         <v>64</v>
       </c>
       <c r="D191" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>322400</v>
+        <v>315480</v>
       </c>
       <c r="B192" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C192" t="s">
         <v>64</v>
       </c>
       <c r="D192" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>325010</v>
+        <v>315930</v>
       </c>
       <c r="B193" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s">
         <v>64</v>
@@ -4883,10 +4903,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>326230</v>
+        <v>322120</v>
       </c>
       <c r="B194" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C194" t="s">
         <v>64</v>
@@ -4897,24 +4917,24 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>98560</v>
+        <v>322130</v>
       </c>
       <c r="B195" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C195" t="s">
         <v>64</v>
       </c>
       <c r="D195" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>333940</v>
+        <v>322150</v>
       </c>
       <c r="B196" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C196" t="s">
         <v>64</v>
@@ -4925,24 +4945,24 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>333950</v>
+        <v>322400</v>
       </c>
       <c r="B197" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C197" t="s">
         <v>64</v>
       </c>
       <c r="D197" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>333960</v>
+        <v>325010</v>
       </c>
       <c r="B198" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C198" t="s">
         <v>64</v>
@@ -4953,10 +4973,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>333970</v>
+        <v>326230</v>
       </c>
       <c r="B199" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C199" t="s">
         <v>64</v>
@@ -4967,24 +4987,24 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>333980</v>
+        <v>98560</v>
       </c>
       <c r="B200" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C200" t="s">
         <v>64</v>
       </c>
       <c r="D200" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>337120</v>
+        <v>333940</v>
       </c>
       <c r="B201" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C201" t="s">
         <v>64</v>
@@ -4995,66 +5015,66 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>337160</v>
+        <v>333950</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C202" t="s">
         <v>64</v>
       </c>
       <c r="D202" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>91230</v>
+        <v>333960</v>
       </c>
       <c r="B203" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C203" t="s">
         <v>64</v>
       </c>
       <c r="D203" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>91220</v>
+        <v>333970</v>
       </c>
       <c r="B204" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C204" t="s">
         <v>64</v>
       </c>
       <c r="D204" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>326240</v>
+        <v>333980</v>
       </c>
       <c r="B205" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C205" t="s">
         <v>64</v>
       </c>
       <c r="D205" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>252720</v>
+        <v>337120</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C206" t="s">
         <v>64</v>
@@ -5065,66 +5085,66 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>388420</v>
+        <v>337160</v>
       </c>
       <c r="B207" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C207" t="s">
         <v>64</v>
       </c>
       <c r="D207" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>213610</v>
+        <v>91230</v>
       </c>
       <c r="B208" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C208" t="s">
         <v>64</v>
       </c>
       <c r="D208" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>215620</v>
+        <v>91220</v>
       </c>
       <c r="B209" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C209" t="s">
         <v>64</v>
       </c>
       <c r="D209" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>217790</v>
+        <v>326240</v>
       </c>
       <c r="B210" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C210" t="s">
         <v>64</v>
       </c>
       <c r="D210" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>223190</v>
+        <v>252720</v>
       </c>
       <c r="B211" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C211" t="s">
         <v>64</v>
@@ -5135,24 +5155,24 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>226380</v>
+        <v>388420</v>
       </c>
       <c r="B212" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C212" t="s">
         <v>64</v>
       </c>
       <c r="D212" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>138530</v>
+        <v>213610</v>
       </c>
       <c r="B213" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C213" t="s">
         <v>64</v>
@@ -5163,10 +5183,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>138520</v>
+        <v>215620</v>
       </c>
       <c r="B214" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C214" t="s">
         <v>64</v>
@@ -5177,24 +5197,24 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>227540</v>
+        <v>217790</v>
       </c>
       <c r="B215" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C215" t="s">
         <v>64</v>
       </c>
       <c r="D215" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>244670</v>
+        <v>223190</v>
       </c>
       <c r="B216" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C216" t="s">
         <v>64</v>
@@ -5205,136 +5225,136 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>244660</v>
+        <v>226380</v>
       </c>
       <c r="B217" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C217" t="s">
         <v>64</v>
       </c>
       <c r="D217" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>227550</v>
+        <v>138530</v>
       </c>
       <c r="B218" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C218" t="s">
         <v>64</v>
       </c>
       <c r="D218" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>227560</v>
+        <v>138520</v>
       </c>
       <c r="B219" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C219" t="s">
         <v>64</v>
       </c>
       <c r="D219" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>227570</v>
+        <v>227540</v>
       </c>
       <c r="B220" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C220" t="s">
         <v>64</v>
       </c>
       <c r="D220" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>228790</v>
+        <v>244670</v>
       </c>
       <c r="B221" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C221" t="s">
         <v>64</v>
       </c>
       <c r="D221" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>228800</v>
+        <v>244660</v>
       </c>
       <c r="B222" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C222" t="s">
         <v>64</v>
       </c>
       <c r="D222" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>228810</v>
+        <v>227550</v>
       </c>
       <c r="B223" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C223" t="s">
         <v>64</v>
       </c>
       <c r="D223" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>244620</v>
+        <v>227560</v>
       </c>
       <c r="B224" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C224" t="s">
         <v>64</v>
       </c>
       <c r="D224" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>244580</v>
+        <v>227570</v>
       </c>
       <c r="B225" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C225" t="s">
         <v>64</v>
       </c>
       <c r="D225" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>243890</v>
+        <v>228790</v>
       </c>
       <c r="B226" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C226" t="s">
         <v>64</v>
@@ -5345,66 +5365,66 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>131890</v>
+        <v>228800</v>
       </c>
       <c r="B227" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C227" t="s">
         <v>64</v>
       </c>
       <c r="D227" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>234310</v>
+        <v>228810</v>
       </c>
       <c r="B228" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C228" t="s">
         <v>64</v>
       </c>
       <c r="D228" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>243880</v>
+        <v>244620</v>
       </c>
       <c r="B229" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C229" t="s">
         <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>174350</v>
+        <v>244580</v>
       </c>
       <c r="B230" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C230" t="s">
         <v>64</v>
       </c>
       <c r="D230" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>139290</v>
+        <v>243890</v>
       </c>
       <c r="B231" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C231" t="s">
         <v>64</v>
@@ -5415,24 +5435,24 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>140570</v>
+        <v>131890</v>
       </c>
       <c r="B232" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C232" t="s">
         <v>64</v>
       </c>
       <c r="D232" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>140580</v>
+        <v>234310</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C233" t="s">
         <v>64</v>
@@ -5443,150 +5463,150 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>140700</v>
+        <v>243880</v>
       </c>
       <c r="B234" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C234" t="s">
         <v>64</v>
       </c>
       <c r="D234" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>140710</v>
+        <v>174350</v>
       </c>
       <c r="B235" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C235" t="s">
         <v>64</v>
       </c>
       <c r="D235" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>139260</v>
+        <v>139290</v>
       </c>
       <c r="B236" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C236" t="s">
         <v>64</v>
       </c>
       <c r="D236" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>143460</v>
+        <v>140570</v>
       </c>
       <c r="B237" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C237" t="s">
         <v>64</v>
       </c>
       <c r="D237" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>143860</v>
+        <v>140580</v>
       </c>
       <c r="B238" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C238" t="s">
         <v>64</v>
       </c>
       <c r="D238" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>145850</v>
+        <v>140700</v>
       </c>
       <c r="B239" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C239" t="s">
         <v>64</v>
       </c>
       <c r="D239" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>147970</v>
+        <v>140710</v>
       </c>
       <c r="B240" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C240" t="s">
         <v>64</v>
       </c>
       <c r="D240" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>139250</v>
+        <v>139260</v>
       </c>
       <c r="B241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C241" t="s">
         <v>64</v>
       </c>
       <c r="D241" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>139230</v>
+        <v>143460</v>
       </c>
       <c r="B242" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C242" t="s">
         <v>64</v>
       </c>
       <c r="D242" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>139240</v>
+        <v>143860</v>
       </c>
       <c r="B243" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C243" t="s">
         <v>64</v>
       </c>
       <c r="D243" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>138540</v>
+        <v>145850</v>
       </c>
       <c r="B244" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C244" t="s">
         <v>64</v>
@@ -5597,108 +5617,108 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>139220</v>
+        <v>147970</v>
       </c>
       <c r="B245" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C245" t="s">
         <v>64</v>
       </c>
       <c r="D245" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>157500</v>
+        <v>139250</v>
       </c>
       <c r="B246" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C246" t="s">
         <v>64</v>
       </c>
       <c r="D246" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>157490</v>
+        <v>139230</v>
       </c>
       <c r="B247" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C247" t="s">
         <v>64</v>
       </c>
       <c r="D247" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>395160</v>
+        <v>139240</v>
       </c>
       <c r="B248" t="s">
-        <v>522</v>
+        <v>233</v>
       </c>
       <c r="C248" t="s">
         <v>64</v>
       </c>
       <c r="D248" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>395150</v>
+        <v>138540</v>
       </c>
       <c r="B249" t="s">
-        <v>534</v>
+        <v>234</v>
       </c>
       <c r="C249" t="s">
         <v>64</v>
       </c>
       <c r="D249" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>395760</v>
+        <v>139220</v>
       </c>
       <c r="B250" t="s">
-        <v>535</v>
+        <v>235</v>
       </c>
       <c r="C250" t="s">
         <v>64</v>
       </c>
       <c r="D250" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>395750</v>
+        <v>157500</v>
       </c>
       <c r="B251" t="s">
-        <v>536</v>
+        <v>237</v>
       </c>
       <c r="C251" t="s">
         <v>64</v>
       </c>
       <c r="D251" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>395270</v>
+        <v>157490</v>
       </c>
       <c r="B252" t="s">
-        <v>537</v>
+        <v>238</v>
       </c>
       <c r="C252" t="s">
         <v>64</v>
@@ -5709,24 +5729,24 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>395290</v>
+        <v>395160</v>
       </c>
       <c r="B253" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="C253" t="s">
         <v>64</v>
       </c>
       <c r="D253" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>395280</v>
+        <v>395150</v>
       </c>
       <c r="B254" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C254" t="s">
         <v>64</v>
@@ -5735,138 +5755,138 @@
         <v>532</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="4">
-        <v>166400</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>483</v>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>395760</v>
+      </c>
+      <c r="B255" t="s">
+        <v>535</v>
+      </c>
+      <c r="C255" t="s">
+        <v>64</v>
+      </c>
+      <c r="D255" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>137930</v>
+        <v>395750</v>
       </c>
       <c r="B256" t="s">
-        <v>243</v>
+        <v>536</v>
       </c>
       <c r="C256" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D256" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>360140</v>
+        <v>395270</v>
       </c>
       <c r="B257" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
       <c r="C257" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D257" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>360150</v>
+        <v>395290</v>
       </c>
       <c r="B258" t="s">
-        <v>174</v>
+        <v>539</v>
       </c>
       <c r="C258" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D258" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>230480</v>
+        <v>395280</v>
       </c>
       <c r="B259" t="s">
-        <v>242</v>
+        <v>540</v>
       </c>
       <c r="C259" t="s">
+        <v>64</v>
+      </c>
+      <c r="D259" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>166400</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D259" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>282000</v>
-      </c>
-      <c r="B260" t="s">
-        <v>244</v>
-      </c>
-      <c r="C260" t="s">
-        <v>484</v>
-      </c>
-      <c r="D260" t="s">
-        <v>481</v>
+      <c r="D260" s="4" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>275750</v>
+        <v>137930</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="C261" t="s">
         <v>484</v>
       </c>
       <c r="D261" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>306520</v>
+        <v>360140</v>
       </c>
       <c r="B262" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="C262" t="s">
         <v>484</v>
       </c>
       <c r="D262" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>252410</v>
+        <v>360150</v>
       </c>
       <c r="B263" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="C263" t="s">
         <v>484</v>
       </c>
       <c r="D263" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>301410</v>
+        <v>230480</v>
       </c>
       <c r="B264" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C264" t="s">
         <v>484</v>
@@ -5877,10 +5897,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>291620</v>
+        <v>282000</v>
       </c>
       <c r="B265" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C265" t="s">
         <v>484</v>
@@ -5891,10 +5911,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>252420</v>
+        <v>275750</v>
       </c>
       <c r="B266" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="C266" t="s">
         <v>484</v>
@@ -5905,10 +5925,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>253240</v>
+        <v>306520</v>
       </c>
       <c r="B267" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C267" t="s">
         <v>484</v>
@@ -5919,10 +5939,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>253230</v>
+        <v>252410</v>
       </c>
       <c r="B268" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C268" t="s">
         <v>484</v>
@@ -5933,10 +5953,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>253160</v>
+        <v>301410</v>
       </c>
       <c r="B269" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C269" t="s">
         <v>484</v>
@@ -5947,10 +5967,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>251340</v>
+        <v>291620</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C270" t="s">
         <v>484</v>
@@ -5961,10 +5981,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>252710</v>
+        <v>252420</v>
       </c>
       <c r="B271" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C271" t="s">
         <v>484</v>
@@ -5975,10 +5995,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>250780</v>
+        <v>253240</v>
       </c>
       <c r="B272" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C272" t="s">
         <v>484</v>
@@ -5989,10 +6009,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>252670</v>
+        <v>253230</v>
       </c>
       <c r="B273" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C273" t="s">
         <v>484</v>
@@ -6003,80 +6023,80 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>225800</v>
+        <v>253160</v>
       </c>
       <c r="B274" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C274" t="s">
         <v>484</v>
       </c>
       <c r="D274" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>304780</v>
+        <v>251340</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="C275" t="s">
         <v>484</v>
       </c>
       <c r="D275" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>278240</v>
+        <v>252710</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="C276" t="s">
         <v>484</v>
       </c>
       <c r="D276" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>291630</v>
+        <v>250780</v>
       </c>
       <c r="B277" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C277" t="s">
         <v>484</v>
       </c>
       <c r="D277" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>306530</v>
+        <v>252670</v>
       </c>
       <c r="B278" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C278" t="s">
         <v>484</v>
       </c>
       <c r="D278" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>253250</v>
+        <v>225800</v>
       </c>
       <c r="B279" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C279" t="s">
         <v>484</v>
@@ -6087,10 +6107,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>267770</v>
+        <v>304780</v>
       </c>
       <c r="B280" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="C280" t="s">
         <v>484</v>
@@ -6101,10 +6121,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>253150</v>
+        <v>278240</v>
       </c>
       <c r="B281" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="C281" t="s">
         <v>484</v>
@@ -6115,10 +6135,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>252400</v>
+        <v>291630</v>
       </c>
       <c r="B282" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C282" t="s">
         <v>484</v>
@@ -6129,80 +6149,80 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>334690</v>
+        <v>306530</v>
       </c>
       <c r="B283" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="C283" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D283" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>334700</v>
+        <v>253250</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C284" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D284" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>261220</v>
+        <v>267770</v>
       </c>
       <c r="B285" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C285" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D285" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>139310</v>
+        <v>253150</v>
       </c>
       <c r="B286" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="C286" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D286" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>139320</v>
+        <v>252400</v>
       </c>
       <c r="B287" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="C287" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D287" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>144600</v>
+        <v>334690</v>
       </c>
       <c r="B288" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C288" t="s">
         <v>303</v>
@@ -6213,10 +6233,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>132030</v>
+        <v>334700</v>
       </c>
       <c r="B289" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C289" t="s">
         <v>303</v>
@@ -6227,10 +6247,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>130680</v>
+        <v>261220</v>
       </c>
       <c r="B290" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C290" t="s">
         <v>303</v>
@@ -6241,52 +6261,52 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>137610</v>
+        <v>139310</v>
       </c>
       <c r="B291" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C291" t="s">
         <v>303</v>
       </c>
       <c r="D291" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>138920</v>
+        <v>139320</v>
       </c>
       <c r="B292" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C292" t="s">
         <v>303</v>
       </c>
       <c r="D292" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>271050</v>
+        <v>144600</v>
       </c>
       <c r="B293" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C293" t="s">
         <v>303</v>
       </c>
       <c r="D293" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>138910</v>
+        <v>132030</v>
       </c>
       <c r="B294" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C294" t="s">
         <v>303</v>
@@ -6297,24 +6317,24 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>160580</v>
+        <v>130680</v>
       </c>
       <c r="B295" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C295" t="s">
         <v>303</v>
       </c>
       <c r="D295" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>271060</v>
+        <v>137610</v>
       </c>
       <c r="B296" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C296" t="s">
         <v>303</v>
@@ -6325,27 +6345,27 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>280940</v>
+        <v>138920</v>
       </c>
       <c r="B297" t="s">
-        <v>394</v>
+        <v>312</v>
       </c>
       <c r="C297" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D297" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>217770</v>
+        <v>271050</v>
       </c>
       <c r="B298" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="C298" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D298" t="s">
         <v>499</v>
@@ -6353,13 +6373,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>319640</v>
+        <v>138910</v>
       </c>
       <c r="B299" t="s">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="C299" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D299" t="s">
         <v>498</v>
@@ -6367,13 +6387,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>225130</v>
+        <v>160580</v>
       </c>
       <c r="B300" t="s">
-        <v>458</v>
+        <v>315</v>
       </c>
       <c r="C300" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D300" t="s">
         <v>498</v>
@@ -6381,80 +6401,80 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>148070</v>
+        <v>271060</v>
       </c>
       <c r="B301" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C301" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D301" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>152380</v>
+        <v>280940</v>
       </c>
       <c r="B302" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="C302" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D302" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>365780</v>
+        <v>217770</v>
       </c>
       <c r="B303" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="C303" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D303" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>176950</v>
+        <v>319640</v>
       </c>
       <c r="B304" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="C304" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D304" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>385560</v>
+        <v>225130</v>
       </c>
       <c r="B305" t="s">
-        <v>326</v>
+        <v>458</v>
       </c>
       <c r="C305" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D305" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>167860</v>
+        <v>148070</v>
       </c>
       <c r="B306" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C306" t="s">
         <v>318</v>
@@ -6465,10 +6485,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>346000</v>
+        <v>152380</v>
       </c>
       <c r="B307" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C307" t="s">
         <v>318</v>
@@ -6479,10 +6499,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>342620</v>
+        <v>365780</v>
       </c>
       <c r="B308" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C308" t="s">
         <v>318</v>
@@ -6493,10 +6513,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>342610</v>
+        <v>176950</v>
       </c>
       <c r="B309" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C309" t="s">
         <v>318</v>
@@ -6507,10 +6527,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>342600</v>
+        <v>385560</v>
       </c>
       <c r="B310" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C310" t="s">
         <v>318</v>
@@ -6521,10 +6541,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>342500</v>
+        <v>167860</v>
       </c>
       <c r="B311" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C311" t="s">
         <v>318</v>
@@ -6535,10 +6555,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>176710</v>
+        <v>346000</v>
       </c>
       <c r="B312" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C312" t="s">
         <v>318</v>
@@ -6549,10 +6569,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>196230</v>
+        <v>342620</v>
       </c>
       <c r="B313" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C313" t="s">
         <v>318</v>
@@ -6563,10 +6583,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>114470</v>
+        <v>342610</v>
       </c>
       <c r="B314" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C314" t="s">
         <v>318</v>
@@ -6577,10 +6597,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>289670</v>
+        <v>342600</v>
       </c>
       <c r="B315" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C315" t="s">
         <v>318</v>
@@ -6591,10 +6611,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>298340</v>
+        <v>342500</v>
       </c>
       <c r="B316" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C316" t="s">
         <v>318</v>
@@ -6605,10 +6625,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>153130</v>
+        <v>176710</v>
       </c>
       <c r="B317" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C317" t="s">
         <v>318</v>
@@ -6619,10 +6639,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>272910</v>
+        <v>196230</v>
       </c>
       <c r="B318" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C318" t="s">
         <v>318</v>
@@ -6633,10 +6653,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>299070</v>
+        <v>114470</v>
       </c>
       <c r="B319" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C319" t="s">
         <v>318</v>
@@ -6647,10 +6667,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>295000</v>
+        <v>289670</v>
       </c>
       <c r="B320" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C320" t="s">
         <v>318</v>
@@ -6661,10 +6681,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>299080</v>
+        <v>298340</v>
       </c>
       <c r="B321" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C321" t="s">
         <v>318</v>
@@ -6675,10 +6695,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>302170</v>
+        <v>153130</v>
       </c>
       <c r="B322" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="C322" t="s">
         <v>318</v>
@@ -6689,10 +6709,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>302180</v>
+        <v>272910</v>
       </c>
       <c r="B323" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C323" t="s">
         <v>318</v>
@@ -6703,10 +6723,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>114820</v>
+        <v>299070</v>
       </c>
       <c r="B324" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C324" t="s">
         <v>318</v>
@@ -6717,10 +6737,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>302190</v>
+        <v>295000</v>
       </c>
       <c r="B325" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C325" t="s">
         <v>318</v>
@@ -6731,10 +6751,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>295020</v>
+        <v>299080</v>
       </c>
       <c r="B326" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C326" t="s">
         <v>318</v>
@@ -6745,10 +6765,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>114260</v>
+        <v>302170</v>
       </c>
       <c r="B327" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C327" t="s">
         <v>318</v>
@@ -6759,10 +6779,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>114100</v>
+        <v>302180</v>
       </c>
       <c r="B328" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C328" t="s">
         <v>318</v>
@@ -6773,10 +6793,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>397420</v>
+        <v>114820</v>
       </c>
       <c r="B329" t="s">
-        <v>552</v>
+        <v>360</v>
       </c>
       <c r="C329" t="s">
         <v>318</v>
@@ -6787,10 +6807,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>114460</v>
+        <v>302190</v>
       </c>
       <c r="B330" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C330" t="s">
         <v>318</v>
@@ -6801,10 +6821,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>272570</v>
+        <v>295020</v>
       </c>
       <c r="B331" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C331" t="s">
         <v>318</v>
@@ -6815,10 +6835,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>292770</v>
+        <v>114260</v>
       </c>
       <c r="B332" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C332" t="s">
         <v>318</v>
@@ -6829,10 +6849,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>397410</v>
+        <v>114100</v>
       </c>
       <c r="B333" t="s">
-        <v>549</v>
+        <v>367</v>
       </c>
       <c r="C333" t="s">
         <v>318</v>
@@ -6843,10 +6863,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>272560</v>
+        <v>397420</v>
       </c>
       <c r="B334" t="s">
-        <v>374</v>
+        <v>552</v>
       </c>
       <c r="C334" t="s">
         <v>318</v>
@@ -6857,10 +6877,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>190620</v>
+        <v>114460</v>
       </c>
       <c r="B335" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="C335" t="s">
         <v>318</v>
@@ -6871,10 +6891,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>122260</v>
+        <v>272570</v>
       </c>
       <c r="B336" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C336" t="s">
         <v>318</v>
@@ -6885,10 +6905,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>363510</v>
+        <v>292770</v>
       </c>
       <c r="B337" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="C337" t="s">
         <v>318</v>
@@ -6899,10 +6919,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>157450</v>
+        <v>397410</v>
       </c>
       <c r="B338" t="s">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="C338" t="s">
         <v>318</v>
@@ -6913,10 +6933,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>336160</v>
+        <v>272560</v>
       </c>
       <c r="B339" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="C339" t="s">
         <v>318</v>
@@ -6927,10 +6947,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>273140</v>
+        <v>190620</v>
       </c>
       <c r="B340" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C340" t="s">
         <v>318</v>
@@ -6941,10 +6961,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>214980</v>
+        <v>122260</v>
       </c>
       <c r="B341" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C341" t="s">
         <v>318</v>
@@ -6955,10 +6975,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>130730</v>
+        <v>363510</v>
       </c>
       <c r="B342" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="C342" t="s">
         <v>318</v>
@@ -6969,10 +6989,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>272580</v>
+        <v>157450</v>
       </c>
       <c r="B343" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C343" t="s">
         <v>318</v>
@@ -6983,80 +7003,80 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>305080</v>
+        <v>336160</v>
       </c>
       <c r="B344" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="C344" t="s">
         <v>318</v>
       </c>
       <c r="D344" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>284430</v>
+        <v>273140</v>
       </c>
       <c r="B345" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C345" t="s">
         <v>318</v>
       </c>
       <c r="D345" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>329750</v>
+        <v>214980</v>
       </c>
       <c r="B346" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C346" t="s">
         <v>318</v>
       </c>
       <c r="D346" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>308620</v>
+        <v>130730</v>
       </c>
       <c r="B347" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C347" t="s">
         <v>318</v>
       </c>
       <c r="D347" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>304660</v>
+        <v>272580</v>
       </c>
       <c r="B348" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C348" t="s">
         <v>318</v>
       </c>
       <c r="D348" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>267450</v>
+        <v>305080</v>
       </c>
       <c r="B349" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="C349" t="s">
         <v>318</v>
@@ -7067,10 +7087,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>267440</v>
+        <v>284430</v>
       </c>
       <c r="B350" t="s">
-        <v>439</v>
+        <v>363</v>
       </c>
       <c r="C350" t="s">
         <v>318</v>
@@ -7081,10 +7101,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>267500</v>
+        <v>329750</v>
       </c>
       <c r="B351" t="s">
-        <v>465</v>
+        <v>321</v>
       </c>
       <c r="C351" t="s">
         <v>318</v>
@@ -7095,10 +7115,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>304670</v>
+        <v>308620</v>
       </c>
       <c r="B352" t="s">
-        <v>470</v>
+        <v>345</v>
       </c>
       <c r="C352" t="s">
         <v>318</v>
@@ -7109,10 +7129,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>267490</v>
+        <v>304660</v>
       </c>
       <c r="B353" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="C353" t="s">
         <v>318</v>
@@ -7123,10 +7143,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>390950</v>
+        <v>267450</v>
       </c>
       <c r="B354" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="C354" t="s">
         <v>318</v>
@@ -7137,80 +7157,80 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>329660</v>
+        <v>267440</v>
       </c>
       <c r="B355" t="s">
-        <v>273</v>
+        <v>439</v>
       </c>
       <c r="C355" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D355" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>251600</v>
+        <v>267500</v>
       </c>
       <c r="B356" t="s">
-        <v>271</v>
+        <v>465</v>
       </c>
       <c r="C356" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D356" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>329670</v>
+        <v>304670</v>
       </c>
       <c r="B357" t="s">
-        <v>281</v>
+        <v>470</v>
       </c>
       <c r="C357" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D357" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>183710</v>
+        <v>267490</v>
       </c>
       <c r="B358" t="s">
-        <v>282</v>
+        <v>474</v>
       </c>
       <c r="C358" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D358" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>183700</v>
+        <v>390950</v>
       </c>
       <c r="B359" t="s">
-        <v>283</v>
+        <v>515</v>
       </c>
       <c r="C359" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D359" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>357870</v>
+        <v>329660</v>
       </c>
       <c r="B360" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C360" t="s">
         <v>501</v>
@@ -7221,10 +7241,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>329650</v>
+        <v>251600</v>
       </c>
       <c r="B361" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C361" t="s">
         <v>501</v>
@@ -7235,10 +7255,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>241390</v>
+        <v>329670</v>
       </c>
       <c r="B362" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C362" t="s">
         <v>501</v>
@@ -7249,10 +7269,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>253290</v>
+        <v>183710</v>
       </c>
       <c r="B363" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C363" t="s">
         <v>501</v>
@@ -7263,10 +7283,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>238670</v>
+        <v>183700</v>
       </c>
       <c r="B364" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C364" t="s">
         <v>501</v>
@@ -7277,10 +7297,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>237440</v>
+        <v>357870</v>
       </c>
       <c r="B365" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C365" t="s">
         <v>501</v>
@@ -7291,10 +7311,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>321410</v>
+        <v>329650</v>
       </c>
       <c r="B366" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C366" t="s">
         <v>501</v>
@@ -7305,10 +7325,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>237370</v>
+        <v>241390</v>
       </c>
       <c r="B367" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C367" t="s">
         <v>501</v>
@@ -7319,10 +7339,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>341850</v>
+        <v>253290</v>
       </c>
       <c r="B368" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C368" t="s">
         <v>501</v>
@@ -7333,13 +7353,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>278620</v>
+        <v>238670</v>
       </c>
       <c r="B369" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="C369" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D369" t="s">
         <v>486</v>
@@ -7347,13 +7367,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>385550</v>
+        <v>237440</v>
       </c>
       <c r="B370" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C370" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D370" t="s">
         <v>486</v>
@@ -7361,13 +7381,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>385540</v>
+        <v>321410</v>
       </c>
       <c r="B371" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C371" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D371" t="s">
         <v>486</v>
@@ -7375,13 +7395,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>363570</v>
+        <v>237370</v>
       </c>
       <c r="B372" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="C372" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D372" t="s">
         <v>486</v>
@@ -7389,13 +7409,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>356540</v>
+        <v>341850</v>
       </c>
       <c r="B373" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="C373" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D373" t="s">
         <v>486</v>
@@ -7403,10 +7423,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>273130</v>
+        <v>278620</v>
       </c>
       <c r="B374" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C374" t="s">
         <v>318</v>
@@ -7417,13 +7437,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>342140</v>
+        <v>385550</v>
       </c>
       <c r="B375" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C375" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D375" t="s">
         <v>486</v>
@@ -7431,150 +7451,150 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>332610</v>
+        <v>385540</v>
       </c>
       <c r="B376" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C376" t="s">
         <v>318</v>
       </c>
       <c r="D376" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>332620</v>
+        <v>363570</v>
       </c>
       <c r="B377" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C377" t="s">
         <v>318</v>
       </c>
       <c r="D377" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>182490</v>
+        <v>356540</v>
       </c>
       <c r="B378" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C378" t="s">
         <v>318</v>
       </c>
       <c r="D378" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>239660</v>
+        <v>273130</v>
       </c>
       <c r="B379" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C379" t="s">
         <v>318</v>
       </c>
       <c r="D379" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>136340</v>
+        <v>342140</v>
       </c>
       <c r="B380" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C380" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D380" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>291130</v>
+        <v>332610</v>
       </c>
       <c r="B381" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="C381" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D381" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>256750</v>
+        <v>332620</v>
       </c>
       <c r="B382" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="C382" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D382" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>367380</v>
+        <v>182490</v>
       </c>
       <c r="B383" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="C383" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D383" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>251350</v>
+        <v>239660</v>
       </c>
       <c r="B384" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C384" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D384" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>256450</v>
+        <v>136340</v>
       </c>
       <c r="B385" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C385" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D385" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>256440</v>
+        <v>291130</v>
       </c>
       <c r="B386" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C386" t="s">
         <v>502</v>
@@ -7585,150 +7605,150 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>368590</v>
+        <v>256750</v>
       </c>
       <c r="B387" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C387" t="s">
         <v>502</v>
       </c>
       <c r="D387" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>291680</v>
+        <v>367380</v>
       </c>
       <c r="B388" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C388" t="s">
         <v>502</v>
       </c>
       <c r="D388" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>291890</v>
+        <v>251350</v>
       </c>
       <c r="B389" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C389" t="s">
         <v>502</v>
       </c>
       <c r="D389" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>245340</v>
+        <v>256450</v>
       </c>
       <c r="B390" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C390" t="s">
         <v>502</v>
       </c>
       <c r="D390" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>371450</v>
+        <v>256440</v>
       </c>
       <c r="B391" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C391" t="s">
         <v>502</v>
       </c>
       <c r="D391" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>371150</v>
+        <v>368590</v>
       </c>
       <c r="B392" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C392" t="s">
         <v>502</v>
       </c>
       <c r="D392" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>276990</v>
+        <v>291680</v>
       </c>
       <c r="B393" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C393" t="s">
         <v>502</v>
       </c>
       <c r="D393" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>387270</v>
+        <v>291890</v>
       </c>
       <c r="B394" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C394" t="s">
         <v>502</v>
       </c>
       <c r="D394" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>241180</v>
+        <v>245340</v>
       </c>
       <c r="B395" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C395" t="s">
         <v>502</v>
       </c>
       <c r="D395" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>238720</v>
+        <v>371450</v>
       </c>
       <c r="B396" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C396" t="s">
         <v>502</v>
       </c>
       <c r="D396" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>117690</v>
+        <v>371150</v>
       </c>
       <c r="B397" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C397" t="s">
         <v>502</v>
@@ -7739,80 +7759,80 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>280320</v>
+        <v>276990</v>
       </c>
       <c r="B398" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C398" t="s">
         <v>502</v>
       </c>
       <c r="D398" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>280930</v>
+        <v>387270</v>
       </c>
       <c r="B399" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C399" t="s">
         <v>502</v>
       </c>
       <c r="D399" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>276970</v>
+        <v>241180</v>
       </c>
       <c r="B400" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C400" t="s">
         <v>502</v>
       </c>
       <c r="D400" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>283580</v>
+        <v>238720</v>
       </c>
       <c r="B401" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C401" t="s">
         <v>502</v>
       </c>
       <c r="D401" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>381180</v>
+        <v>117690</v>
       </c>
       <c r="B402" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C402" t="s">
         <v>502</v>
       </c>
       <c r="D402" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>381170</v>
+        <v>280320</v>
       </c>
       <c r="B403" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C403" t="s">
         <v>502</v>
@@ -7823,10 +7843,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>379810</v>
+        <v>280930</v>
       </c>
       <c r="B404" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C404" t="s">
         <v>502</v>
@@ -7837,10 +7857,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>379800</v>
+        <v>276970</v>
       </c>
       <c r="B405" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C405" t="s">
         <v>502</v>
@@ -7851,13 +7871,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>150460</v>
+        <v>283580</v>
       </c>
       <c r="B406" t="s">
-        <v>230</v>
+        <v>396</v>
       </c>
       <c r="C406" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D406" t="s">
         <v>489</v>
@@ -7865,52 +7885,52 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>371130</v>
+        <v>381180</v>
       </c>
       <c r="B407" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C407" t="s">
         <v>502</v>
       </c>
       <c r="D407" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>379790</v>
+        <v>381170</v>
       </c>
       <c r="B408" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C408" t="s">
         <v>502</v>
       </c>
       <c r="D408" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>400570</v>
+        <v>379810</v>
       </c>
       <c r="B409" t="s">
-        <v>550</v>
+        <v>399</v>
       </c>
       <c r="C409" t="s">
         <v>502</v>
       </c>
       <c r="D409" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>143850</v>
+        <v>379800</v>
       </c>
       <c r="B410" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C410" t="s">
         <v>502</v>
@@ -7921,360 +7941,360 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>236350</v>
+        <v>150460</v>
       </c>
       <c r="B411" t="s">
-        <v>404</v>
+        <v>230</v>
       </c>
       <c r="C411" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D411" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>276650</v>
+        <v>371130</v>
       </c>
       <c r="B412" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C412" t="s">
         <v>502</v>
       </c>
       <c r="D412" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>276000</v>
+        <v>379790</v>
       </c>
       <c r="B413" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C413" t="s">
         <v>502</v>
       </c>
       <c r="D413" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>133690</v>
+        <v>400570</v>
       </c>
       <c r="B414" t="s">
-        <v>407</v>
+        <v>550</v>
       </c>
       <c r="C414" t="s">
         <v>502</v>
       </c>
       <c r="D414" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>275980</v>
+        <v>143850</v>
       </c>
       <c r="B415" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C415" t="s">
         <v>502</v>
       </c>
       <c r="D415" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>373790</v>
+        <v>236350</v>
       </c>
       <c r="B416" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C416" t="s">
         <v>502</v>
       </c>
       <c r="D416" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>373530</v>
+        <v>276650</v>
       </c>
       <c r="B417" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C417" t="s">
         <v>502</v>
       </c>
       <c r="D417" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>287180</v>
+        <v>276000</v>
       </c>
       <c r="B418" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C418" t="s">
         <v>502</v>
       </c>
       <c r="D418" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>372330</v>
+        <v>133690</v>
       </c>
       <c r="B419" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C419" t="s">
         <v>502</v>
       </c>
       <c r="D419" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>371870</v>
+        <v>275980</v>
       </c>
       <c r="B420" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C420" t="s">
         <v>502</v>
       </c>
       <c r="D420" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>371470</v>
+        <v>373790</v>
       </c>
       <c r="B421" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C421" t="s">
         <v>502</v>
       </c>
       <c r="D421" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>371460</v>
+        <v>373530</v>
       </c>
       <c r="B422" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C422" t="s">
         <v>502</v>
       </c>
       <c r="D422" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>371160</v>
+        <v>287180</v>
       </c>
       <c r="B423" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C423" t="s">
         <v>502</v>
       </c>
       <c r="D423" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>379780</v>
+        <v>372330</v>
       </c>
       <c r="B424" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C424" t="s">
         <v>502</v>
       </c>
       <c r="D424" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>309230</v>
+        <v>371870</v>
       </c>
       <c r="B425" t="s">
-        <v>157</v>
+        <v>413</v>
       </c>
       <c r="C425" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D425" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>245350</v>
+        <v>371470</v>
       </c>
       <c r="B426" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C426" t="s">
         <v>502</v>
       </c>
       <c r="D426" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>360750</v>
+        <v>371460</v>
       </c>
       <c r="B427" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C427" t="s">
         <v>502</v>
       </c>
       <c r="D427" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>399110</v>
+        <v>371160</v>
       </c>
       <c r="B428" t="s">
-        <v>553</v>
+        <v>416</v>
       </c>
       <c r="C428" t="s">
         <v>502</v>
       </c>
       <c r="D428" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>400580</v>
+        <v>379780</v>
       </c>
       <c r="B429" t="s">
-        <v>554</v>
+        <v>417</v>
       </c>
       <c r="C429" t="s">
         <v>502</v>
       </c>
       <c r="D429" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>400590</v>
+        <v>309230</v>
       </c>
       <c r="B430" t="s">
-        <v>555</v>
+        <v>157</v>
       </c>
       <c r="C430" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D430" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>401590</v>
+        <v>245350</v>
       </c>
       <c r="B431" t="s">
-        <v>556</v>
+        <v>418</v>
       </c>
       <c r="C431" t="s">
         <v>502</v>
       </c>
       <c r="D431" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>195930</v>
+        <v>360750</v>
       </c>
       <c r="B432" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C432" t="s">
         <v>502</v>
       </c>
       <c r="D432" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>195970</v>
+        <v>399110</v>
       </c>
       <c r="B433" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="C433" t="s">
         <v>502</v>
       </c>
       <c r="D433" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>195980</v>
+        <v>400580</v>
       </c>
       <c r="B434" t="s">
-        <v>423</v>
+        <v>554</v>
       </c>
       <c r="C434" t="s">
         <v>502</v>
       </c>
       <c r="D434" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>196030</v>
+        <v>400590</v>
       </c>
       <c r="B435" t="s">
-        <v>424</v>
+        <v>555</v>
       </c>
       <c r="C435" t="s">
         <v>502</v>
       </c>
       <c r="D435" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>277540</v>
+        <v>401590</v>
       </c>
       <c r="B436" t="s">
-        <v>425</v>
+        <v>556</v>
       </c>
       <c r="C436" t="s">
         <v>502</v>
@@ -8285,346 +8305,346 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>200030</v>
+        <v>195930</v>
       </c>
       <c r="B437" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C437" t="s">
         <v>502</v>
       </c>
       <c r="D437" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>200250</v>
+        <v>195970</v>
       </c>
       <c r="B438" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C438" t="s">
         <v>502</v>
       </c>
       <c r="D438" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>203780</v>
+        <v>195980</v>
       </c>
       <c r="B439" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C439" t="s">
         <v>502</v>
       </c>
       <c r="D439" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>204450</v>
+        <v>196030</v>
       </c>
       <c r="B440" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C440" t="s">
         <v>502</v>
       </c>
       <c r="D440" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>217780</v>
+        <v>277540</v>
       </c>
       <c r="B441" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C441" t="s">
         <v>502</v>
       </c>
       <c r="D441" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>204480</v>
+        <v>200030</v>
       </c>
       <c r="B442" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C442" t="s">
         <v>502</v>
       </c>
       <c r="D442" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>205720</v>
+        <v>200250</v>
       </c>
       <c r="B443" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C443" t="s">
         <v>502</v>
       </c>
       <c r="D443" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>208470</v>
+        <v>203780</v>
       </c>
       <c r="B444" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C444" t="s">
         <v>502</v>
       </c>
       <c r="D444" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>261920</v>
+        <v>204450</v>
       </c>
       <c r="B445" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C445" t="s">
         <v>502</v>
       </c>
       <c r="D445" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>265690</v>
+        <v>217780</v>
       </c>
       <c r="B446" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C446" t="s">
         <v>502</v>
       </c>
       <c r="D446" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>314250</v>
+        <v>204480</v>
       </c>
       <c r="B447" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C447" t="s">
         <v>502</v>
       </c>
       <c r="D447" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>245360</v>
+        <v>205720</v>
       </c>
       <c r="B448" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C448" t="s">
         <v>502</v>
       </c>
       <c r="D448" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>310080</v>
+        <v>208470</v>
       </c>
       <c r="B449" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C449" t="s">
         <v>502</v>
       </c>
       <c r="D449" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>250730</v>
+        <v>261920</v>
       </c>
       <c r="B450" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C450" t="s">
         <v>502</v>
       </c>
       <c r="D450" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>213630</v>
+        <v>265690</v>
       </c>
       <c r="B451" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C451" t="s">
         <v>502</v>
       </c>
       <c r="D451" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>245710</v>
+        <v>314250</v>
       </c>
       <c r="B452" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C452" t="s">
         <v>502</v>
       </c>
       <c r="D452" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>248270</v>
+        <v>245360</v>
       </c>
       <c r="B453" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C453" t="s">
         <v>502</v>
       </c>
       <c r="D453" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>195920</v>
+        <v>310080</v>
       </c>
       <c r="B454" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C454" t="s">
         <v>502</v>
       </c>
       <c r="D454" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>101280</v>
+        <v>250730</v>
       </c>
       <c r="B455" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C455" t="s">
         <v>502</v>
       </c>
       <c r="D455" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>192090</v>
+        <v>213630</v>
       </c>
       <c r="B456" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C456" t="s">
         <v>502</v>
       </c>
       <c r="D456" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>218420</v>
+        <v>245710</v>
       </c>
       <c r="B457" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C457" t="s">
         <v>502</v>
       </c>
       <c r="D457" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>360200</v>
+        <v>248270</v>
       </c>
       <c r="B458" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C458" t="s">
         <v>502</v>
       </c>
       <c r="D458" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>269530</v>
+        <v>195920</v>
       </c>
       <c r="B459" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C459" t="s">
         <v>502</v>
       </c>
       <c r="D459" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>269420</v>
+        <v>101280</v>
       </c>
       <c r="B460" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C460" t="s">
         <v>502</v>
       </c>
       <c r="D460" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>168580</v>
+        <v>192090</v>
       </c>
       <c r="B461" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C461" t="s">
         <v>502</v>
@@ -8635,52 +8655,52 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>319870</v>
+        <v>218420</v>
       </c>
       <c r="B462" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
       <c r="C462" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D462" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>248260</v>
+        <v>360200</v>
       </c>
       <c r="B463" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C463" t="s">
         <v>502</v>
       </c>
       <c r="D463" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>169950</v>
+        <v>269530</v>
       </c>
       <c r="B464" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C464" t="s">
         <v>502</v>
       </c>
       <c r="D464" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>354350</v>
+        <v>269420</v>
       </c>
       <c r="B465" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C465" t="s">
         <v>502</v>
@@ -8691,52 +8711,52 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>269370</v>
+        <v>168580</v>
       </c>
       <c r="B466" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C466" t="s">
         <v>502</v>
       </c>
       <c r="D466" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>225060</v>
+        <v>319870</v>
       </c>
       <c r="B467" t="s">
-        <v>459</v>
+        <v>166</v>
       </c>
       <c r="C467" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D467" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>298770</v>
+        <v>248260</v>
       </c>
       <c r="B468" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C468" t="s">
         <v>502</v>
       </c>
       <c r="D468" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>174360</v>
+        <v>169950</v>
       </c>
       <c r="B469" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C469" t="s">
         <v>502</v>
@@ -8747,66 +8767,66 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>269540</v>
+        <v>354350</v>
       </c>
       <c r="B470" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C470" t="s">
         <v>502</v>
       </c>
       <c r="D470" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>225050</v>
+        <v>269370</v>
       </c>
       <c r="B471" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C471" t="s">
         <v>502</v>
       </c>
       <c r="D471" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>225030</v>
+        <v>225060</v>
       </c>
       <c r="B472" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C472" t="s">
         <v>502</v>
       </c>
       <c r="D472" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>220130</v>
+        <v>298770</v>
       </c>
       <c r="B473" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C473" t="s">
         <v>502</v>
       </c>
       <c r="D473" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>219900</v>
+        <v>174360</v>
       </c>
       <c r="B474" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C474" t="s">
         <v>502</v>
@@ -8817,10 +8837,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>185680</v>
+        <v>269540</v>
       </c>
       <c r="B475" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C475" t="s">
         <v>502</v>
@@ -8831,66 +8851,66 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>99140</v>
+        <v>225050</v>
       </c>
       <c r="B476" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C476" t="s">
         <v>502</v>
       </c>
       <c r="D476" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>189400</v>
+        <v>225030</v>
       </c>
       <c r="B477" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C477" t="s">
         <v>502</v>
       </c>
       <c r="D477" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>105010</v>
+        <v>220130</v>
       </c>
       <c r="B478" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C478" t="s">
         <v>502</v>
       </c>
       <c r="D478" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>219480</v>
+        <v>219900</v>
       </c>
       <c r="B479" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C479" t="s">
         <v>502</v>
       </c>
       <c r="D479" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>304940</v>
+        <v>185680</v>
       </c>
       <c r="B480" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C480" t="s">
         <v>502</v>
@@ -8901,55 +8921,55 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>225040</v>
+        <v>99140</v>
       </c>
       <c r="B481" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C481" t="s">
         <v>502</v>
       </c>
       <c r="D481" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>219390</v>
+        <v>189400</v>
       </c>
       <c r="B482" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C482" t="s">
         <v>502</v>
       </c>
       <c r="D482" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>138230</v>
+        <v>105010</v>
       </c>
       <c r="B483" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="C483" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D483" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>261110</v>
+        <v>219480</v>
       </c>
       <c r="B484" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="C484" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D484" t="s">
         <v>496</v>
@@ -8957,27 +8977,27 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>292560</v>
+        <v>304940</v>
       </c>
       <c r="B485" t="s">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="C485" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D485" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>261120</v>
+        <v>225040</v>
       </c>
       <c r="B486" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
       <c r="C486" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D486" t="s">
         <v>496</v>
@@ -8985,24 +9005,24 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>352540</v>
+        <v>219390</v>
       </c>
       <c r="B487" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
       <c r="C487" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D487" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>354240</v>
+        <v>138230</v>
       </c>
       <c r="B488" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C488" t="s">
         <v>503</v>
@@ -9013,10 +9033,10 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>352560</v>
+        <v>261110</v>
       </c>
       <c r="B489" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C489" t="s">
         <v>503</v>
@@ -9027,24 +9047,24 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>261270</v>
+        <v>292560</v>
       </c>
       <c r="B490" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C490" t="s">
         <v>503</v>
       </c>
       <c r="D490" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>182480</v>
+        <v>261120</v>
       </c>
       <c r="B491" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C491" t="s">
         <v>503</v>
@@ -9055,24 +9075,24 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>261260</v>
+        <v>352540</v>
       </c>
       <c r="B492" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C492" t="s">
         <v>503</v>
       </c>
       <c r="D492" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>139660</v>
+        <v>354240</v>
       </c>
       <c r="B493" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C493" t="s">
         <v>503</v>
@@ -9083,10 +9103,10 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>261250</v>
+        <v>352560</v>
       </c>
       <c r="B494" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C494" t="s">
         <v>503</v>
@@ -9097,24 +9117,24 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>375270</v>
+        <v>261270</v>
       </c>
       <c r="B495" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C495" t="s">
         <v>503</v>
       </c>
       <c r="D495" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>181480</v>
+        <v>182480</v>
       </c>
       <c r="B496" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C496" t="s">
         <v>503</v>
@@ -9125,24 +9145,24 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>316300</v>
+        <v>261260</v>
       </c>
       <c r="B497" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C497" t="s">
         <v>503</v>
       </c>
       <c r="D497" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>261240</v>
+        <v>139660</v>
       </c>
       <c r="B498" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C498" t="s">
         <v>503</v>
@@ -9153,10 +9173,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>390390</v>
+        <v>261250</v>
       </c>
       <c r="B499" t="s">
-        <v>516</v>
+        <v>296</v>
       </c>
       <c r="C499" t="s">
         <v>503</v>
@@ -9167,127 +9187,197 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>390400</v>
+        <v>375270</v>
       </c>
       <c r="B500" t="s">
-        <v>517</v>
+        <v>297</v>
       </c>
       <c r="C500" t="s">
         <v>503</v>
       </c>
       <c r="D500" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>394670</v>
+        <v>181480</v>
       </c>
       <c r="B501" t="s">
-        <v>518</v>
+        <v>298</v>
       </c>
       <c r="C501" t="s">
         <v>503</v>
       </c>
       <c r="D501" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>394660</v>
+        <v>316300</v>
       </c>
       <c r="B502" t="s">
-        <v>519</v>
+        <v>300</v>
       </c>
       <c r="C502" t="s">
         <v>503</v>
       </c>
       <c r="D502" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>394350</v>
+        <v>261240</v>
       </c>
       <c r="B503" t="s">
-        <v>520</v>
+        <v>301</v>
       </c>
       <c r="C503" t="s">
         <v>503</v>
       </c>
       <c r="D503" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>394340</v>
+        <v>390390</v>
       </c>
       <c r="B504" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C504" t="s">
         <v>503</v>
       </c>
       <c r="D504" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>396510</v>
+        <v>390400</v>
       </c>
       <c r="B505" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C505" t="s">
         <v>503</v>
       </c>
       <c r="D505" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>396520</v>
+        <v>394670</v>
       </c>
       <c r="B506" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="C506" t="s">
         <v>503</v>
       </c>
       <c r="D506" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>391600</v>
+        <v>394660</v>
       </c>
       <c r="B507" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="C507" t="s">
         <v>503</v>
       </c>
       <c r="D507" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>391590</v>
+        <v>394350</v>
       </c>
       <c r="B508" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="C508" t="s">
         <v>503</v>
       </c>
       <c r="D508" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>394340</v>
+      </c>
+      <c r="B509" t="s">
+        <v>521</v>
+      </c>
+      <c r="C509" t="s">
+        <v>503</v>
+      </c>
+      <c r="D509" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>396510</v>
+      </c>
+      <c r="B510" t="s">
+        <v>544</v>
+      </c>
+      <c r="C510" t="s">
+        <v>503</v>
+      </c>
+      <c r="D510" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>396520</v>
+      </c>
+      <c r="B511" t="s">
+        <v>545</v>
+      </c>
+      <c r="C511" t="s">
+        <v>503</v>
+      </c>
+      <c r="D511" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>391600</v>
+      </c>
+      <c r="B512" t="s">
+        <v>546</v>
+      </c>
+      <c r="C512" t="s">
+        <v>503</v>
+      </c>
+      <c r="D512" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>391590</v>
+      </c>
+      <c r="B513" t="s">
+        <v>547</v>
+      </c>
+      <c r="C513" t="s">
+        <v>503</v>
+      </c>
+      <c r="D513" t="s">
         <v>496</v>
       </c>
     </row>

--- a/warehouse/group/handler/TDATETF.xlsx
+++ b/warehouse/group/handler/TDATETF.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/marketport/warehouse/group/handler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78BD26EC-7FEF-4F5E-9BD1-4D6C7EB532DA}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C334BF5-656F-4C05-A5B5-9E0A58E4416B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
+    <workbookView xWindow="10650" yWindow="1905" windowWidth="18150" windowHeight="11385" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$503</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$505</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="564">
   <si>
     <t>종목코드</t>
   </si>
@@ -1789,6 +1789,13 @@
   <si>
     <t>HANARO Fn K-메타버스MZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBSTAR 글로벌클린에너지S&amp;P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINDEX 미국고배당S&amp;P</t>
   </si>
 </sst>
 </file>
@@ -2186,11 +2193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E65B9-4AFB-4959-9CD3-28669B32D629}">
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159:D159"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C444" sqref="C444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8375,38 +8382,38 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>200030</v>
+        <v>399580</v>
       </c>
       <c r="B442" t="s">
-        <v>426</v>
+        <v>562</v>
       </c>
       <c r="C442" t="s">
         <v>502</v>
       </c>
       <c r="D442" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>200250</v>
+        <v>200030</v>
       </c>
       <c r="B443" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C443" t="s">
         <v>502</v>
       </c>
       <c r="D443" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>203780</v>
+        <v>402970</v>
       </c>
       <c r="B444" t="s">
-        <v>429</v>
+        <v>563</v>
       </c>
       <c r="C444" t="s">
         <v>502</v>
@@ -8417,38 +8424,38 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>204450</v>
+        <v>200250</v>
       </c>
       <c r="B445" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C445" t="s">
         <v>502</v>
       </c>
       <c r="D445" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>217780</v>
+        <v>203780</v>
       </c>
       <c r="B446" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C446" t="s">
         <v>502</v>
       </c>
       <c r="D446" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>204480</v>
+        <v>204450</v>
       </c>
       <c r="B447" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C447" t="s">
         <v>502</v>
@@ -8459,108 +8466,108 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>205720</v>
+        <v>217780</v>
       </c>
       <c r="B448" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C448" t="s">
         <v>502</v>
       </c>
       <c r="D448" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>208470</v>
+        <v>204480</v>
       </c>
       <c r="B449" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C449" t="s">
         <v>502</v>
       </c>
       <c r="D449" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>261920</v>
+        <v>205720</v>
       </c>
       <c r="B450" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C450" t="s">
         <v>502</v>
       </c>
       <c r="D450" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>265690</v>
+        <v>208470</v>
       </c>
       <c r="B451" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C451" t="s">
         <v>502</v>
       </c>
       <c r="D451" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>314250</v>
+        <v>261920</v>
       </c>
       <c r="B452" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C452" t="s">
         <v>502</v>
       </c>
       <c r="D452" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>245360</v>
+        <v>265690</v>
       </c>
       <c r="B453" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C453" t="s">
         <v>502</v>
       </c>
       <c r="D453" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>310080</v>
+        <v>314250</v>
       </c>
       <c r="B454" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C454" t="s">
         <v>502</v>
       </c>
       <c r="D454" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>250730</v>
+        <v>245360</v>
       </c>
       <c r="B455" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C455" t="s">
         <v>502</v>
@@ -8571,248 +8578,248 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>213630</v>
+        <v>310080</v>
       </c>
       <c r="B456" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C456" t="s">
         <v>502</v>
       </c>
       <c r="D456" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>245710</v>
+        <v>250730</v>
       </c>
       <c r="B457" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C457" t="s">
         <v>502</v>
       </c>
       <c r="D457" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>248270</v>
+        <v>213630</v>
       </c>
       <c r="B458" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C458" t="s">
         <v>502</v>
       </c>
       <c r="D458" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>195920</v>
+        <v>245710</v>
       </c>
       <c r="B459" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C459" t="s">
         <v>502</v>
       </c>
       <c r="D459" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>101280</v>
+        <v>248270</v>
       </c>
       <c r="B460" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C460" t="s">
         <v>502</v>
       </c>
       <c r="D460" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>192090</v>
+        <v>195920</v>
       </c>
       <c r="B461" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C461" t="s">
         <v>502</v>
       </c>
       <c r="D461" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>218420</v>
+        <v>101280</v>
       </c>
       <c r="B462" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C462" t="s">
         <v>502</v>
       </c>
       <c r="D462" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>360200</v>
+        <v>192090</v>
       </c>
       <c r="B463" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C463" t="s">
         <v>502</v>
       </c>
       <c r="D463" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>269530</v>
+        <v>218420</v>
       </c>
       <c r="B464" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C464" t="s">
         <v>502</v>
       </c>
       <c r="D464" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>269420</v>
+        <v>360200</v>
       </c>
       <c r="B465" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C465" t="s">
         <v>502</v>
       </c>
       <c r="D465" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>168580</v>
+        <v>269530</v>
       </c>
       <c r="B466" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C466" t="s">
         <v>502</v>
       </c>
       <c r="D466" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>319870</v>
+        <v>269420</v>
       </c>
       <c r="B467" t="s">
-        <v>166</v>
+        <v>452</v>
       </c>
       <c r="C467" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D467" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>248260</v>
+        <v>168580</v>
       </c>
       <c r="B468" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C468" t="s">
         <v>502</v>
       </c>
       <c r="D468" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>169950</v>
+        <v>319870</v>
       </c>
       <c r="B469" t="s">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="C469" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D469" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>354350</v>
+        <v>248260</v>
       </c>
       <c r="B470" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C470" t="s">
         <v>502</v>
       </c>
       <c r="D470" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>269370</v>
+        <v>169950</v>
       </c>
       <c r="B471" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C471" t="s">
         <v>502</v>
       </c>
       <c r="D471" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>225060</v>
+        <v>354350</v>
       </c>
       <c r="B472" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C472" t="s">
         <v>502</v>
       </c>
       <c r="D472" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>298770</v>
+        <v>269370</v>
       </c>
       <c r="B473" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C473" t="s">
         <v>502</v>
@@ -8823,52 +8830,52 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>174360</v>
+        <v>225060</v>
       </c>
       <c r="B474" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C474" t="s">
         <v>502</v>
       </c>
       <c r="D474" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>269540</v>
+        <v>298770</v>
       </c>
       <c r="B475" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C475" t="s">
         <v>502</v>
       </c>
       <c r="D475" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>225050</v>
+        <v>174360</v>
       </c>
       <c r="B476" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C476" t="s">
         <v>502</v>
       </c>
       <c r="D476" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>225030</v>
+        <v>269540</v>
       </c>
       <c r="B477" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C477" t="s">
         <v>502</v>
@@ -8879,52 +8886,52 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>220130</v>
+        <v>225050</v>
       </c>
       <c r="B478" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C478" t="s">
         <v>502</v>
       </c>
       <c r="D478" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>219900</v>
+        <v>225030</v>
       </c>
       <c r="B479" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C479" t="s">
         <v>502</v>
       </c>
       <c r="D479" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>185680</v>
+        <v>220130</v>
       </c>
       <c r="B480" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C480" t="s">
         <v>502</v>
       </c>
       <c r="D480" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>99140</v>
+        <v>219900</v>
       </c>
       <c r="B481" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C481" t="s">
         <v>502</v>
@@ -8935,66 +8942,66 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>189400</v>
+        <v>185680</v>
       </c>
       <c r="B482" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C482" t="s">
         <v>502</v>
       </c>
       <c r="D482" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>105010</v>
+        <v>99140</v>
       </c>
       <c r="B483" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C483" t="s">
         <v>502</v>
       </c>
       <c r="D483" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>219480</v>
+        <v>189400</v>
       </c>
       <c r="B484" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C484" t="s">
         <v>502</v>
       </c>
       <c r="D484" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>304940</v>
+        <v>105010</v>
       </c>
       <c r="B485" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C485" t="s">
         <v>502</v>
       </c>
       <c r="D485" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>225040</v>
+        <v>219480</v>
       </c>
       <c r="B486" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C486" t="s">
         <v>502</v>
@@ -9005,10 +9012,10 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>219390</v>
+        <v>304940</v>
       </c>
       <c r="B487" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C487" t="s">
         <v>502</v>
@@ -9019,13 +9026,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>138230</v>
+        <v>225040</v>
       </c>
       <c r="B488" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="C488" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D488" t="s">
         <v>496</v>
@@ -9033,13 +9040,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>261110</v>
+        <v>219390</v>
       </c>
       <c r="B489" t="s">
-        <v>274</v>
+        <v>477</v>
       </c>
       <c r="C489" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D489" t="s">
         <v>496</v>
@@ -9047,24 +9054,24 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>292560</v>
+        <v>138230</v>
       </c>
       <c r="B490" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C490" t="s">
         <v>503</v>
       </c>
       <c r="D490" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>261120</v>
+        <v>261110</v>
       </c>
       <c r="B491" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C491" t="s">
         <v>503</v>
@@ -9075,10 +9082,10 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>352540</v>
+        <v>292560</v>
       </c>
       <c r="B492" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C492" t="s">
         <v>503</v>
@@ -9089,10 +9096,10 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>354240</v>
+        <v>261120</v>
       </c>
       <c r="B493" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C493" t="s">
         <v>503</v>
@@ -9103,24 +9110,24 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>352560</v>
+        <v>352540</v>
       </c>
       <c r="B494" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C494" t="s">
         <v>503</v>
       </c>
       <c r="D494" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>261270</v>
+        <v>354240</v>
       </c>
       <c r="B495" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C495" t="s">
         <v>503</v>
@@ -9131,10 +9138,10 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>182480</v>
+        <v>352560</v>
       </c>
       <c r="B496" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C496" t="s">
         <v>503</v>
@@ -9145,10 +9152,10 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>261260</v>
+        <v>261270</v>
       </c>
       <c r="B497" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C497" t="s">
         <v>503</v>
@@ -9159,10 +9166,10 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>139660</v>
+        <v>182480</v>
       </c>
       <c r="B498" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C498" t="s">
         <v>503</v>
@@ -9173,10 +9180,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>261250</v>
+        <v>261260</v>
       </c>
       <c r="B499" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C499" t="s">
         <v>503</v>
@@ -9187,24 +9194,24 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>375270</v>
+        <v>139660</v>
       </c>
       <c r="B500" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C500" t="s">
         <v>503</v>
       </c>
       <c r="D500" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>181480</v>
+        <v>261250</v>
       </c>
       <c r="B501" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C501" t="s">
         <v>503</v>
@@ -9215,24 +9222,24 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>316300</v>
+        <v>375270</v>
       </c>
       <c r="B502" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C502" t="s">
         <v>503</v>
       </c>
       <c r="D502" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>261240</v>
+        <v>181480</v>
       </c>
       <c r="B503" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C503" t="s">
         <v>503</v>
@@ -9243,24 +9250,24 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>390390</v>
+        <v>316300</v>
       </c>
       <c r="B504" t="s">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="C504" t="s">
         <v>503</v>
       </c>
       <c r="D504" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>390400</v>
+        <v>261240</v>
       </c>
       <c r="B505" t="s">
-        <v>517</v>
+        <v>301</v>
       </c>
       <c r="C505" t="s">
         <v>503</v>
@@ -9271,38 +9278,38 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>394670</v>
+        <v>390390</v>
       </c>
       <c r="B506" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C506" t="s">
         <v>503</v>
       </c>
       <c r="D506" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>394660</v>
+        <v>390400</v>
       </c>
       <c r="B507" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C507" t="s">
         <v>503</v>
       </c>
       <c r="D507" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>394350</v>
+        <v>394670</v>
       </c>
       <c r="B508" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C508" t="s">
         <v>503</v>
@@ -9313,10 +9320,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>394340</v>
+        <v>394660</v>
       </c>
       <c r="B509" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C509" t="s">
         <v>503</v>
@@ -9327,57 +9334,85 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>396510</v>
+        <v>394350</v>
       </c>
       <c r="B510" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C510" t="s">
         <v>503</v>
       </c>
       <c r="D510" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>396520</v>
+        <v>394340</v>
       </c>
       <c r="B511" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C511" t="s">
         <v>503</v>
       </c>
       <c r="D511" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>391600</v>
+        <v>396510</v>
       </c>
       <c r="B512" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C512" t="s">
         <v>503</v>
       </c>
       <c r="D512" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>391590</v>
+        <v>396520</v>
       </c>
       <c r="B513" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C513" t="s">
         <v>503</v>
       </c>
       <c r="D513" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>391600</v>
+      </c>
+      <c r="B514" t="s">
+        <v>546</v>
+      </c>
+      <c r="C514" t="s">
+        <v>503</v>
+      </c>
+      <c r="D514" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>391590</v>
+      </c>
+      <c r="B515" t="s">
+        <v>547</v>
+      </c>
+      <c r="C515" t="s">
+        <v>503</v>
+      </c>
+      <c r="D515" t="s">
         <v>496</v>
       </c>
     </row>

--- a/warehouse/group/handler/TDATETF.xlsx
+++ b/warehouse/group/handler/TDATETF.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/marketport/warehouse/group/handler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C334BF5-656F-4C05-A5B5-9E0A58E4416B}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD71399C-279B-46C9-903B-354B8FA461B4}"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="1905" windowWidth="18150" windowHeight="11385" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$515</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="574">
   <si>
     <t>종목코드</t>
   </si>
@@ -1796,6 +1796,36 @@
   </si>
   <si>
     <t>KINDEX 미국고배당S&amp;P</t>
+  </si>
+  <si>
+    <t>TIGER KRX기후변화솔루션</t>
+  </si>
+  <si>
+    <t>KODEX KRX기후변화솔루션</t>
+  </si>
+  <si>
+    <t>TIMEFOLIO 탄소중립액티브</t>
+  </si>
+  <si>
+    <t>HANARO KRX기후변화솔루션</t>
+  </si>
+  <si>
+    <t>KBSTAR KRX기후변화솔루션</t>
+  </si>
+  <si>
+    <t>SOL KRX기후변화솔루션</t>
+  </si>
+  <si>
+    <t>MASTER 테크미디어텔레콤액티브</t>
+  </si>
+  <si>
+    <t>MASTER 스마트커머스액티브</t>
+  </si>
+  <si>
+    <t>에셋플러스 코리아플랫폼액티브</t>
+  </si>
+  <si>
+    <t>에셋플러스 글로벌플랫폼액티브</t>
   </si>
 </sst>
 </file>
@@ -2193,11 +2223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E65B9-4AFB-4959-9CD3-28669B32D629}">
-  <dimension ref="A1:D515"/>
+  <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C444" sqref="C444:D444"/>
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C409" sqref="C409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5832,194 +5862,194 @@
         <v>532</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="4">
-        <v>166400</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>483</v>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>404540</v>
+      </c>
+      <c r="B260" t="s">
+        <v>564</v>
+      </c>
+      <c r="C260" t="s">
+        <v>64</v>
+      </c>
+      <c r="D260" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>137930</v>
+        <v>404260</v>
       </c>
       <c r="B261" t="s">
-        <v>243</v>
+        <v>565</v>
       </c>
       <c r="C261" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D261" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>360140</v>
+        <v>404120</v>
       </c>
       <c r="B262" t="s">
-        <v>159</v>
+        <v>566</v>
       </c>
       <c r="C262" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D262" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>360150</v>
+        <v>404470</v>
       </c>
       <c r="B263" t="s">
-        <v>174</v>
+        <v>567</v>
       </c>
       <c r="C263" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D263" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>230480</v>
+        <v>403990</v>
       </c>
       <c r="B264" t="s">
-        <v>242</v>
+        <v>568</v>
       </c>
       <c r="C264" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D264" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>282000</v>
+        <v>404650</v>
       </c>
       <c r="B265" t="s">
-        <v>244</v>
+        <v>569</v>
       </c>
       <c r="C265" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D265" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>275750</v>
+        <v>407160</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>570</v>
       </c>
       <c r="C266" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D266" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>306520</v>
+        <v>407170</v>
       </c>
       <c r="B267" t="s">
-        <v>246</v>
+        <v>571</v>
       </c>
       <c r="C267" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D267" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>252410</v>
+        <v>407820</v>
       </c>
       <c r="B268" t="s">
-        <v>248</v>
+        <v>572</v>
       </c>
       <c r="C268" t="s">
+        <v>64</v>
+      </c>
+      <c r="D268" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>166400</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C269" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D268" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>301410</v>
-      </c>
-      <c r="B269" t="s">
-        <v>249</v>
-      </c>
-      <c r="C269" t="s">
-        <v>484</v>
-      </c>
-      <c r="D269" t="s">
-        <v>481</v>
+      <c r="D269" s="4" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>291620</v>
+        <v>137930</v>
       </c>
       <c r="B270" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C270" t="s">
         <v>484</v>
       </c>
       <c r="D270" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>252420</v>
+        <v>360140</v>
       </c>
       <c r="B271" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="C271" t="s">
         <v>484</v>
       </c>
       <c r="D271" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>253240</v>
+        <v>360150</v>
       </c>
       <c r="B272" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="C272" t="s">
         <v>484</v>
       </c>
       <c r="D272" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>253230</v>
+        <v>230480</v>
       </c>
       <c r="B273" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C273" t="s">
         <v>484</v>
@@ -6030,10 +6060,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>253160</v>
+        <v>282000</v>
       </c>
       <c r="B274" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C274" t="s">
         <v>484</v>
@@ -6044,10 +6074,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>251340</v>
+        <v>275750</v>
       </c>
       <c r="B275" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C275" t="s">
         <v>484</v>
@@ -6058,10 +6088,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>252710</v>
+        <v>306520</v>
       </c>
       <c r="B276" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C276" t="s">
         <v>484</v>
@@ -6072,10 +6102,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>250780</v>
+        <v>252410</v>
       </c>
       <c r="B277" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C277" t="s">
         <v>484</v>
@@ -6086,10 +6116,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>252670</v>
+        <v>301410</v>
       </c>
       <c r="B278" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C278" t="s">
         <v>484</v>
@@ -6100,304 +6130,304 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>225800</v>
+        <v>291620</v>
       </c>
       <c r="B279" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C279" t="s">
         <v>484</v>
       </c>
       <c r="D279" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>304780</v>
+        <v>252420</v>
       </c>
       <c r="B280" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="C280" t="s">
         <v>484</v>
       </c>
       <c r="D280" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>278240</v>
+        <v>253240</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>259</v>
       </c>
       <c r="C281" t="s">
         <v>484</v>
       </c>
       <c r="D281" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>291630</v>
+        <v>253230</v>
       </c>
       <c r="B282" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C282" t="s">
         <v>484</v>
       </c>
       <c r="D282" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>306530</v>
+        <v>253160</v>
       </c>
       <c r="B283" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C283" t="s">
         <v>484</v>
       </c>
       <c r="D283" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>253250</v>
+        <v>251340</v>
       </c>
       <c r="B284" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C284" t="s">
         <v>484</v>
       </c>
       <c r="D284" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>267770</v>
+        <v>252710</v>
       </c>
       <c r="B285" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C285" t="s">
         <v>484</v>
       </c>
       <c r="D285" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>253150</v>
+        <v>250780</v>
       </c>
       <c r="B286" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C286" t="s">
         <v>484</v>
       </c>
       <c r="D286" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>252400</v>
+        <v>252670</v>
       </c>
       <c r="B287" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C287" t="s">
         <v>484</v>
       </c>
       <c r="D287" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>334690</v>
+        <v>225800</v>
       </c>
       <c r="B288" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="C288" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D288" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>334700</v>
+        <v>304780</v>
       </c>
       <c r="B289" t="s">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D289" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>261220</v>
+        <v>278240</v>
       </c>
       <c r="B290" t="s">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D290" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>139310</v>
+        <v>291630</v>
       </c>
       <c r="B291" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="C291" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D291" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>139320</v>
+        <v>306530</v>
       </c>
       <c r="B292" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="C292" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D292" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>144600</v>
+        <v>253250</v>
       </c>
       <c r="B293" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="C293" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D293" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>132030</v>
+        <v>267770</v>
       </c>
       <c r="B294" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C294" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D294" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>130680</v>
+        <v>253150</v>
       </c>
       <c r="B295" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="C295" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D295" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>137610</v>
+        <v>252400</v>
       </c>
       <c r="B296" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="C296" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D296" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>138920</v>
+        <v>334690</v>
       </c>
       <c r="B297" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C297" t="s">
         <v>303</v>
       </c>
       <c r="D297" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>271050</v>
+        <v>334700</v>
       </c>
       <c r="B298" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C298" t="s">
         <v>303</v>
       </c>
       <c r="D298" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>138910</v>
+        <v>261220</v>
       </c>
       <c r="B299" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C299" t="s">
         <v>303</v>
       </c>
       <c r="D299" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>160580</v>
+        <v>139310</v>
       </c>
       <c r="B300" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C300" t="s">
         <v>303</v>
@@ -6408,27 +6438,27 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>271060</v>
+        <v>139320</v>
       </c>
       <c r="B301" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C301" t="s">
         <v>303</v>
       </c>
       <c r="D301" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>280940</v>
+        <v>144600</v>
       </c>
       <c r="B302" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="C302" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D302" t="s">
         <v>498</v>
@@ -6436,178 +6466,178 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>217770</v>
+        <v>132030</v>
       </c>
       <c r="B303" t="s">
-        <v>419</v>
+        <v>309</v>
       </c>
       <c r="C303" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D303" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>319640</v>
+        <v>130680</v>
       </c>
       <c r="B304" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="C304" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D304" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>225130</v>
+        <v>137610</v>
       </c>
       <c r="B305" t="s">
-        <v>458</v>
+        <v>311</v>
       </c>
       <c r="C305" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D305" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>148070</v>
+        <v>138920</v>
       </c>
       <c r="B306" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C306" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D306" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>152380</v>
+        <v>271050</v>
       </c>
       <c r="B307" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C307" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D307" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>365780</v>
+        <v>138910</v>
       </c>
       <c r="B308" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C308" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D308" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>176950</v>
+        <v>160580</v>
       </c>
       <c r="B309" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C309" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D309" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>385560</v>
+        <v>271060</v>
       </c>
       <c r="B310" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C310" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D310" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>167860</v>
+        <v>280940</v>
       </c>
       <c r="B311" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="C311" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D311" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>346000</v>
+        <v>217770</v>
       </c>
       <c r="B312" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="C312" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D312" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>342620</v>
+        <v>319640</v>
       </c>
       <c r="B313" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C313" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D313" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>342610</v>
+        <v>225130</v>
       </c>
       <c r="B314" t="s">
-        <v>340</v>
+        <v>458</v>
       </c>
       <c r="C314" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D314" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>342600</v>
+        <v>148070</v>
       </c>
       <c r="B315" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C315" t="s">
         <v>318</v>
@@ -6618,10 +6648,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>342500</v>
+        <v>152380</v>
       </c>
       <c r="B316" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C316" t="s">
         <v>318</v>
@@ -6632,10 +6662,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>176710</v>
+        <v>365780</v>
       </c>
       <c r="B317" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C317" t="s">
         <v>318</v>
@@ -6646,10 +6676,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>196230</v>
+        <v>176950</v>
       </c>
       <c r="B318" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C318" t="s">
         <v>318</v>
@@ -6660,10 +6690,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>114470</v>
+        <v>385560</v>
       </c>
       <c r="B319" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C319" t="s">
         <v>318</v>
@@ -6674,10 +6704,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>289670</v>
+        <v>167860</v>
       </c>
       <c r="B320" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C320" t="s">
         <v>318</v>
@@ -6688,10 +6718,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>298340</v>
+        <v>346000</v>
       </c>
       <c r="B321" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C321" t="s">
         <v>318</v>
@@ -6702,10 +6732,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>153130</v>
+        <v>342620</v>
       </c>
       <c r="B322" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C322" t="s">
         <v>318</v>
@@ -6716,10 +6746,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>272910</v>
+        <v>342610</v>
       </c>
       <c r="B323" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C323" t="s">
         <v>318</v>
@@ -6730,10 +6760,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>299070</v>
+        <v>342600</v>
       </c>
       <c r="B324" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C324" t="s">
         <v>318</v>
@@ -6744,10 +6774,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>295000</v>
+        <v>342500</v>
       </c>
       <c r="B325" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C325" t="s">
         <v>318</v>
@@ -6758,10 +6788,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>299080</v>
+        <v>176710</v>
       </c>
       <c r="B326" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C326" t="s">
         <v>318</v>
@@ -6772,10 +6802,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>302170</v>
+        <v>196230</v>
       </c>
       <c r="B327" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C327" t="s">
         <v>318</v>
@@ -6786,10 +6816,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>302180</v>
+        <v>114470</v>
       </c>
       <c r="B328" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C328" t="s">
         <v>318</v>
@@ -6800,10 +6830,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>114820</v>
+        <v>289670</v>
       </c>
       <c r="B329" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C329" t="s">
         <v>318</v>
@@ -6814,10 +6844,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>302190</v>
+        <v>298340</v>
       </c>
       <c r="B330" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C330" t="s">
         <v>318</v>
@@ -6828,10 +6858,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>295020</v>
+        <v>153130</v>
       </c>
       <c r="B331" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="C331" t="s">
         <v>318</v>
@@ -6842,10 +6872,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>114260</v>
+        <v>272910</v>
       </c>
       <c r="B332" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C332" t="s">
         <v>318</v>
@@ -6856,10 +6886,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>114100</v>
+        <v>299070</v>
       </c>
       <c r="B333" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C333" t="s">
         <v>318</v>
@@ -6870,10 +6900,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>397420</v>
+        <v>295000</v>
       </c>
       <c r="B334" t="s">
-        <v>552</v>
+        <v>354</v>
       </c>
       <c r="C334" t="s">
         <v>318</v>
@@ -6884,10 +6914,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>114460</v>
+        <v>299080</v>
       </c>
       <c r="B335" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C335" t="s">
         <v>318</v>
@@ -6898,10 +6928,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>272570</v>
+        <v>302170</v>
       </c>
       <c r="B336" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C336" t="s">
         <v>318</v>
@@ -6912,10 +6942,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>292770</v>
+        <v>302180</v>
       </c>
       <c r="B337" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C337" t="s">
         <v>318</v>
@@ -6926,10 +6956,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>397410</v>
+        <v>114820</v>
       </c>
       <c r="B338" t="s">
-        <v>549</v>
+        <v>360</v>
       </c>
       <c r="C338" t="s">
         <v>318</v>
@@ -6940,10 +6970,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>272560</v>
+        <v>302190</v>
       </c>
       <c r="B339" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C339" t="s">
         <v>318</v>
@@ -6954,10 +6984,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>190620</v>
+        <v>295020</v>
       </c>
       <c r="B340" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="C340" t="s">
         <v>318</v>
@@ -6968,10 +6998,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>122260</v>
+        <v>114260</v>
       </c>
       <c r="B341" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="C341" t="s">
         <v>318</v>
@@ -6982,10 +7012,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>363510</v>
+        <v>114100</v>
       </c>
       <c r="B342" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="C342" t="s">
         <v>318</v>
@@ -6996,10 +7026,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>157450</v>
+        <v>397420</v>
       </c>
       <c r="B343" t="s">
-        <v>333</v>
+        <v>552</v>
       </c>
       <c r="C343" t="s">
         <v>318</v>
@@ -7010,10 +7040,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>336160</v>
+        <v>114460</v>
       </c>
       <c r="B344" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="C344" t="s">
         <v>318</v>
@@ -7024,10 +7054,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>273140</v>
+        <v>272570</v>
       </c>
       <c r="B345" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C345" t="s">
         <v>318</v>
@@ -7038,10 +7068,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>214980</v>
+        <v>292770</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C346" t="s">
         <v>318</v>
@@ -7052,10 +7082,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>130730</v>
+        <v>397410</v>
       </c>
       <c r="B347" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
       <c r="C347" t="s">
         <v>318</v>
@@ -7066,10 +7096,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>272580</v>
+        <v>272560</v>
       </c>
       <c r="B348" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C348" t="s">
         <v>318</v>
@@ -7080,136 +7110,136 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>305080</v>
+        <v>190620</v>
       </c>
       <c r="B349" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="C349" t="s">
         <v>318</v>
       </c>
       <c r="D349" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>284430</v>
+        <v>122260</v>
       </c>
       <c r="B350" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="C350" t="s">
         <v>318</v>
       </c>
       <c r="D350" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>329750</v>
+        <v>363510</v>
       </c>
       <c r="B351" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C351" t="s">
         <v>318</v>
       </c>
       <c r="D351" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>308620</v>
+        <v>157450</v>
       </c>
       <c r="B352" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C352" t="s">
         <v>318</v>
       </c>
       <c r="D352" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>304660</v>
+        <v>336160</v>
       </c>
       <c r="B353" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C353" t="s">
         <v>318</v>
       </c>
       <c r="D353" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>267450</v>
+        <v>273140</v>
       </c>
       <c r="B354" t="s">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="C354" t="s">
         <v>318</v>
       </c>
       <c r="D354" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>267440</v>
+        <v>214980</v>
       </c>
       <c r="B355" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="C355" t="s">
         <v>318</v>
       </c>
       <c r="D355" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>267500</v>
+        <v>130730</v>
       </c>
       <c r="B356" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="C356" t="s">
         <v>318</v>
       </c>
       <c r="D356" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>304670</v>
+        <v>272580</v>
       </c>
       <c r="B357" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="C357" t="s">
         <v>318</v>
       </c>
       <c r="D357" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>267490</v>
+        <v>305080</v>
       </c>
       <c r="B358" t="s">
-        <v>474</v>
+        <v>362</v>
       </c>
       <c r="C358" t="s">
         <v>318</v>
@@ -7220,10 +7250,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>390950</v>
+        <v>284430</v>
       </c>
       <c r="B359" t="s">
-        <v>515</v>
+        <v>363</v>
       </c>
       <c r="C359" t="s">
         <v>318</v>
@@ -7234,136 +7264,136 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>329660</v>
+        <v>329750</v>
       </c>
       <c r="B360" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="C360" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D360" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>251600</v>
+        <v>308620</v>
       </c>
       <c r="B361" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C361" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D361" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>329670</v>
+        <v>304660</v>
       </c>
       <c r="B362" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="C362" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D362" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>183710</v>
+        <v>267450</v>
       </c>
       <c r="B363" t="s">
-        <v>282</v>
+        <v>428</v>
       </c>
       <c r="C363" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D363" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>183700</v>
+        <v>267440</v>
       </c>
       <c r="B364" t="s">
-        <v>283</v>
+        <v>439</v>
       </c>
       <c r="C364" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D364" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>357870</v>
+        <v>267500</v>
       </c>
       <c r="B365" t="s">
-        <v>284</v>
+        <v>465</v>
       </c>
       <c r="C365" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D365" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>329650</v>
+        <v>304670</v>
       </c>
       <c r="B366" t="s">
-        <v>285</v>
+        <v>470</v>
       </c>
       <c r="C366" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D366" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>241390</v>
+        <v>267490</v>
       </c>
       <c r="B367" t="s">
-        <v>287</v>
+        <v>474</v>
       </c>
       <c r="C367" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D367" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>253290</v>
+        <v>390950</v>
       </c>
       <c r="B368" t="s">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="C368" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D368" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>238670</v>
+        <v>329660</v>
       </c>
       <c r="B369" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C369" t="s">
         <v>501</v>
@@ -7374,10 +7404,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>237440</v>
+        <v>251600</v>
       </c>
       <c r="B370" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C370" t="s">
         <v>501</v>
@@ -7388,10 +7418,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>321410</v>
+        <v>329670</v>
       </c>
       <c r="B371" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C371" t="s">
         <v>501</v>
@@ -7402,10 +7432,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>237370</v>
+        <v>183710</v>
       </c>
       <c r="B372" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C372" t="s">
         <v>501</v>
@@ -7416,10 +7446,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>341850</v>
+        <v>183700</v>
       </c>
       <c r="B373" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C373" t="s">
         <v>501</v>
@@ -7430,13 +7460,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>278620</v>
+        <v>357870</v>
       </c>
       <c r="B374" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="C374" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D374" t="s">
         <v>486</v>
@@ -7444,13 +7474,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>385550</v>
+        <v>329650</v>
       </c>
       <c r="B375" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="C375" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D375" t="s">
         <v>486</v>
@@ -7458,13 +7488,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>385540</v>
+        <v>241390</v>
       </c>
       <c r="B376" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="C376" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D376" t="s">
         <v>486</v>
@@ -7472,13 +7502,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>363570</v>
+        <v>253290</v>
       </c>
       <c r="B377" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="C377" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D377" t="s">
         <v>486</v>
@@ -7486,13 +7516,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>356540</v>
+        <v>238670</v>
       </c>
       <c r="B378" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="C378" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D378" t="s">
         <v>486</v>
@@ -7500,13 +7530,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>273130</v>
+        <v>237440</v>
       </c>
       <c r="B379" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="C379" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D379" t="s">
         <v>486</v>
@@ -7514,10 +7544,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>342140</v>
+        <v>321410</v>
       </c>
       <c r="B380" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C380" t="s">
         <v>501</v>
@@ -7528,304 +7558,304 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>332610</v>
+        <v>237370</v>
       </c>
       <c r="B381" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C381" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D381" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>332620</v>
+        <v>341850</v>
       </c>
       <c r="B382" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C382" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D382" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>182490</v>
+        <v>278620</v>
       </c>
       <c r="B383" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="C383" t="s">
         <v>318</v>
       </c>
       <c r="D383" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>239660</v>
+        <v>385550</v>
       </c>
       <c r="B384" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="C384" t="s">
         <v>318</v>
       </c>
       <c r="D384" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>136340</v>
+        <v>385540</v>
       </c>
       <c r="B385" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="C385" t="s">
         <v>318</v>
       </c>
       <c r="D385" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>291130</v>
+        <v>363570</v>
       </c>
       <c r="B386" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="C386" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D386" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>256750</v>
+        <v>356540</v>
       </c>
       <c r="B387" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C387" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D387" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>367380</v>
+        <v>273130</v>
       </c>
       <c r="B388" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C388" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D388" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>251350</v>
+        <v>342140</v>
       </c>
       <c r="B389" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
       <c r="C389" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D389" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>256450</v>
+        <v>332610</v>
       </c>
       <c r="B390" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="C390" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D390" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>256440</v>
+        <v>332620</v>
       </c>
       <c r="B391" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="C391" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D391" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>368590</v>
+        <v>182490</v>
       </c>
       <c r="B392" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="C392" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D392" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>291680</v>
+        <v>239660</v>
       </c>
       <c r="B393" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C393" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D393" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>291890</v>
+        <v>136340</v>
       </c>
       <c r="B394" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C394" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D394" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>245340</v>
+        <v>291130</v>
       </c>
       <c r="B395" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C395" t="s">
         <v>502</v>
       </c>
       <c r="D395" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>371450</v>
+        <v>256750</v>
       </c>
       <c r="B396" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C396" t="s">
         <v>502</v>
       </c>
       <c r="D396" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>371150</v>
+        <v>367380</v>
       </c>
       <c r="B397" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C397" t="s">
         <v>502</v>
       </c>
       <c r="D397" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>276990</v>
+        <v>251350</v>
       </c>
       <c r="B398" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C398" t="s">
         <v>502</v>
       </c>
       <c r="D398" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>387270</v>
+        <v>256450</v>
       </c>
       <c r="B399" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C399" t="s">
         <v>502</v>
       </c>
       <c r="D399" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>241180</v>
+        <v>256440</v>
       </c>
       <c r="B400" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C400" t="s">
         <v>502</v>
       </c>
       <c r="D400" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>238720</v>
+        <v>368590</v>
       </c>
       <c r="B401" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C401" t="s">
         <v>502</v>
       </c>
       <c r="D401" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>117690</v>
+        <v>291680</v>
       </c>
       <c r="B402" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C402" t="s">
         <v>502</v>
@@ -7836,24 +7866,24 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>280320</v>
+        <v>291890</v>
       </c>
       <c r="B403" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C403" t="s">
         <v>502</v>
       </c>
       <c r="D403" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>280930</v>
+        <v>245340</v>
       </c>
       <c r="B404" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C404" t="s">
         <v>502</v>
@@ -7864,24 +7894,24 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>276970</v>
+        <v>371450</v>
       </c>
       <c r="B405" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C405" t="s">
         <v>502</v>
       </c>
       <c r="D405" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>283580</v>
+        <v>371150</v>
       </c>
       <c r="B406" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C406" t="s">
         <v>502</v>
@@ -7892,122 +7922,122 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>381180</v>
+        <v>276990</v>
       </c>
       <c r="B407" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C407" t="s">
         <v>502</v>
       </c>
       <c r="D407" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>381170</v>
+        <v>387270</v>
       </c>
       <c r="B408" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C408" t="s">
         <v>502</v>
       </c>
       <c r="D408" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>379810</v>
+        <v>407830</v>
       </c>
       <c r="B409" t="s">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="C409" t="s">
         <v>502</v>
       </c>
       <c r="D409" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>379800</v>
+        <v>241180</v>
       </c>
       <c r="B410" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C410" t="s">
         <v>502</v>
       </c>
       <c r="D410" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>150460</v>
+        <v>238720</v>
       </c>
       <c r="B411" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="C411" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D411" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>371130</v>
+        <v>117690</v>
       </c>
       <c r="B412" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C412" t="s">
         <v>502</v>
       </c>
       <c r="D412" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>379790</v>
+        <v>280320</v>
       </c>
       <c r="B413" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C413" t="s">
         <v>502</v>
       </c>
       <c r="D413" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>400570</v>
+        <v>280930</v>
       </c>
       <c r="B414" t="s">
-        <v>550</v>
+        <v>393</v>
       </c>
       <c r="C414" t="s">
         <v>502</v>
       </c>
       <c r="D414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>143850</v>
+        <v>276970</v>
       </c>
       <c r="B415" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C415" t="s">
         <v>502</v>
@@ -8018,52 +8048,52 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>236350</v>
+        <v>283580</v>
       </c>
       <c r="B416" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C416" t="s">
         <v>502</v>
       </c>
       <c r="D416" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>276650</v>
+        <v>381180</v>
       </c>
       <c r="B417" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C417" t="s">
         <v>502</v>
       </c>
       <c r="D417" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>276000</v>
+        <v>381170</v>
       </c>
       <c r="B418" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C418" t="s">
         <v>502</v>
       </c>
       <c r="D418" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>133690</v>
+        <v>379810</v>
       </c>
       <c r="B419" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C419" t="s">
         <v>502</v>
@@ -8074,38 +8104,38 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>275980</v>
+        <v>379800</v>
       </c>
       <c r="B420" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C420" t="s">
         <v>502</v>
       </c>
       <c r="D420" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>373790</v>
+        <v>150460</v>
       </c>
       <c r="B421" t="s">
-        <v>409</v>
+        <v>230</v>
       </c>
       <c r="C421" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D421" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>373530</v>
+        <v>371130</v>
       </c>
       <c r="B422" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C422" t="s">
         <v>502</v>
@@ -8116,94 +8146,94 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>287180</v>
+        <v>379790</v>
       </c>
       <c r="B423" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C423" t="s">
         <v>502</v>
       </c>
       <c r="D423" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>372330</v>
+        <v>400570</v>
       </c>
       <c r="B424" t="s">
-        <v>412</v>
+        <v>550</v>
       </c>
       <c r="C424" t="s">
         <v>502</v>
       </c>
       <c r="D424" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>371870</v>
+        <v>143850</v>
       </c>
       <c r="B425" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C425" t="s">
         <v>502</v>
       </c>
       <c r="D425" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>371470</v>
+        <v>236350</v>
       </c>
       <c r="B426" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C426" t="s">
         <v>502</v>
       </c>
       <c r="D426" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>371460</v>
+        <v>276650</v>
       </c>
       <c r="B427" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C427" t="s">
         <v>502</v>
       </c>
       <c r="D427" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>371160</v>
+        <v>276000</v>
       </c>
       <c r="B428" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C428" t="s">
         <v>502</v>
       </c>
       <c r="D428" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>379780</v>
+        <v>133690</v>
       </c>
       <c r="B429" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C429" t="s">
         <v>502</v>
@@ -8214,52 +8244,52 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>309230</v>
+        <v>275980</v>
       </c>
       <c r="B430" t="s">
-        <v>157</v>
+        <v>408</v>
       </c>
       <c r="C430" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D430" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>245350</v>
+        <v>373790</v>
       </c>
       <c r="B431" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C431" t="s">
         <v>502</v>
       </c>
       <c r="D431" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>360750</v>
+        <v>373530</v>
       </c>
       <c r="B432" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C432" t="s">
         <v>502</v>
       </c>
       <c r="D432" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>399110</v>
+        <v>287180</v>
       </c>
       <c r="B433" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="C433" t="s">
         <v>502</v>
@@ -8270,136 +8300,136 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>400580</v>
+        <v>372330</v>
       </c>
       <c r="B434" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="C434" t="s">
         <v>502</v>
       </c>
       <c r="D434" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>400590</v>
+        <v>371870</v>
       </c>
       <c r="B435" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="C435" t="s">
         <v>502</v>
       </c>
       <c r="D435" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>401590</v>
+        <v>371470</v>
       </c>
       <c r="B436" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="C436" t="s">
         <v>502</v>
       </c>
       <c r="D436" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>195930</v>
+        <v>371460</v>
       </c>
       <c r="B437" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C437" t="s">
         <v>502</v>
       </c>
       <c r="D437" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>195970</v>
+        <v>371160</v>
       </c>
       <c r="B438" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C438" t="s">
         <v>502</v>
       </c>
       <c r="D438" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>195980</v>
+        <v>379780</v>
       </c>
       <c r="B439" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C439" t="s">
         <v>502</v>
       </c>
       <c r="D439" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>196030</v>
+        <v>309230</v>
       </c>
       <c r="B440" t="s">
-        <v>424</v>
+        <v>157</v>
       </c>
       <c r="C440" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D440" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>277540</v>
+        <v>245350</v>
       </c>
       <c r="B441" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C441" t="s">
         <v>502</v>
       </c>
       <c r="D441" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>399580</v>
+        <v>360750</v>
       </c>
       <c r="B442" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="C442" t="s">
         <v>502</v>
       </c>
       <c r="D442" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>200030</v>
+        <v>399110</v>
       </c>
       <c r="B443" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="C443" t="s">
         <v>502</v>
@@ -8410,94 +8440,94 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>402970</v>
+        <v>400580</v>
       </c>
       <c r="B444" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C444" t="s">
         <v>502</v>
       </c>
       <c r="D444" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>200250</v>
+        <v>400590</v>
       </c>
       <c r="B445" t="s">
-        <v>427</v>
+        <v>555</v>
       </c>
       <c r="C445" t="s">
         <v>502</v>
       </c>
       <c r="D445" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>203780</v>
+        <v>401590</v>
       </c>
       <c r="B446" t="s">
-        <v>429</v>
+        <v>556</v>
       </c>
       <c r="C446" t="s">
         <v>502</v>
       </c>
       <c r="D446" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>204450</v>
+        <v>195930</v>
       </c>
       <c r="B447" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C447" t="s">
         <v>502</v>
       </c>
       <c r="D447" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>217780</v>
+        <v>195970</v>
       </c>
       <c r="B448" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C448" t="s">
         <v>502</v>
       </c>
       <c r="D448" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>204480</v>
+        <v>195980</v>
       </c>
       <c r="B449" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C449" t="s">
         <v>502</v>
       </c>
       <c r="D449" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>205720</v>
+        <v>196030</v>
       </c>
       <c r="B450" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C450" t="s">
         <v>502</v>
@@ -8508,52 +8538,52 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>208470</v>
+        <v>277540</v>
       </c>
       <c r="B451" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C451" t="s">
         <v>502</v>
       </c>
       <c r="D451" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>261920</v>
+        <v>399580</v>
       </c>
       <c r="B452" t="s">
-        <v>436</v>
+        <v>562</v>
       </c>
       <c r="C452" t="s">
         <v>502</v>
       </c>
       <c r="D452" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>265690</v>
+        <v>200030</v>
       </c>
       <c r="B453" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C453" t="s">
         <v>502</v>
       </c>
       <c r="D453" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>314250</v>
+        <v>402970</v>
       </c>
       <c r="B454" t="s">
-        <v>438</v>
+        <v>563</v>
       </c>
       <c r="C454" t="s">
         <v>502</v>
@@ -8564,38 +8594,38 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>245360</v>
+        <v>200250</v>
       </c>
       <c r="B455" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C455" t="s">
         <v>502</v>
       </c>
       <c r="D455" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>310080</v>
+        <v>203780</v>
       </c>
       <c r="B456" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C456" t="s">
         <v>502</v>
       </c>
       <c r="D456" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>250730</v>
+        <v>204450</v>
       </c>
       <c r="B457" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C457" t="s">
         <v>502</v>
@@ -8606,332 +8636,332 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>213630</v>
+        <v>217780</v>
       </c>
       <c r="B458" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C458" t="s">
         <v>502</v>
       </c>
       <c r="D458" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>245710</v>
+        <v>204480</v>
       </c>
       <c r="B459" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C459" t="s">
         <v>502</v>
       </c>
       <c r="D459" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>248270</v>
+        <v>205720</v>
       </c>
       <c r="B460" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C460" t="s">
         <v>502</v>
       </c>
       <c r="D460" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>195920</v>
+        <v>208470</v>
       </c>
       <c r="B461" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C461" t="s">
         <v>502</v>
       </c>
       <c r="D461" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>101280</v>
+        <v>261920</v>
       </c>
       <c r="B462" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C462" t="s">
         <v>502</v>
       </c>
       <c r="D462" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>192090</v>
+        <v>265690</v>
       </c>
       <c r="B463" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C463" t="s">
         <v>502</v>
       </c>
       <c r="D463" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>218420</v>
+        <v>314250</v>
       </c>
       <c r="B464" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C464" t="s">
         <v>502</v>
       </c>
       <c r="D464" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>360200</v>
+        <v>245360</v>
       </c>
       <c r="B465" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C465" t="s">
         <v>502</v>
       </c>
       <c r="D465" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>269530</v>
+        <v>310080</v>
       </c>
       <c r="B466" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C466" t="s">
         <v>502</v>
       </c>
       <c r="D466" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>269420</v>
+        <v>250730</v>
       </c>
       <c r="B467" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C467" t="s">
         <v>502</v>
       </c>
       <c r="D467" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>168580</v>
+        <v>213630</v>
       </c>
       <c r="B468" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C468" t="s">
         <v>502</v>
       </c>
       <c r="D468" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>319870</v>
+        <v>245710</v>
       </c>
       <c r="B469" t="s">
-        <v>166</v>
+        <v>444</v>
       </c>
       <c r="C469" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D469" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>248260</v>
+        <v>248270</v>
       </c>
       <c r="B470" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C470" t="s">
         <v>502</v>
       </c>
       <c r="D470" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>169950</v>
+        <v>195920</v>
       </c>
       <c r="B471" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C471" t="s">
         <v>502</v>
       </c>
       <c r="D471" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>354350</v>
+        <v>101280</v>
       </c>
       <c r="B472" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C472" t="s">
         <v>502</v>
       </c>
       <c r="D472" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>269370</v>
+        <v>192090</v>
       </c>
       <c r="B473" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C473" t="s">
         <v>502</v>
       </c>
       <c r="D473" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>225060</v>
+        <v>218420</v>
       </c>
       <c r="B474" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C474" t="s">
         <v>502</v>
       </c>
       <c r="D474" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>298770</v>
+        <v>360200</v>
       </c>
       <c r="B475" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C475" t="s">
         <v>502</v>
       </c>
       <c r="D475" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>174360</v>
+        <v>269530</v>
       </c>
       <c r="B476" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C476" t="s">
         <v>502</v>
       </c>
       <c r="D476" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>269540</v>
+        <v>269420</v>
       </c>
       <c r="B477" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C477" t="s">
         <v>502</v>
       </c>
       <c r="D477" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>225050</v>
+        <v>168580</v>
       </c>
       <c r="B478" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C478" t="s">
         <v>502</v>
       </c>
       <c r="D478" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>225030</v>
+        <v>319870</v>
       </c>
       <c r="B479" t="s">
-        <v>464</v>
+        <v>166</v>
       </c>
       <c r="C479" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D479" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>220130</v>
+        <v>248260</v>
       </c>
       <c r="B480" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C480" t="s">
         <v>502</v>
       </c>
       <c r="D480" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>219900</v>
+        <v>169950</v>
       </c>
       <c r="B481" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C481" t="s">
         <v>502</v>
@@ -8942,52 +8972,52 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>185680</v>
+        <v>354350</v>
       </c>
       <c r="B482" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C482" t="s">
         <v>502</v>
       </c>
       <c r="D482" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>99140</v>
+        <v>269370</v>
       </c>
       <c r="B483" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C483" t="s">
         <v>502</v>
       </c>
       <c r="D483" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>189400</v>
+        <v>225060</v>
       </c>
       <c r="B484" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C484" t="s">
         <v>502</v>
       </c>
       <c r="D484" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>105010</v>
+        <v>298770</v>
       </c>
       <c r="B485" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C485" t="s">
         <v>502</v>
@@ -8998,24 +9028,24 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>219480</v>
+        <v>174360</v>
       </c>
       <c r="B486" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C486" t="s">
         <v>502</v>
       </c>
       <c r="D486" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>304940</v>
+        <v>269540</v>
       </c>
       <c r="B487" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C487" t="s">
         <v>502</v>
@@ -9026,24 +9056,24 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>225040</v>
+        <v>225050</v>
       </c>
       <c r="B488" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C488" t="s">
         <v>502</v>
       </c>
       <c r="D488" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>219390</v>
+        <v>225030</v>
       </c>
       <c r="B489" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C489" t="s">
         <v>502</v>
@@ -9054,97 +9084,97 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>138230</v>
+        <v>220130</v>
       </c>
       <c r="B490" t="s">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="C490" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D490" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>261110</v>
+        <v>219900</v>
       </c>
       <c r="B491" t="s">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="C491" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D491" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>292560</v>
+        <v>185680</v>
       </c>
       <c r="B492" t="s">
-        <v>275</v>
+        <v>468</v>
       </c>
       <c r="C492" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D492" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>261120</v>
+        <v>99140</v>
       </c>
       <c r="B493" t="s">
-        <v>276</v>
+        <v>469</v>
       </c>
       <c r="C493" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D493" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>352540</v>
+        <v>189400</v>
       </c>
       <c r="B494" t="s">
-        <v>277</v>
+        <v>471</v>
       </c>
       <c r="C494" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D494" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>354240</v>
+        <v>105010</v>
       </c>
       <c r="B495" t="s">
-        <v>278</v>
+        <v>472</v>
       </c>
       <c r="C495" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D495" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>352560</v>
+        <v>219480</v>
       </c>
       <c r="B496" t="s">
-        <v>279</v>
+        <v>473</v>
       </c>
       <c r="C496" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D496" t="s">
         <v>496</v>
@@ -9152,13 +9182,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>261270</v>
+        <v>304940</v>
       </c>
       <c r="B497" t="s">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="C497" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D497" t="s">
         <v>496</v>
@@ -9166,13 +9196,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>182480</v>
+        <v>225040</v>
       </c>
       <c r="B498" t="s">
-        <v>286</v>
+        <v>476</v>
       </c>
       <c r="C498" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D498" t="s">
         <v>496</v>
@@ -9180,13 +9210,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>261260</v>
+        <v>219390</v>
       </c>
       <c r="B499" t="s">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="C499" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D499" t="s">
         <v>496</v>
@@ -9194,10 +9224,10 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>139660</v>
+        <v>138230</v>
       </c>
       <c r="B500" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C500" t="s">
         <v>503</v>
@@ -9208,10 +9238,10 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>261250</v>
+        <v>261110</v>
       </c>
       <c r="B501" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C501" t="s">
         <v>503</v>
@@ -9222,24 +9252,24 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>375270</v>
+        <v>292560</v>
       </c>
       <c r="B502" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C502" t="s">
         <v>503</v>
       </c>
       <c r="D502" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>181480</v>
+        <v>261120</v>
       </c>
       <c r="B503" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C503" t="s">
         <v>503</v>
@@ -9250,24 +9280,24 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>316300</v>
+        <v>352540</v>
       </c>
       <c r="B504" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C504" t="s">
         <v>503</v>
       </c>
       <c r="D504" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>261240</v>
+        <v>354240</v>
       </c>
       <c r="B505" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C505" t="s">
         <v>503</v>
@@ -9278,10 +9308,10 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>390390</v>
+        <v>352560</v>
       </c>
       <c r="B506" t="s">
-        <v>516</v>
+        <v>279</v>
       </c>
       <c r="C506" t="s">
         <v>503</v>
@@ -9292,10 +9322,10 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>390400</v>
+        <v>261270</v>
       </c>
       <c r="B507" t="s">
-        <v>517</v>
+        <v>280</v>
       </c>
       <c r="C507" t="s">
         <v>503</v>
@@ -9306,113 +9336,253 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>394670</v>
+        <v>182480</v>
       </c>
       <c r="B508" t="s">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="C508" t="s">
         <v>503</v>
       </c>
       <c r="D508" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>394660</v>
+        <v>261260</v>
       </c>
       <c r="B509" t="s">
-        <v>519</v>
+        <v>288</v>
       </c>
       <c r="C509" t="s">
         <v>503</v>
       </c>
       <c r="D509" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>394350</v>
+        <v>139660</v>
       </c>
       <c r="B510" t="s">
-        <v>520</v>
+        <v>289</v>
       </c>
       <c r="C510" t="s">
         <v>503</v>
       </c>
       <c r="D510" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>394340</v>
+        <v>261250</v>
       </c>
       <c r="B511" t="s">
-        <v>521</v>
+        <v>296</v>
       </c>
       <c r="C511" t="s">
         <v>503</v>
       </c>
       <c r="D511" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>396510</v>
+        <v>375270</v>
       </c>
       <c r="B512" t="s">
-        <v>544</v>
+        <v>297</v>
       </c>
       <c r="C512" t="s">
         <v>503</v>
       </c>
       <c r="D512" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>396520</v>
+        <v>181480</v>
       </c>
       <c r="B513" t="s">
-        <v>545</v>
+        <v>298</v>
       </c>
       <c r="C513" t="s">
         <v>503</v>
       </c>
       <c r="D513" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>391600</v>
+        <v>316300</v>
       </c>
       <c r="B514" t="s">
-        <v>546</v>
+        <v>300</v>
       </c>
       <c r="C514" t="s">
         <v>503</v>
       </c>
       <c r="D514" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>391590</v>
+        <v>261240</v>
       </c>
       <c r="B515" t="s">
-        <v>547</v>
+        <v>301</v>
       </c>
       <c r="C515" t="s">
         <v>503</v>
       </c>
       <c r="D515" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>390390</v>
+      </c>
+      <c r="B516" t="s">
+        <v>516</v>
+      </c>
+      <c r="C516" t="s">
+        <v>503</v>
+      </c>
+      <c r="D516" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>390400</v>
+      </c>
+      <c r="B517" t="s">
+        <v>517</v>
+      </c>
+      <c r="C517" t="s">
+        <v>503</v>
+      </c>
+      <c r="D517" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>394670</v>
+      </c>
+      <c r="B518" t="s">
+        <v>518</v>
+      </c>
+      <c r="C518" t="s">
+        <v>503</v>
+      </c>
+      <c r="D518" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>394660</v>
+      </c>
+      <c r="B519" t="s">
+        <v>519</v>
+      </c>
+      <c r="C519" t="s">
+        <v>503</v>
+      </c>
+      <c r="D519" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>394350</v>
+      </c>
+      <c r="B520" t="s">
+        <v>520</v>
+      </c>
+      <c r="C520" t="s">
+        <v>503</v>
+      </c>
+      <c r="D520" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>394340</v>
+      </c>
+      <c r="B521" t="s">
+        <v>521</v>
+      </c>
+      <c r="C521" t="s">
+        <v>503</v>
+      </c>
+      <c r="D521" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>396510</v>
+      </c>
+      <c r="B522" t="s">
+        <v>544</v>
+      </c>
+      <c r="C522" t="s">
+        <v>503</v>
+      </c>
+      <c r="D522" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>396520</v>
+      </c>
+      <c r="B523" t="s">
+        <v>545</v>
+      </c>
+      <c r="C523" t="s">
+        <v>503</v>
+      </c>
+      <c r="D523" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>391600</v>
+      </c>
+      <c r="B524" t="s">
+        <v>546</v>
+      </c>
+      <c r="C524" t="s">
+        <v>503</v>
+      </c>
+      <c r="D524" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>391590</v>
+      </c>
+      <c r="B525" t="s">
+        <v>547</v>
+      </c>
+      <c r="C525" t="s">
+        <v>503</v>
+      </c>
+      <c r="D525" t="s">
         <v>496</v>
       </c>
     </row>

--- a/warehouse/group/handler/TDATETF.xlsx
+++ b/warehouse/group/handler/TDATETF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/marketport/warehouse/group/handler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD71399C-279B-46C9-903B-354B8FA461B4}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1EA17B8-51EB-47FA-85C4-6D8C3C225EF7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$515</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$517</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="576">
   <si>
     <t>종목코드</t>
   </si>
@@ -1826,6 +1826,12 @@
   </si>
   <si>
     <t>에셋플러스 글로벌플랫폼액티브</t>
+  </si>
+  <si>
+    <t>HANARO 200 TOP10</t>
+  </si>
+  <si>
+    <t>HANARO Fn골프테마</t>
   </si>
 </sst>
 </file>
@@ -2223,11 +2229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E65B9-4AFB-4959-9CD3-28669B32D629}">
-  <dimension ref="A1:D525"/>
+  <dimension ref="A1:D527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C409" sqref="C409:D409"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3218,24 +3224,24 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>290080</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>407310</v>
+      </c>
+      <c r="B71" t="s">
+        <v>574</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>270800</v>
+        <v>290080</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -3246,10 +3252,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>266160</v>
+        <v>270800</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -3260,10 +3266,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>281990</v>
+        <v>266160</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -3274,10 +3280,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>315960</v>
+        <v>281990</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -3288,10 +3294,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>322410</v>
+        <v>315960</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -3302,10 +3308,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>325020</v>
+        <v>322410</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -3316,10 +3322,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>329200</v>
+        <v>325020</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -3330,10 +3336,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>279530</v>
+        <v>329200</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -3344,10 +3350,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>211560</v>
+        <v>279530</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -3358,10 +3364,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>211900</v>
+        <v>211560</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -3372,10 +3378,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>210780</v>
+        <v>211900</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -3386,10 +3392,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>161510</v>
+        <v>210780</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -3400,10 +3406,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>192720</v>
+        <v>161510</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -3414,10 +3420,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>251590</v>
+        <v>192720</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -3428,10 +3434,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>261140</v>
-      </c>
-      <c r="B86" t="s">
-        <v>97</v>
+        <v>251590</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -3442,24 +3448,24 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>233740</v>
+        <v>261140</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>233160</v>
+        <v>233740</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -3470,10 +3476,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>306950</v>
+        <v>233160</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -3484,10 +3490,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>152500</v>
+        <v>306950</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -3498,10 +3504,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>307010</v>
+        <v>152500</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -3512,10 +3518,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>123320</v>
+        <v>307010</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -3526,10 +3532,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>122630</v>
+        <v>123320</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -3540,24 +3546,24 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>123310</v>
+        <v>122630</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>145670</v>
+        <v>123310</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -3568,10 +3574,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>114800</v>
+        <v>145670</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -3582,38 +3588,38 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>364690</v>
+        <v>114800</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>117460</v>
+        <v>364690</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
         <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>117680</v>
+        <v>117460</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
         <v>64</v>
@@ -3624,38 +3630,38 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>290130</v>
+        <v>117680</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C100" t="s">
         <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>139280</v>
+        <v>290130</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
         <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>289480</v>
+        <v>139280</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C102" t="s">
         <v>64</v>
@@ -3666,24 +3672,24 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>289260</v>
+        <v>289480</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C103" t="s">
         <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>289250</v>
+        <v>289260</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
         <v>64</v>
@@ -3694,10 +3700,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>289040</v>
+        <v>289250</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C105" t="s">
         <v>64</v>
@@ -3708,52 +3714,52 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>287330</v>
+        <v>289040</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
         <v>64</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>509</v>
+      <c r="D106" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>287320</v>
+        <v>287330</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C107" t="s">
         <v>64</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>292340</v>
+        <v>287320</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
       </c>
-      <c r="D108" t="s">
-        <v>511</v>
+      <c r="D108" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108450</v>
+        <v>292340</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C109" t="s">
         <v>64</v>
@@ -3764,24 +3770,24 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>300610</v>
+        <v>108450</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
         <v>64</v>
       </c>
       <c r="D110" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>300640</v>
+        <v>300610</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
         <v>64</v>
@@ -3792,10 +3798,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>300950</v>
+        <v>300640</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112" t="s">
         <v>64</v>
@@ -3806,24 +3812,24 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>105780</v>
+        <v>300950</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s">
         <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>104520</v>
+        <v>105780</v>
       </c>
       <c r="B114" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
         <v>64</v>
@@ -3834,38 +3840,38 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>102970</v>
+        <v>104520</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C115" t="s">
         <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>305540</v>
+        <v>102970</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C116" t="s">
         <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>305720</v>
+        <v>305540</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C117" t="s">
         <v>64</v>
@@ -3876,220 +3882,220 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>307510</v>
+        <v>305720</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C118" t="s">
         <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>307520</v>
+        <v>307510</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
         <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>287310</v>
+        <v>307520</v>
       </c>
       <c r="B120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" t="s">
         <v>64</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>510</v>
+      <c r="D120" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>287300</v>
+        <v>287310</v>
       </c>
       <c r="B121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C121" t="s">
         <v>64</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>285690</v>
+        <v>287300</v>
       </c>
       <c r="B122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C122" t="s">
         <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>285020</v>
+        <v>285690</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C123" t="s">
         <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>253280</v>
+        <v>285020</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C124" t="s">
         <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>261060</v>
+        <v>253280</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" t="s">
         <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>261070</v>
+        <v>261060</v>
       </c>
       <c r="B126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C126" t="s">
         <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>266360</v>
+        <v>261070</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C127" t="s">
         <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>266370</v>
+        <v>266360</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
         <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>266390</v>
+        <v>266370</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>510</v>
+      <c r="D129" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>266410</v>
+        <v>266390</v>
       </c>
       <c r="B130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
         <v>64</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>509</v>
+      <c r="D130" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>266420</v>
+        <v>266410</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
       </c>
-      <c r="D131" t="s">
-        <v>506</v>
+      <c r="D131" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>266550</v>
+        <v>266420</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132" t="s">
         <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>388280</v>
+        <v>266550</v>
       </c>
       <c r="B133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C133" t="s">
         <v>64</v>
@@ -4100,10 +4106,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>272220</v>
+        <v>388280</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C134" t="s">
         <v>64</v>
@@ -4114,10 +4120,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>272230</v>
+        <v>272220</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C135" t="s">
         <v>64</v>
@@ -4128,10 +4134,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>275290</v>
+        <v>272230</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C136" t="s">
         <v>64</v>
@@ -4142,10 +4148,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>275300</v>
+        <v>275290</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C137" t="s">
         <v>64</v>
@@ -4156,66 +4162,66 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>278420</v>
+        <v>275300</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C138" t="s">
         <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>117700</v>
+        <v>278420</v>
       </c>
       <c r="B139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C139" t="s">
         <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139270</v>
+        <v>117700</v>
       </c>
       <c r="B140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C140" t="s">
         <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>279540</v>
+        <v>139270</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C141" t="s">
         <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>280920</v>
+        <v>279540</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C142" t="s">
         <v>64</v>
@@ -4226,206 +4232,206 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>284980</v>
+        <v>280920</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C143" t="s">
         <v>64</v>
       </c>
       <c r="D143" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>284990</v>
+        <v>284980</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C144" t="s">
         <v>64</v>
       </c>
       <c r="D144" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>285000</v>
+        <v>284990</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C145" t="s">
         <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>285010</v>
+        <v>285000</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C146" t="s">
         <v>64</v>
       </c>
       <c r="D146" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>275280</v>
+        <v>285010</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C147" t="s">
         <v>64</v>
       </c>
       <c r="D147" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>309210</v>
+        <v>275280</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
         <v>64</v>
       </c>
       <c r="D148" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>102960</v>
+        <v>309210</v>
       </c>
       <c r="B149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s">
         <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>252730</v>
+        <v>102960</v>
       </c>
       <c r="B150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C150" t="s">
         <v>64</v>
       </c>
       <c r="D150" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>363580</v>
+        <v>252730</v>
       </c>
       <c r="B151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
         <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>91170</v>
+        <v>363580</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
         <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>364960</v>
+        <v>91170</v>
       </c>
       <c r="B153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C153" t="s">
         <v>64</v>
       </c>
       <c r="D153" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>364970</v>
+        <v>364960</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C154" t="s">
         <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>364980</v>
+        <v>364970</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C155" t="s">
         <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>364990</v>
+        <v>364980</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" t="s">
         <v>64</v>
       </c>
       <c r="D156" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>401470</v>
+        <v>364990</v>
       </c>
       <c r="B157" t="s">
-        <v>557</v>
+        <v>132</v>
       </c>
       <c r="C157" t="s">
         <v>64</v>
@@ -4436,10 +4442,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>400970</v>
+        <v>401470</v>
       </c>
       <c r="B158" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C158" t="s">
         <v>64</v>
@@ -4450,38 +4456,38 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>403790</v>
+        <v>400970</v>
       </c>
       <c r="B159" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C159" t="s">
         <v>64</v>
       </c>
       <c r="D159" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>401170</v>
+        <v>403790</v>
       </c>
       <c r="B160" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C160" t="s">
         <v>64</v>
       </c>
       <c r="D160" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>402460</v>
+        <v>401170</v>
       </c>
       <c r="B161" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C161" t="s">
         <v>64</v>
@@ -4492,24 +4498,24 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>365000</v>
+        <v>402460</v>
       </c>
       <c r="B162" t="s">
-        <v>133</v>
+        <v>561</v>
       </c>
       <c r="C162" t="s">
         <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>91160</v>
+        <v>365000</v>
       </c>
       <c r="B163" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163" t="s">
         <v>64</v>
@@ -4520,10 +4526,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>367740</v>
+        <v>91160</v>
       </c>
       <c r="B164" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s">
         <v>64</v>
@@ -4534,10 +4540,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>367760</v>
+        <v>367740</v>
       </c>
       <c r="B165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C165" t="s">
         <v>64</v>
@@ -4548,10 +4554,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>402520</v>
+        <v>367760</v>
       </c>
       <c r="B166" t="s">
-        <v>551</v>
+        <v>136</v>
       </c>
       <c r="C166" t="s">
         <v>64</v>
@@ -4562,38 +4568,38 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>367770</v>
+        <v>402520</v>
       </c>
       <c r="B167" t="s">
-        <v>137</v>
+        <v>551</v>
       </c>
       <c r="C167" t="s">
         <v>64</v>
       </c>
       <c r="D167" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>368190</v>
+        <v>367770</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C168" t="s">
         <v>64</v>
       </c>
       <c r="D168" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>368200</v>
+        <v>368190</v>
       </c>
       <c r="B169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C169" t="s">
         <v>64</v>
@@ -4604,10 +4610,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>368470</v>
+        <v>368200</v>
       </c>
       <c r="B170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C170" t="s">
         <v>64</v>
@@ -4618,10 +4624,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>368680</v>
+        <v>368470</v>
       </c>
       <c r="B171" t="s">
-        <v>533</v>
+        <v>140</v>
       </c>
       <c r="C171" t="s">
         <v>64</v>
@@ -4632,10 +4638,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>396500</v>
+        <v>368680</v>
       </c>
       <c r="B172" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C172" t="s">
         <v>64</v>
@@ -4646,24 +4652,24 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>375760</v>
+        <v>396500</v>
       </c>
       <c r="B173" t="s">
-        <v>142</v>
+        <v>543</v>
       </c>
       <c r="C173" t="s">
         <v>64</v>
       </c>
       <c r="D173" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>375770</v>
+        <v>375760</v>
       </c>
       <c r="B174" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
         <v>64</v>
@@ -4674,10 +4680,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>376250</v>
+        <v>375770</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C175" t="s">
         <v>64</v>
@@ -4688,10 +4694,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>376410</v>
+        <v>376250</v>
       </c>
       <c r="B176" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C176" t="s">
         <v>64</v>
@@ -4702,10 +4708,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>377990</v>
+        <v>376410</v>
       </c>
       <c r="B177" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C177" t="s">
         <v>64</v>
@@ -4716,24 +4722,24 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>380340</v>
+        <v>377990</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C178" t="s">
         <v>64</v>
       </c>
       <c r="D178" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>381560</v>
+        <v>380340</v>
       </c>
       <c r="B179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
         <v>64</v>
@@ -4744,24 +4750,24 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>381570</v>
+        <v>381560</v>
       </c>
       <c r="B180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C180" t="s">
         <v>64</v>
       </c>
       <c r="D180" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>385510</v>
+        <v>381570</v>
       </c>
       <c r="B181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C181" t="s">
         <v>64</v>
@@ -4772,38 +4778,38 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>385520</v>
+        <v>385510</v>
       </c>
       <c r="B182" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C182" t="s">
         <v>64</v>
       </c>
       <c r="D182" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>385590</v>
+        <v>385520</v>
       </c>
       <c r="B183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C183" t="s">
         <v>64</v>
       </c>
       <c r="D183" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>385600</v>
+        <v>385590</v>
       </c>
       <c r="B184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C184" t="s">
         <v>64</v>
@@ -4814,38 +4820,38 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>385710</v>
+        <v>385600</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C185" t="s">
         <v>64</v>
       </c>
       <c r="D185" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>387280</v>
+        <v>385710</v>
       </c>
       <c r="B186" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C186" t="s">
         <v>64</v>
       </c>
       <c r="D186" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>373490</v>
+        <v>387280</v>
       </c>
       <c r="B187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C187" t="s">
         <v>64</v>
@@ -4856,10 +4862,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>91180</v>
+        <v>373490</v>
       </c>
       <c r="B188" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C188" t="s">
         <v>64</v>
@@ -4870,52 +4876,52 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>102780</v>
+        <v>91180</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C189" t="s">
         <v>64</v>
       </c>
       <c r="D189" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>314700</v>
+        <v>102780</v>
       </c>
       <c r="B190" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C190" t="s">
         <v>64</v>
       </c>
       <c r="D190" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>315270</v>
+        <v>314700</v>
       </c>
       <c r="B191" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C191" t="s">
         <v>64</v>
       </c>
       <c r="D191" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>315480</v>
+        <v>315270</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C192" t="s">
         <v>64</v>
@@ -4926,24 +4932,24 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>315930</v>
+        <v>315480</v>
       </c>
       <c r="B193" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C193" t="s">
         <v>64</v>
       </c>
       <c r="D193" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>322120</v>
+        <v>315930</v>
       </c>
       <c r="B194" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C194" t="s">
         <v>64</v>
@@ -4954,10 +4960,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>322130</v>
+        <v>322120</v>
       </c>
       <c r="B195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C195" t="s">
         <v>64</v>
@@ -4968,10 +4974,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>322150</v>
+        <v>322130</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C196" t="s">
         <v>64</v>
@@ -4982,38 +4988,38 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>322400</v>
+        <v>322150</v>
       </c>
       <c r="B197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C197" t="s">
         <v>64</v>
       </c>
       <c r="D197" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>325010</v>
+        <v>322400</v>
       </c>
       <c r="B198" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C198" t="s">
         <v>64</v>
       </c>
       <c r="D198" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>326230</v>
+        <v>325010</v>
       </c>
       <c r="B199" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C199" t="s">
         <v>64</v>
@@ -5024,38 +5030,38 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>98560</v>
+        <v>326230</v>
       </c>
       <c r="B200" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C200" t="s">
         <v>64</v>
       </c>
       <c r="D200" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>333940</v>
+        <v>98560</v>
       </c>
       <c r="B201" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C201" t="s">
         <v>64</v>
       </c>
       <c r="D201" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>333950</v>
+        <v>333940</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C202" t="s">
         <v>64</v>
@@ -5066,10 +5072,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>333960</v>
+        <v>333950</v>
       </c>
       <c r="B203" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
         <v>64</v>
@@ -5080,10 +5086,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>333970</v>
+        <v>333960</v>
       </c>
       <c r="B204" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C204" t="s">
         <v>64</v>
@@ -5094,10 +5100,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>333980</v>
+        <v>333970</v>
       </c>
       <c r="B205" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C205" t="s">
         <v>64</v>
@@ -5108,10 +5114,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>337120</v>
+        <v>333980</v>
       </c>
       <c r="B206" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C206" t="s">
         <v>64</v>
@@ -5122,108 +5128,108 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>337160</v>
+        <v>337120</v>
       </c>
       <c r="B207" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C207" t="s">
         <v>64</v>
       </c>
       <c r="D207" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>91230</v>
+        <v>337160</v>
       </c>
       <c r="B208" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C208" t="s">
         <v>64</v>
       </c>
       <c r="D208" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>91220</v>
+        <v>91230</v>
       </c>
       <c r="B209" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C209" t="s">
         <v>64</v>
       </c>
       <c r="D209" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>326240</v>
+        <v>91220</v>
       </c>
       <c r="B210" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C210" t="s">
         <v>64</v>
       </c>
       <c r="D210" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>252720</v>
+        <v>326240</v>
       </c>
       <c r="B211" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C211" t="s">
         <v>64</v>
       </c>
       <c r="D211" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>388420</v>
+        <v>252720</v>
       </c>
       <c r="B212" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C212" t="s">
         <v>64</v>
       </c>
       <c r="D212" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>213610</v>
+        <v>388420</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C213" t="s">
         <v>64</v>
       </c>
       <c r="D213" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>215620</v>
+        <v>213610</v>
       </c>
       <c r="B214" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C214" t="s">
         <v>64</v>
@@ -5234,10 +5240,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>217790</v>
+        <v>215620</v>
       </c>
       <c r="B215" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C215" t="s">
         <v>64</v>
@@ -5248,10 +5254,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>223190</v>
+        <v>217790</v>
       </c>
       <c r="B216" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C216" t="s">
         <v>64</v>
@@ -5262,38 +5268,38 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>226380</v>
+        <v>223190</v>
       </c>
       <c r="B217" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C217" t="s">
         <v>64</v>
       </c>
       <c r="D217" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>138530</v>
+        <v>226380</v>
       </c>
       <c r="B218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" t="s">
         <v>64</v>
       </c>
       <c r="D218" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>138520</v>
+        <v>138530</v>
       </c>
       <c r="B219" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C219" t="s">
         <v>64</v>
@@ -5304,38 +5310,38 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>227540</v>
+        <v>138520</v>
       </c>
       <c r="B220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C220" t="s">
         <v>64</v>
       </c>
       <c r="D220" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>244670</v>
+        <v>227540</v>
       </c>
       <c r="B221" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" t="s">
         <v>64</v>
       </c>
       <c r="D221" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>244660</v>
+        <v>244670</v>
       </c>
       <c r="B222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" t="s">
         <v>64</v>
@@ -5346,66 +5352,66 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>227550</v>
+        <v>244660</v>
       </c>
       <c r="B223" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" t="s">
         <v>64</v>
       </c>
       <c r="D223" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>227560</v>
+        <v>227550</v>
       </c>
       <c r="B224" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224" t="s">
         <v>64</v>
       </c>
       <c r="D224" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>227570</v>
+        <v>227560</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" t="s">
         <v>64</v>
       </c>
       <c r="D225" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>228790</v>
+        <v>227570</v>
       </c>
       <c r="B226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C226" t="s">
         <v>64</v>
       </c>
       <c r="D226" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>228800</v>
+        <v>228790</v>
       </c>
       <c r="B227" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227" t="s">
         <v>64</v>
@@ -5416,80 +5422,80 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>228810</v>
+        <v>228800</v>
       </c>
       <c r="B228" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C228" t="s">
         <v>64</v>
       </c>
       <c r="D228" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>244620</v>
+        <v>228810</v>
       </c>
       <c r="B229" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C229" t="s">
         <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>244580</v>
+        <v>244620</v>
       </c>
       <c r="B230" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C230" t="s">
         <v>64</v>
       </c>
       <c r="D230" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>243890</v>
+        <v>244580</v>
       </c>
       <c r="B231" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C231" t="s">
         <v>64</v>
       </c>
       <c r="D231" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>131890</v>
+        <v>243890</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C232" t="s">
         <v>64</v>
       </c>
       <c r="D232" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>234310</v>
+        <v>131890</v>
       </c>
       <c r="B233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C233" t="s">
         <v>64</v>
@@ -5500,52 +5506,52 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>243880</v>
+        <v>234310</v>
       </c>
       <c r="B234" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C234" t="s">
         <v>64</v>
       </c>
       <c r="D234" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>174350</v>
+        <v>243880</v>
       </c>
       <c r="B235" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C235" t="s">
         <v>64</v>
       </c>
       <c r="D235" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>139290</v>
+        <v>174350</v>
       </c>
       <c r="B236" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C236" t="s">
         <v>64</v>
       </c>
       <c r="D236" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>140570</v>
+        <v>139290</v>
       </c>
       <c r="B237" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C237" t="s">
         <v>64</v>
@@ -5556,108 +5562,108 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>140580</v>
+        <v>140570</v>
       </c>
       <c r="B238" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C238" t="s">
         <v>64</v>
       </c>
       <c r="D238" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>140700</v>
+        <v>140580</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C239" t="s">
         <v>64</v>
       </c>
       <c r="D239" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>140710</v>
+        <v>140700</v>
       </c>
       <c r="B240" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C240" t="s">
         <v>64</v>
       </c>
       <c r="D240" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>139260</v>
+        <v>140710</v>
       </c>
       <c r="B241" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C241" t="s">
         <v>64</v>
       </c>
       <c r="D241" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>143460</v>
+        <v>139260</v>
       </c>
       <c r="B242" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C242" t="s">
         <v>64</v>
       </c>
       <c r="D242" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>143860</v>
+        <v>143460</v>
       </c>
       <c r="B243" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C243" t="s">
         <v>64</v>
       </c>
       <c r="D243" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>145850</v>
+        <v>143860</v>
       </c>
       <c r="B244" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C244" t="s">
         <v>64</v>
       </c>
       <c r="D244" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>147970</v>
+        <v>145850</v>
       </c>
       <c r="B245" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C245" t="s">
         <v>64</v>
@@ -5668,24 +5674,24 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>139250</v>
+        <v>147970</v>
       </c>
       <c r="B246" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C246" t="s">
         <v>64</v>
       </c>
       <c r="D246" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>139230</v>
+        <v>139250</v>
       </c>
       <c r="B247" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C247" t="s">
         <v>64</v>
@@ -5696,10 +5702,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>139240</v>
+        <v>139230</v>
       </c>
       <c r="B248" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C248" t="s">
         <v>64</v>
@@ -5710,66 +5716,66 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>138540</v>
+        <v>139240</v>
       </c>
       <c r="B249" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C249" t="s">
         <v>64</v>
       </c>
       <c r="D249" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>139220</v>
+        <v>138540</v>
       </c>
       <c r="B250" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C250" t="s">
         <v>64</v>
       </c>
       <c r="D250" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>157500</v>
+        <v>139220</v>
       </c>
       <c r="B251" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C251" t="s">
         <v>64</v>
       </c>
       <c r="D251" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>157490</v>
+        <v>157500</v>
       </c>
       <c r="B252" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C252" t="s">
         <v>64</v>
       </c>
       <c r="D252" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>395160</v>
+        <v>157490</v>
       </c>
       <c r="B253" t="s">
-        <v>522</v>
+        <v>238</v>
       </c>
       <c r="C253" t="s">
         <v>64</v>
@@ -5780,38 +5786,38 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>395150</v>
+        <v>395160</v>
       </c>
       <c r="B254" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C254" t="s">
         <v>64</v>
       </c>
       <c r="D254" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>395760</v>
+        <v>395150</v>
       </c>
       <c r="B255" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C255" t="s">
         <v>64</v>
       </c>
       <c r="D255" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>395750</v>
+        <v>395760</v>
       </c>
       <c r="B256" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C256" t="s">
         <v>64</v>
@@ -5822,38 +5828,38 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>395270</v>
+        <v>395750</v>
       </c>
       <c r="B257" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C257" t="s">
         <v>64</v>
       </c>
       <c r="D257" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>395290</v>
+        <v>395270</v>
       </c>
       <c r="B258" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C258" t="s">
         <v>64</v>
       </c>
       <c r="D258" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>395280</v>
+        <v>395290</v>
       </c>
       <c r="B259" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C259" t="s">
         <v>64</v>
@@ -5864,24 +5870,24 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>404540</v>
+        <v>395280</v>
       </c>
       <c r="B260" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C260" t="s">
         <v>64</v>
       </c>
       <c r="D260" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>404260</v>
+        <v>404540</v>
       </c>
       <c r="B261" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C261" t="s">
         <v>64</v>
@@ -5892,10 +5898,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>404120</v>
+        <v>404260</v>
       </c>
       <c r="B262" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C262" t="s">
         <v>64</v>
@@ -5906,10 +5912,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>404470</v>
+        <v>404120</v>
       </c>
       <c r="B263" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C263" t="s">
         <v>64</v>
@@ -5920,10 +5926,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>403990</v>
+        <v>404470</v>
       </c>
       <c r="B264" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C264" t="s">
         <v>64</v>
@@ -5934,10 +5940,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>404650</v>
+        <v>403990</v>
       </c>
       <c r="B265" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C265" t="s">
         <v>64</v>
@@ -5948,24 +5954,24 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>407160</v>
+        <v>404650</v>
       </c>
       <c r="B266" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
       </c>
       <c r="D266" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>407170</v>
+        <v>407160</v>
       </c>
       <c r="B267" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C267" t="s">
         <v>64</v>
@@ -5976,10 +5982,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>407820</v>
+        <v>407170</v>
       </c>
       <c r="B268" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C268" t="s">
         <v>64</v>
@@ -5988,54 +5994,54 @@
         <v>504</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="4">
-        <v>166400</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>483</v>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>407820</v>
+      </c>
+      <c r="B269" t="s">
+        <v>572</v>
+      </c>
+      <c r="C269" t="s">
+        <v>64</v>
+      </c>
+      <c r="D269" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>137930</v>
+        <v>407300</v>
       </c>
       <c r="B270" t="s">
-        <v>243</v>
+        <v>575</v>
       </c>
       <c r="C270" t="s">
+        <v>64</v>
+      </c>
+      <c r="D270" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
+        <v>166400</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D270" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>360140</v>
-      </c>
-      <c r="B271" t="s">
-        <v>159</v>
-      </c>
-      <c r="C271" t="s">
-        <v>484</v>
-      </c>
-      <c r="D271" t="s">
+      <c r="D271" s="4" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>360150</v>
+        <v>137930</v>
       </c>
       <c r="B272" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C272" t="s">
         <v>484</v>
@@ -6046,38 +6052,38 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>230480</v>
+        <v>360140</v>
       </c>
       <c r="B273" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="C273" t="s">
         <v>484</v>
       </c>
       <c r="D273" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>282000</v>
+        <v>360150</v>
       </c>
       <c r="B274" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="C274" t="s">
         <v>484</v>
       </c>
       <c r="D274" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>275750</v>
+        <v>230480</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="C275" t="s">
         <v>484</v>
@@ -6088,10 +6094,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>306520</v>
+        <v>282000</v>
       </c>
       <c r="B276" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C276" t="s">
         <v>484</v>
@@ -6102,10 +6108,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>252410</v>
+        <v>275750</v>
       </c>
       <c r="B277" t="s">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
         <v>484</v>
@@ -6116,10 +6122,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>301410</v>
+        <v>306520</v>
       </c>
       <c r="B278" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C278" t="s">
         <v>484</v>
@@ -6130,10 +6136,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>291620</v>
+        <v>252410</v>
       </c>
       <c r="B279" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C279" t="s">
         <v>484</v>
@@ -6144,10 +6150,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>252420</v>
+        <v>301410</v>
       </c>
       <c r="B280" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C280" t="s">
         <v>484</v>
@@ -6158,10 +6164,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>253240</v>
+        <v>291620</v>
       </c>
       <c r="B281" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C281" t="s">
         <v>484</v>
@@ -6172,10 +6178,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>253230</v>
+        <v>252420</v>
       </c>
       <c r="B282" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C282" t="s">
         <v>484</v>
@@ -6186,10 +6192,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>253160</v>
+        <v>253240</v>
       </c>
       <c r="B283" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C283" t="s">
         <v>484</v>
@@ -6200,10 +6206,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>251340</v>
+        <v>253230</v>
       </c>
       <c r="B284" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C284" t="s">
         <v>484</v>
@@ -6214,10 +6220,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>252710</v>
+        <v>253160</v>
       </c>
       <c r="B285" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C285" t="s">
         <v>484</v>
@@ -6228,10 +6234,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>250780</v>
+        <v>251340</v>
       </c>
       <c r="B286" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C286" t="s">
         <v>484</v>
@@ -6242,10 +6248,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>252670</v>
+        <v>252710</v>
       </c>
       <c r="B287" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C287" t="s">
         <v>484</v>
@@ -6256,38 +6262,38 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>225800</v>
+        <v>250780</v>
       </c>
       <c r="B288" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C288" t="s">
         <v>484</v>
       </c>
       <c r="D288" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>304780</v>
+        <v>252670</v>
       </c>
       <c r="B289" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="C289" t="s">
         <v>484</v>
       </c>
       <c r="D289" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>278240</v>
+        <v>225800</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="C290" t="s">
         <v>484</v>
@@ -6298,10 +6304,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>291630</v>
+        <v>304780</v>
       </c>
       <c r="B291" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="C291" t="s">
         <v>484</v>
@@ -6312,10 +6318,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>306530</v>
+        <v>278240</v>
       </c>
       <c r="B292" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="C292" t="s">
         <v>484</v>
@@ -6326,10 +6332,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>253250</v>
+        <v>291630</v>
       </c>
       <c r="B293" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C293" t="s">
         <v>484</v>
@@ -6340,10 +6346,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>267770</v>
+        <v>306530</v>
       </c>
       <c r="B294" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C294" t="s">
         <v>484</v>
@@ -6354,10 +6360,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>253150</v>
+        <v>253250</v>
       </c>
       <c r="B295" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C295" t="s">
         <v>484</v>
@@ -6368,10 +6374,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>252400</v>
+        <v>267770</v>
       </c>
       <c r="B296" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C296" t="s">
         <v>484</v>
@@ -6382,52 +6388,52 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>334690</v>
+        <v>253150</v>
       </c>
       <c r="B297" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="C297" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D297" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>334700</v>
+        <v>252400</v>
       </c>
       <c r="B298" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="C298" t="s">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="D298" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>261220</v>
+        <v>334690</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C299" t="s">
         <v>303</v>
       </c>
       <c r="D299" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>139310</v>
+        <v>334700</v>
       </c>
       <c r="B300" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C300" t="s">
         <v>303</v>
@@ -6438,24 +6444,24 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>139320</v>
+        <v>261220</v>
       </c>
       <c r="B301" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C301" t="s">
         <v>303</v>
       </c>
       <c r="D301" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>144600</v>
+        <v>139310</v>
       </c>
       <c r="B302" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C302" t="s">
         <v>303</v>
@@ -6466,10 +6472,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>132030</v>
+        <v>139320</v>
       </c>
       <c r="B303" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C303" t="s">
         <v>303</v>
@@ -6480,111 +6486,111 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>130680</v>
+        <v>144600</v>
       </c>
       <c r="B304" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s">
         <v>303</v>
       </c>
       <c r="D304" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>137610</v>
+        <v>132030</v>
       </c>
       <c r="B305" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C305" t="s">
         <v>303</v>
       </c>
       <c r="D305" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>138920</v>
+        <v>130680</v>
       </c>
       <c r="B306" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C306" t="s">
         <v>303</v>
       </c>
       <c r="D306" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>271050</v>
+        <v>137610</v>
       </c>
       <c r="B307" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C307" t="s">
         <v>303</v>
       </c>
       <c r="D307" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>138910</v>
+        <v>138920</v>
       </c>
       <c r="B308" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C308" t="s">
         <v>303</v>
       </c>
       <c r="D308" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>160580</v>
+        <v>271050</v>
       </c>
       <c r="B309" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C309" t="s">
         <v>303</v>
       </c>
       <c r="D309" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>271060</v>
+        <v>138910</v>
       </c>
       <c r="B310" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C310" t="s">
         <v>303</v>
       </c>
       <c r="D310" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>280940</v>
+        <v>160580</v>
       </c>
       <c r="B311" t="s">
-        <v>394</v>
+        <v>315</v>
       </c>
       <c r="C311" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D311" t="s">
         <v>498</v>
@@ -6592,24 +6598,24 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>217770</v>
+        <v>271060</v>
       </c>
       <c r="B312" t="s">
-        <v>419</v>
+        <v>316</v>
       </c>
       <c r="C312" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D312" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>319640</v>
+        <v>280940</v>
       </c>
       <c r="B313" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="C313" t="s">
         <v>494</v>
@@ -6620,52 +6626,52 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>225130</v>
+        <v>217770</v>
       </c>
       <c r="B314" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="C314" t="s">
         <v>494</v>
       </c>
       <c r="D314" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>148070</v>
+        <v>319640</v>
       </c>
       <c r="B315" t="s">
-        <v>329</v>
+        <v>430</v>
       </c>
       <c r="C315" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D315" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>152380</v>
+        <v>225130</v>
       </c>
       <c r="B316" t="s">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="C316" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="D316" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>365780</v>
+        <v>148070</v>
       </c>
       <c r="B317" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C317" t="s">
         <v>318</v>
@@ -6676,10 +6682,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>176950</v>
+        <v>152380</v>
       </c>
       <c r="B318" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C318" t="s">
         <v>318</v>
@@ -6690,10 +6696,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>385560</v>
+        <v>365780</v>
       </c>
       <c r="B319" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C319" t="s">
         <v>318</v>
@@ -6704,10 +6710,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>167860</v>
+        <v>176950</v>
       </c>
       <c r="B320" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C320" t="s">
         <v>318</v>
@@ -6718,10 +6724,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>346000</v>
+        <v>385560</v>
       </c>
       <c r="B321" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C321" t="s">
         <v>318</v>
@@ -6732,10 +6738,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>342620</v>
+        <v>167860</v>
       </c>
       <c r="B322" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C322" t="s">
         <v>318</v>
@@ -6746,10 +6752,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>342610</v>
+        <v>346000</v>
       </c>
       <c r="B323" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C323" t="s">
         <v>318</v>
@@ -6760,10 +6766,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>342600</v>
+        <v>342620</v>
       </c>
       <c r="B324" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C324" t="s">
         <v>318</v>
@@ -6774,10 +6780,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>342500</v>
+        <v>342610</v>
       </c>
       <c r="B325" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C325" t="s">
         <v>318</v>
@@ -6788,10 +6794,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>176710</v>
+        <v>342600</v>
       </c>
       <c r="B326" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C326" t="s">
         <v>318</v>
@@ -6802,10 +6808,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>196230</v>
+        <v>342500</v>
       </c>
       <c r="B327" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C327" t="s">
         <v>318</v>
@@ -6816,10 +6822,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>114470</v>
+        <v>176710</v>
       </c>
       <c r="B328" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C328" t="s">
         <v>318</v>
@@ -6830,10 +6836,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>289670</v>
+        <v>196230</v>
       </c>
       <c r="B329" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C329" t="s">
         <v>318</v>
@@ -6844,10 +6850,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>298340</v>
+        <v>114470</v>
       </c>
       <c r="B330" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C330" t="s">
         <v>318</v>
@@ -6858,10 +6864,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>153130</v>
+        <v>289670</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C331" t="s">
         <v>318</v>
@@ -6872,10 +6878,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>272910</v>
+        <v>298340</v>
       </c>
       <c r="B332" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C332" t="s">
         <v>318</v>
@@ -6886,10 +6892,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>299070</v>
+        <v>153130</v>
       </c>
       <c r="B333" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C333" t="s">
         <v>318</v>
@@ -6900,10 +6906,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>295000</v>
+        <v>272910</v>
       </c>
       <c r="B334" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C334" t="s">
         <v>318</v>
@@ -6914,10 +6920,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>299080</v>
+        <v>299070</v>
       </c>
       <c r="B335" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C335" t="s">
         <v>318</v>
@@ -6928,10 +6934,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>302170</v>
+        <v>295000</v>
       </c>
       <c r="B336" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C336" t="s">
         <v>318</v>
@@ -6942,10 +6948,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>302180</v>
+        <v>299080</v>
       </c>
       <c r="B337" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C337" t="s">
         <v>318</v>
@@ -6956,10 +6962,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>114820</v>
+        <v>302170</v>
       </c>
       <c r="B338" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C338" t="s">
         <v>318</v>
@@ -6970,10 +6976,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>302190</v>
+        <v>302180</v>
       </c>
       <c r="B339" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C339" t="s">
         <v>318</v>
@@ -6984,10 +6990,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>295020</v>
+        <v>114820</v>
       </c>
       <c r="B340" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C340" t="s">
         <v>318</v>
@@ -6998,10 +7004,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>114260</v>
+        <v>302190</v>
       </c>
       <c r="B341" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C341" t="s">
         <v>318</v>
@@ -7012,10 +7018,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>114100</v>
+        <v>295020</v>
       </c>
       <c r="B342" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C342" t="s">
         <v>318</v>
@@ -7026,10 +7032,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>397420</v>
+        <v>114260</v>
       </c>
       <c r="B343" t="s">
-        <v>552</v>
+        <v>365</v>
       </c>
       <c r="C343" t="s">
         <v>318</v>
@@ -7040,10 +7046,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>114460</v>
+        <v>114100</v>
       </c>
       <c r="B344" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C344" t="s">
         <v>318</v>
@@ -7054,10 +7060,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>272570</v>
+        <v>397420</v>
       </c>
       <c r="B345" t="s">
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="C345" t="s">
         <v>318</v>
@@ -7068,10 +7074,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>292770</v>
+        <v>114460</v>
       </c>
       <c r="B346" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C346" t="s">
         <v>318</v>
@@ -7082,10 +7088,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>397410</v>
+        <v>272570</v>
       </c>
       <c r="B347" t="s">
-        <v>549</v>
+        <v>372</v>
       </c>
       <c r="C347" t="s">
         <v>318</v>
@@ -7096,10 +7102,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>272560</v>
+        <v>292770</v>
       </c>
       <c r="B348" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C348" t="s">
         <v>318</v>
@@ -7110,10 +7116,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>190620</v>
+        <v>397410</v>
       </c>
       <c r="B349" t="s">
-        <v>322</v>
+        <v>549</v>
       </c>
       <c r="C349" t="s">
         <v>318</v>
@@ -7124,10 +7130,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>122260</v>
+        <v>272560</v>
       </c>
       <c r="B350" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="C350" t="s">
         <v>318</v>
@@ -7138,10 +7144,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>363510</v>
+        <v>190620</v>
       </c>
       <c r="B351" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C351" t="s">
         <v>318</v>
@@ -7152,10 +7158,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>157450</v>
+        <v>122260</v>
       </c>
       <c r="B352" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C352" t="s">
         <v>318</v>
@@ -7166,10 +7172,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>336160</v>
+        <v>363510</v>
       </c>
       <c r="B353" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C353" t="s">
         <v>318</v>
@@ -7180,10 +7186,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>273140</v>
+        <v>157450</v>
       </c>
       <c r="B354" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C354" t="s">
         <v>318</v>
@@ -7194,10 +7200,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>214980</v>
+        <v>336160</v>
       </c>
       <c r="B355" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C355" t="s">
         <v>318</v>
@@ -7208,10 +7214,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>130730</v>
+        <v>273140</v>
       </c>
       <c r="B356" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C356" t="s">
         <v>318</v>
@@ -7222,10 +7228,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>272580</v>
+        <v>214980</v>
       </c>
       <c r="B357" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C357" t="s">
         <v>318</v>
@@ -7236,38 +7242,38 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>305080</v>
+        <v>130730</v>
       </c>
       <c r="B358" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C358" t="s">
         <v>318</v>
       </c>
       <c r="D358" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>284430</v>
+        <v>272580</v>
       </c>
       <c r="B359" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C359" t="s">
         <v>318</v>
       </c>
       <c r="D359" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>329750</v>
+        <v>305080</v>
       </c>
       <c r="B360" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="C360" t="s">
         <v>318</v>
@@ -7278,10 +7284,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>308620</v>
+        <v>284430</v>
       </c>
       <c r="B361" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C361" t="s">
         <v>318</v>
@@ -7292,10 +7298,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>304660</v>
+        <v>329750</v>
       </c>
       <c r="B362" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C362" t="s">
         <v>318</v>
@@ -7306,10 +7312,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>267450</v>
+        <v>308620</v>
       </c>
       <c r="B363" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="C363" t="s">
         <v>318</v>
@@ -7320,10 +7326,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>267440</v>
+        <v>304660</v>
       </c>
       <c r="B364" t="s">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="C364" t="s">
         <v>318</v>
@@ -7334,10 +7340,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>267500</v>
+        <v>267450</v>
       </c>
       <c r="B365" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="C365" t="s">
         <v>318</v>
@@ -7348,10 +7354,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>304670</v>
+        <v>267440</v>
       </c>
       <c r="B366" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="C366" t="s">
         <v>318</v>
@@ -7362,10 +7368,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>267490</v>
+        <v>267500</v>
       </c>
       <c r="B367" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C367" t="s">
         <v>318</v>
@@ -7376,10 +7382,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>390950</v>
+        <v>304670</v>
       </c>
       <c r="B368" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="C368" t="s">
         <v>318</v>
@@ -7390,38 +7396,38 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>329660</v>
+        <v>267490</v>
       </c>
       <c r="B369" t="s">
-        <v>273</v>
+        <v>474</v>
       </c>
       <c r="C369" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D369" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>251600</v>
+        <v>390950</v>
       </c>
       <c r="B370" t="s">
-        <v>271</v>
+        <v>515</v>
       </c>
       <c r="C370" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D370" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>329670</v>
+        <v>329660</v>
       </c>
       <c r="B371" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C371" t="s">
         <v>501</v>
@@ -7432,10 +7438,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>183710</v>
+        <v>251600</v>
       </c>
       <c r="B372" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C372" t="s">
         <v>501</v>
@@ -7446,10 +7452,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>183700</v>
+        <v>329670</v>
       </c>
       <c r="B373" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C373" t="s">
         <v>501</v>
@@ -7460,10 +7466,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>357870</v>
+        <v>183710</v>
       </c>
       <c r="B374" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C374" t="s">
         <v>501</v>
@@ -7474,10 +7480,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>329650</v>
+        <v>183700</v>
       </c>
       <c r="B375" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C375" t="s">
         <v>501</v>
@@ -7488,10 +7494,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>241390</v>
+        <v>357870</v>
       </c>
       <c r="B376" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C376" t="s">
         <v>501</v>
@@ -7502,10 +7508,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>253290</v>
+        <v>329650</v>
       </c>
       <c r="B377" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C377" t="s">
         <v>501</v>
@@ -7516,10 +7522,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>238670</v>
+        <v>241390</v>
       </c>
       <c r="B378" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C378" t="s">
         <v>501</v>
@@ -7530,10 +7536,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>237440</v>
+        <v>253290</v>
       </c>
       <c r="B379" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C379" t="s">
         <v>501</v>
@@ -7544,10 +7550,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>321410</v>
+        <v>238670</v>
       </c>
       <c r="B380" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C380" t="s">
         <v>501</v>
@@ -7558,10 +7564,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>237370</v>
+        <v>237440</v>
       </c>
       <c r="B381" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C381" t="s">
         <v>501</v>
@@ -7572,10 +7578,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>341850</v>
+        <v>321410</v>
       </c>
       <c r="B382" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C382" t="s">
         <v>501</v>
@@ -7586,13 +7592,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>278620</v>
+        <v>237370</v>
       </c>
       <c r="B383" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="C383" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D383" t="s">
         <v>486</v>
@@ -7600,13 +7606,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>385550</v>
+        <v>341850</v>
       </c>
       <c r="B384" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="C384" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D384" t="s">
         <v>486</v>
@@ -7614,10 +7620,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>385540</v>
+        <v>278620</v>
       </c>
       <c r="B385" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="C385" t="s">
         <v>318</v>
@@ -7628,10 +7634,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>363570</v>
+        <v>385550</v>
       </c>
       <c r="B386" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C386" t="s">
         <v>318</v>
@@ -7642,10 +7648,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>356540</v>
+        <v>385540</v>
       </c>
       <c r="B387" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C387" t="s">
         <v>318</v>
@@ -7656,10 +7662,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>273130</v>
+        <v>363570</v>
       </c>
       <c r="B388" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C388" t="s">
         <v>318</v>
@@ -7670,13 +7676,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>342140</v>
+        <v>356540</v>
       </c>
       <c r="B389" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C389" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D389" t="s">
         <v>486</v>
@@ -7684,38 +7690,38 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>332610</v>
+        <v>273130</v>
       </c>
       <c r="B390" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="C390" t="s">
         <v>318</v>
       </c>
       <c r="D390" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>332620</v>
+        <v>342140</v>
       </c>
       <c r="B391" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C391" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="D391" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>182490</v>
+        <v>332610</v>
       </c>
       <c r="B392" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C392" t="s">
         <v>318</v>
@@ -7726,10 +7732,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>239660</v>
+        <v>332620</v>
       </c>
       <c r="B393" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="C393" t="s">
         <v>318</v>
@@ -7740,10 +7746,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>136340</v>
+        <v>182490</v>
       </c>
       <c r="B394" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="C394" t="s">
         <v>318</v>
@@ -7754,178 +7760,178 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>291130</v>
+        <v>239660</v>
       </c>
       <c r="B395" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C395" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D395" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>256750</v>
+        <v>136340</v>
       </c>
       <c r="B396" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C396" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D396" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>367380</v>
+        <v>291130</v>
       </c>
       <c r="B397" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C397" t="s">
         <v>502</v>
       </c>
       <c r="D397" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>251350</v>
+        <v>256750</v>
       </c>
       <c r="B398" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C398" t="s">
         <v>502</v>
       </c>
       <c r="D398" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>256450</v>
+        <v>367380</v>
       </c>
       <c r="B399" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C399" t="s">
         <v>502</v>
       </c>
       <c r="D399" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>256440</v>
+        <v>251350</v>
       </c>
       <c r="B400" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C400" t="s">
         <v>502</v>
       </c>
       <c r="D400" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>368590</v>
+        <v>256450</v>
       </c>
       <c r="B401" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C401" t="s">
         <v>502</v>
       </c>
       <c r="D401" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>291680</v>
+        <v>256440</v>
       </c>
       <c r="B402" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C402" t="s">
         <v>502</v>
       </c>
       <c r="D402" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>291890</v>
+        <v>368590</v>
       </c>
       <c r="B403" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C403" t="s">
         <v>502</v>
       </c>
       <c r="D403" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>245340</v>
+        <v>291680</v>
       </c>
       <c r="B404" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C404" t="s">
         <v>502</v>
       </c>
       <c r="D404" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>371450</v>
+        <v>291890</v>
       </c>
       <c r="B405" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C405" t="s">
         <v>502</v>
       </c>
       <c r="D405" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>371150</v>
+        <v>245340</v>
       </c>
       <c r="B406" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C406" t="s">
         <v>502</v>
       </c>
       <c r="D406" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>276990</v>
+        <v>371450</v>
       </c>
       <c r="B407" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C407" t="s">
         <v>502</v>
@@ -7936,24 +7942,24 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>387270</v>
+        <v>371150</v>
       </c>
       <c r="B408" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C408" t="s">
         <v>502</v>
       </c>
       <c r="D408" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>407830</v>
+        <v>276990</v>
       </c>
       <c r="B409" t="s">
-        <v>573</v>
+        <v>387</v>
       </c>
       <c r="C409" t="s">
         <v>502</v>
@@ -7964,80 +7970,80 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>241180</v>
+        <v>387270</v>
       </c>
       <c r="B410" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C410" t="s">
         <v>502</v>
       </c>
       <c r="D410" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>238720</v>
+        <v>407830</v>
       </c>
       <c r="B411" t="s">
-        <v>390</v>
+        <v>573</v>
       </c>
       <c r="C411" t="s">
         <v>502</v>
       </c>
       <c r="D411" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>117690</v>
+        <v>241180</v>
       </c>
       <c r="B412" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C412" t="s">
         <v>502</v>
       </c>
       <c r="D412" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>280320</v>
+        <v>238720</v>
       </c>
       <c r="B413" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C413" t="s">
         <v>502</v>
       </c>
       <c r="D413" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>280930</v>
+        <v>117690</v>
       </c>
       <c r="B414" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C414" t="s">
         <v>502</v>
       </c>
       <c r="D414" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>276970</v>
+        <v>280320</v>
       </c>
       <c r="B415" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C415" t="s">
         <v>502</v>
@@ -8048,24 +8054,24 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>283580</v>
+        <v>280930</v>
       </c>
       <c r="B416" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C416" t="s">
         <v>502</v>
       </c>
       <c r="D416" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>381180</v>
+        <v>276970</v>
       </c>
       <c r="B417" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C417" t="s">
         <v>502</v>
@@ -8076,24 +8082,24 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>381170</v>
+        <v>283580</v>
       </c>
       <c r="B418" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C418" t="s">
         <v>502</v>
       </c>
       <c r="D418" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>379810</v>
+        <v>381180</v>
       </c>
       <c r="B419" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C419" t="s">
         <v>502</v>
@@ -8104,10 +8110,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>379800</v>
+        <v>381170</v>
       </c>
       <c r="B420" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C420" t="s">
         <v>502</v>
@@ -8118,136 +8124,136 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>150460</v>
+        <v>379810</v>
       </c>
       <c r="B421" t="s">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="C421" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D421" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>371130</v>
+        <v>379800</v>
       </c>
       <c r="B422" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C422" t="s">
         <v>502</v>
       </c>
       <c r="D422" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>379790</v>
+        <v>150460</v>
       </c>
       <c r="B423" t="s">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="C423" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D423" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>400570</v>
+        <v>371130</v>
       </c>
       <c r="B424" t="s">
-        <v>550</v>
+        <v>401</v>
       </c>
       <c r="C424" t="s">
         <v>502</v>
       </c>
       <c r="D424" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>143850</v>
+        <v>379790</v>
       </c>
       <c r="B425" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C425" t="s">
         <v>502</v>
       </c>
       <c r="D425" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>236350</v>
+        <v>400570</v>
       </c>
       <c r="B426" t="s">
-        <v>404</v>
+        <v>550</v>
       </c>
       <c r="C426" t="s">
         <v>502</v>
       </c>
       <c r="D426" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>276650</v>
+        <v>143850</v>
       </c>
       <c r="B427" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C427" t="s">
         <v>502</v>
       </c>
       <c r="D427" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>276000</v>
+        <v>236350</v>
       </c>
       <c r="B428" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C428" t="s">
         <v>502</v>
       </c>
       <c r="D428" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>133690</v>
+        <v>276650</v>
       </c>
       <c r="B429" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C429" t="s">
         <v>502</v>
       </c>
       <c r="D429" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>275980</v>
+        <v>276000</v>
       </c>
       <c r="B430" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C430" t="s">
         <v>502</v>
@@ -8258,10 +8264,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>373790</v>
+        <v>133690</v>
       </c>
       <c r="B431" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C431" t="s">
         <v>502</v>
@@ -8272,24 +8278,24 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>373530</v>
+        <v>275980</v>
       </c>
       <c r="B432" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C432" t="s">
         <v>502</v>
       </c>
       <c r="D432" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>287180</v>
+        <v>373790</v>
       </c>
       <c r="B433" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C433" t="s">
         <v>502</v>
@@ -8300,38 +8306,38 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>372330</v>
+        <v>373530</v>
       </c>
       <c r="B434" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C434" t="s">
         <v>502</v>
       </c>
       <c r="D434" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>371870</v>
+        <v>287180</v>
       </c>
       <c r="B435" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C435" t="s">
         <v>502</v>
       </c>
       <c r="D435" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>371470</v>
+        <v>372330</v>
       </c>
       <c r="B436" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C436" t="s">
         <v>502</v>
@@ -8342,10 +8348,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>371460</v>
+        <v>371870</v>
       </c>
       <c r="B437" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C437" t="s">
         <v>502</v>
@@ -8356,10 +8362,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>371160</v>
+        <v>371470</v>
       </c>
       <c r="B438" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C438" t="s">
         <v>502</v>
@@ -8370,248 +8376,248 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>379780</v>
+        <v>371460</v>
       </c>
       <c r="B439" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C439" t="s">
         <v>502</v>
       </c>
       <c r="D439" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>309230</v>
+        <v>371160</v>
       </c>
       <c r="B440" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="C440" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D440" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>245350</v>
+        <v>379780</v>
       </c>
       <c r="B441" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C441" t="s">
         <v>502</v>
       </c>
       <c r="D441" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>360750</v>
+        <v>309230</v>
       </c>
       <c r="B442" t="s">
-        <v>420</v>
+        <v>157</v>
       </c>
       <c r="C442" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D442" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>399110</v>
+        <v>245350</v>
       </c>
       <c r="B443" t="s">
-        <v>553</v>
+        <v>418</v>
       </c>
       <c r="C443" t="s">
         <v>502</v>
       </c>
       <c r="D443" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>400580</v>
+        <v>360750</v>
       </c>
       <c r="B444" t="s">
-        <v>554</v>
+        <v>420</v>
       </c>
       <c r="C444" t="s">
         <v>502</v>
       </c>
       <c r="D444" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>400590</v>
+        <v>399110</v>
       </c>
       <c r="B445" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C445" t="s">
         <v>502</v>
       </c>
       <c r="D445" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>401590</v>
+        <v>400580</v>
       </c>
       <c r="B446" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C446" t="s">
         <v>502</v>
       </c>
       <c r="D446" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>195930</v>
+        <v>400590</v>
       </c>
       <c r="B447" t="s">
-        <v>421</v>
+        <v>555</v>
       </c>
       <c r="C447" t="s">
         <v>502</v>
       </c>
       <c r="D447" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>195970</v>
+        <v>401590</v>
       </c>
       <c r="B448" t="s">
-        <v>422</v>
+        <v>556</v>
       </c>
       <c r="C448" t="s">
         <v>502</v>
       </c>
       <c r="D448" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>195980</v>
+        <v>195930</v>
       </c>
       <c r="B449" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C449" t="s">
         <v>502</v>
       </c>
       <c r="D449" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>196030</v>
+        <v>195970</v>
       </c>
       <c r="B450" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C450" t="s">
         <v>502</v>
       </c>
       <c r="D450" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>277540</v>
+        <v>195980</v>
       </c>
       <c r="B451" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C451" t="s">
         <v>502</v>
       </c>
       <c r="D451" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>399580</v>
+        <v>196030</v>
       </c>
       <c r="B452" t="s">
-        <v>562</v>
+        <v>424</v>
       </c>
       <c r="C452" t="s">
         <v>502</v>
       </c>
       <c r="D452" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>200030</v>
+        <v>277540</v>
       </c>
       <c r="B453" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C453" t="s">
         <v>502</v>
       </c>
       <c r="D453" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>402970</v>
+        <v>399580</v>
       </c>
       <c r="B454" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C454" t="s">
         <v>502</v>
       </c>
       <c r="D454" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>200250</v>
+        <v>200030</v>
       </c>
       <c r="B455" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C455" t="s">
         <v>502</v>
       </c>
       <c r="D455" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>203780</v>
+        <v>402970</v>
       </c>
       <c r="B456" t="s">
-        <v>429</v>
+        <v>563</v>
       </c>
       <c r="C456" t="s">
         <v>502</v>
@@ -8622,38 +8628,38 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>204450</v>
+        <v>200250</v>
       </c>
       <c r="B457" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C457" t="s">
         <v>502</v>
       </c>
       <c r="D457" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>217780</v>
+        <v>203780</v>
       </c>
       <c r="B458" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C458" t="s">
         <v>502</v>
       </c>
       <c r="D458" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>204480</v>
+        <v>204450</v>
       </c>
       <c r="B459" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C459" t="s">
         <v>502</v>
@@ -8664,108 +8670,108 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>205720</v>
+        <v>217780</v>
       </c>
       <c r="B460" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C460" t="s">
         <v>502</v>
       </c>
       <c r="D460" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>208470</v>
+        <v>204480</v>
       </c>
       <c r="B461" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C461" t="s">
         <v>502</v>
       </c>
       <c r="D461" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>261920</v>
+        <v>205720</v>
       </c>
       <c r="B462" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C462" t="s">
         <v>502</v>
       </c>
       <c r="D462" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>265690</v>
+        <v>208470</v>
       </c>
       <c r="B463" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C463" t="s">
         <v>502</v>
       </c>
       <c r="D463" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>314250</v>
+        <v>261920</v>
       </c>
       <c r="B464" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C464" t="s">
         <v>502</v>
       </c>
       <c r="D464" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>245360</v>
+        <v>265690</v>
       </c>
       <c r="B465" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C465" t="s">
         <v>502</v>
       </c>
       <c r="D465" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>310080</v>
+        <v>314250</v>
       </c>
       <c r="B466" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C466" t="s">
         <v>502</v>
       </c>
       <c r="D466" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>250730</v>
+        <v>245360</v>
       </c>
       <c r="B467" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C467" t="s">
         <v>502</v>
@@ -8776,248 +8782,248 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>213630</v>
+        <v>310080</v>
       </c>
       <c r="B468" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C468" t="s">
         <v>502</v>
       </c>
       <c r="D468" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>245710</v>
+        <v>250730</v>
       </c>
       <c r="B469" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C469" t="s">
         <v>502</v>
       </c>
       <c r="D469" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>248270</v>
+        <v>213630</v>
       </c>
       <c r="B470" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C470" t="s">
         <v>502</v>
       </c>
       <c r="D470" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>195920</v>
+        <v>245710</v>
       </c>
       <c r="B471" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C471" t="s">
         <v>502</v>
       </c>
       <c r="D471" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>101280</v>
+        <v>248270</v>
       </c>
       <c r="B472" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C472" t="s">
         <v>502</v>
       </c>
       <c r="D472" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>192090</v>
+        <v>195920</v>
       </c>
       <c r="B473" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C473" t="s">
         <v>502</v>
       </c>
       <c r="D473" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>218420</v>
+        <v>101280</v>
       </c>
       <c r="B474" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C474" t="s">
         <v>502</v>
       </c>
       <c r="D474" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>360200</v>
+        <v>192090</v>
       </c>
       <c r="B475" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C475" t="s">
         <v>502</v>
       </c>
       <c r="D475" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>269530</v>
+        <v>218420</v>
       </c>
       <c r="B476" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C476" t="s">
         <v>502</v>
       </c>
       <c r="D476" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>269420</v>
+        <v>360200</v>
       </c>
       <c r="B477" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C477" t="s">
         <v>502</v>
       </c>
       <c r="D477" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>168580</v>
+        <v>269530</v>
       </c>
       <c r="B478" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C478" t="s">
         <v>502</v>
       </c>
       <c r="D478" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>319870</v>
+        <v>269420</v>
       </c>
       <c r="B479" t="s">
-        <v>166</v>
+        <v>452</v>
       </c>
       <c r="C479" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D479" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>248260</v>
+        <v>168580</v>
       </c>
       <c r="B480" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C480" t="s">
         <v>502</v>
       </c>
       <c r="D480" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>169950</v>
+        <v>319870</v>
       </c>
       <c r="B481" t="s">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="C481" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D481" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>354350</v>
+        <v>248260</v>
       </c>
       <c r="B482" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C482" t="s">
         <v>502</v>
       </c>
       <c r="D482" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>269370</v>
+        <v>169950</v>
       </c>
       <c r="B483" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C483" t="s">
         <v>502</v>
       </c>
       <c r="D483" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>225060</v>
+        <v>354350</v>
       </c>
       <c r="B484" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C484" t="s">
         <v>502</v>
       </c>
       <c r="D484" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>298770</v>
+        <v>269370</v>
       </c>
       <c r="B485" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C485" t="s">
         <v>502</v>
@@ -9028,52 +9034,52 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>174360</v>
+        <v>225060</v>
       </c>
       <c r="B486" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C486" t="s">
         <v>502</v>
       </c>
       <c r="D486" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>269540</v>
+        <v>298770</v>
       </c>
       <c r="B487" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C487" t="s">
         <v>502</v>
       </c>
       <c r="D487" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>225050</v>
+        <v>174360</v>
       </c>
       <c r="B488" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C488" t="s">
         <v>502</v>
       </c>
       <c r="D488" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>225030</v>
+        <v>269540</v>
       </c>
       <c r="B489" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C489" t="s">
         <v>502</v>
@@ -9084,52 +9090,52 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>220130</v>
+        <v>225050</v>
       </c>
       <c r="B490" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C490" t="s">
         <v>502</v>
       </c>
       <c r="D490" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>219900</v>
+        <v>225030</v>
       </c>
       <c r="B491" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C491" t="s">
         <v>502</v>
       </c>
       <c r="D491" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>185680</v>
+        <v>220130</v>
       </c>
       <c r="B492" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C492" t="s">
         <v>502</v>
       </c>
       <c r="D492" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>99140</v>
+        <v>219900</v>
       </c>
       <c r="B493" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C493" t="s">
         <v>502</v>
@@ -9140,66 +9146,66 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>189400</v>
+        <v>185680</v>
       </c>
       <c r="B494" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C494" t="s">
         <v>502</v>
       </c>
       <c r="D494" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>105010</v>
+        <v>99140</v>
       </c>
       <c r="B495" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C495" t="s">
         <v>502</v>
       </c>
       <c r="D495" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>219480</v>
+        <v>189400</v>
       </c>
       <c r="B496" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C496" t="s">
         <v>502</v>
       </c>
       <c r="D496" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>304940</v>
+        <v>105010</v>
       </c>
       <c r="B497" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C497" t="s">
         <v>502</v>
       </c>
       <c r="D497" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>225040</v>
+        <v>219480</v>
       </c>
       <c r="B498" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C498" t="s">
         <v>502</v>
@@ -9210,10 +9216,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>219390</v>
+        <v>304940</v>
       </c>
       <c r="B499" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C499" t="s">
         <v>502</v>
@@ -9224,13 +9230,13 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>138230</v>
+        <v>225040</v>
       </c>
       <c r="B500" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="C500" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D500" t="s">
         <v>496</v>
@@ -9238,13 +9244,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>261110</v>
+        <v>219390</v>
       </c>
       <c r="B501" t="s">
-        <v>274</v>
+        <v>477</v>
       </c>
       <c r="C501" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D501" t="s">
         <v>496</v>
@@ -9252,24 +9258,24 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>292560</v>
+        <v>138230</v>
       </c>
       <c r="B502" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C502" t="s">
         <v>503</v>
       </c>
       <c r="D502" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>261120</v>
+        <v>261110</v>
       </c>
       <c r="B503" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C503" t="s">
         <v>503</v>
@@ -9280,10 +9286,10 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>352540</v>
+        <v>292560</v>
       </c>
       <c r="B504" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C504" t="s">
         <v>503</v>
@@ -9294,10 +9300,10 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>354240</v>
+        <v>261120</v>
       </c>
       <c r="B505" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C505" t="s">
         <v>503</v>
@@ -9308,24 +9314,24 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>352560</v>
+        <v>352540</v>
       </c>
       <c r="B506" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C506" t="s">
         <v>503</v>
       </c>
       <c r="D506" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>261270</v>
+        <v>354240</v>
       </c>
       <c r="B507" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C507" t="s">
         <v>503</v>
@@ -9336,10 +9342,10 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>182480</v>
+        <v>352560</v>
       </c>
       <c r="B508" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C508" t="s">
         <v>503</v>
@@ -9350,10 +9356,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>261260</v>
+        <v>261270</v>
       </c>
       <c r="B509" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C509" t="s">
         <v>503</v>
@@ -9364,10 +9370,10 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>139660</v>
+        <v>182480</v>
       </c>
       <c r="B510" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C510" t="s">
         <v>503</v>
@@ -9378,10 +9384,10 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>261250</v>
+        <v>261260</v>
       </c>
       <c r="B511" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C511" t="s">
         <v>503</v>
@@ -9392,24 +9398,24 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>375270</v>
+        <v>139660</v>
       </c>
       <c r="B512" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C512" t="s">
         <v>503</v>
       </c>
       <c r="D512" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>181480</v>
+        <v>261250</v>
       </c>
       <c r="B513" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C513" t="s">
         <v>503</v>
@@ -9420,24 +9426,24 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>316300</v>
+        <v>375270</v>
       </c>
       <c r="B514" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C514" t="s">
         <v>503</v>
       </c>
       <c r="D514" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>261240</v>
+        <v>181480</v>
       </c>
       <c r="B515" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C515" t="s">
         <v>503</v>
@@ -9448,24 +9454,24 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>390390</v>
+        <v>316300</v>
       </c>
       <c r="B516" t="s">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="C516" t="s">
         <v>503</v>
       </c>
       <c r="D516" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>390400</v>
+        <v>261240</v>
       </c>
       <c r="B517" t="s">
-        <v>517</v>
+        <v>301</v>
       </c>
       <c r="C517" t="s">
         <v>503</v>
@@ -9476,38 +9482,38 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>394670</v>
+        <v>390390</v>
       </c>
       <c r="B518" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C518" t="s">
         <v>503</v>
       </c>
       <c r="D518" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>394660</v>
+        <v>390400</v>
       </c>
       <c r="B519" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C519" t="s">
         <v>503</v>
       </c>
       <c r="D519" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>394350</v>
+        <v>394670</v>
       </c>
       <c r="B520" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C520" t="s">
         <v>503</v>
@@ -9518,10 +9524,10 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>394340</v>
+        <v>394660</v>
       </c>
       <c r="B521" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C521" t="s">
         <v>503</v>
@@ -9532,57 +9538,85 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>396510</v>
+        <v>394350</v>
       </c>
       <c r="B522" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C522" t="s">
         <v>503</v>
       </c>
       <c r="D522" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>396520</v>
+        <v>394340</v>
       </c>
       <c r="B523" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C523" t="s">
         <v>503</v>
       </c>
       <c r="D523" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>391600</v>
+        <v>396510</v>
       </c>
       <c r="B524" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C524" t="s">
         <v>503</v>
       </c>
       <c r="D524" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>391590</v>
+        <v>396520</v>
       </c>
       <c r="B525" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C525" t="s">
         <v>503</v>
       </c>
       <c r="D525" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>391600</v>
+      </c>
+      <c r="B526" t="s">
+        <v>546</v>
+      </c>
+      <c r="C526" t="s">
+        <v>503</v>
+      </c>
+      <c r="D526" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>391590</v>
+      </c>
+      <c r="B527" t="s">
+        <v>547</v>
+      </c>
+      <c r="C527" t="s">
+        <v>503</v>
+      </c>
+      <c r="D527" t="s">
         <v>496</v>
       </c>
     </row>

--- a/warehouse/group/handler/TDATETF.xlsx
+++ b/warehouse/group/handler/TDATETF.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/marketport/warehouse/group/handler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/tdatlib/tdatlib/archive/market/classify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1EA17B8-51EB-47FA-85C4-6D8C3C225EF7}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="13_ncr:1_{95B76DB8-6987-4161-B515-97E22888F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{174C1117-276A-4E19-AE5C-F93373BF5A7E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
+    <workbookView xWindow="2715" yWindow="690" windowWidth="15480" windowHeight="11385" xr2:uid="{F3E23080-6921-44B6-B0A9-6FAFD4DE058E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$517</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$527</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="613">
   <si>
     <t>종목코드</t>
   </si>
@@ -1056,18 +1056,6 @@
     <t>HANARO KAP초장기국고채</t>
   </si>
   <si>
-    <t>KBSTAR KRX국채선물3년10년플래트너2X</t>
-  </si>
-  <si>
-    <t>KBSTAR KRX국채선물3년10년플래트너</t>
-  </si>
-  <si>
-    <t>KBSTAR KRX국채선물3년10년스티프너2X</t>
-  </si>
-  <si>
-    <t>KBSTAR KRX국채선물3년10년스티프너</t>
-  </si>
-  <si>
     <t>파워 중기국고채</t>
   </si>
   <si>
@@ -1111,12 +1099,6 @@
   </si>
   <si>
     <t>KODEX 단기변동금리부채권액티브</t>
-  </si>
-  <si>
-    <t>TIGER 국채선물3년인버스</t>
-  </si>
-  <si>
-    <t>TIGER 국채선물10년인버스</t>
   </si>
   <si>
     <t>TIGER 국채3년</t>
@@ -1832,6 +1814,162 @@
   </si>
   <si>
     <t>HANARO Fn골프테마</t>
+  </si>
+  <si>
+    <t>TIGER 글로벌메타버스액티브</t>
+  </si>
+  <si>
+    <t>KODEX 미국메타버스나스닥액티브</t>
+  </si>
+  <si>
+    <t>KODEX 미국나스닥100레버리지(합성 H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국나스닥100선물인버스(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이터 글로벌메타버스테크액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBSTAR 글로벌메타버스Moorgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSEF 독일DAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOL 200 Top10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER KRX2차전지K-뉴딜레버리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEFOLIO K컬처액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOL 차이나태양광CSI(합성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOORI AI ESG액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER KRX BBIG K-뉴딜레버리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINDEX KRX금현물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 차이나과창판STAR50(합성)</t>
+  </si>
+  <si>
+    <t>KODEX 차이나과창판STAR50(합성)</t>
+  </si>
+  <si>
+    <t>KINDEX 중국과창판STAR50</t>
+  </si>
+  <si>
+    <t>SOL 차이나육성산업액티브(합성)</t>
+  </si>
+  <si>
+    <t>ARIRANG 글로벌희토류전략자원기업MV</t>
+  </si>
+  <si>
+    <t>해외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER KEDI혁신기업ESG30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINDEX G2전기차&amp;자율주행액티브</t>
+  </si>
+  <si>
+    <t>KBSTAR 글로벌수소경제Indxx</t>
+  </si>
+  <si>
+    <t>ARIRANG 글로벌수소&amp;차세대연료전지MV</t>
+  </si>
+  <si>
+    <t>TIGER 미국나스닥100레버리지(합성)</t>
+  </si>
+  <si>
+    <t>TIGER 글로벌사이버보안INDXX</t>
+  </si>
+  <si>
+    <t>HANARO 미국메타버스iSelect</t>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로즈 단기채권ESG액티브</t>
+  </si>
+  <si>
+    <t>KODEX 차이나2차전지MSCI(합성)</t>
+  </si>
+  <si>
+    <t>해외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국클린에너지나스닥</t>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2229,11 +2367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E65B9-4AFB-4959-9CD3-28669B32D629}">
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2250,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2267,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2275,13 +2413,13 @@
         <v>278540</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2295,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2309,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2323,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2351,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2365,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2379,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2393,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2407,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2421,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2435,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2477,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2491,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2499,13 +2637,13 @@
         <v>156080</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2519,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2533,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2589,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2603,7 +2741,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2617,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2631,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2645,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2659,7 +2797,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2673,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,13 +2819,13 @@
         <v>332940</v>
       </c>
       <c r="B32" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2701,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2715,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2729,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2743,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2757,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2785,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2799,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2813,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2827,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2841,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,7 +2993,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2869,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2883,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2925,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2967,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3023,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3051,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3065,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3079,7 +3217,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3093,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3107,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3121,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3135,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3149,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3157,13 +3295,13 @@
         <v>337150</v>
       </c>
       <c r="B66" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3171,13 +3309,13 @@
         <v>395170</v>
       </c>
       <c r="B67" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3199,13 +3337,13 @@
         <v>391670</v>
       </c>
       <c r="B69" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3213,13 +3351,13 @@
         <v>391680</v>
       </c>
       <c r="B70" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3227,13 +3365,13 @@
         <v>407310</v>
       </c>
       <c r="B71" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3247,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3261,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3275,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3289,7 +3427,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3303,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3317,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3331,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3345,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3359,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3387,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3401,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3415,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3429,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3443,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3457,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3471,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3485,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3499,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3513,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3527,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3541,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3555,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3569,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3583,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3597,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,7 +3749,7 @@
         <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3625,7 +3763,7 @@
         <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3639,7 +3777,7 @@
         <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3653,7 +3791,7 @@
         <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3667,7 +3805,7 @@
         <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3681,7 +3819,7 @@
         <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3695,7 +3833,7 @@
         <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3709,7 +3847,7 @@
         <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3723,7 +3861,7 @@
         <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3737,7 +3875,7 @@
         <v>64</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3751,7 +3889,7 @@
         <v>64</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3765,7 +3903,7 @@
         <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3779,7 +3917,7 @@
         <v>64</v>
       </c>
       <c r="D110" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3793,7 +3931,7 @@
         <v>64</v>
       </c>
       <c r="D111" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3807,7 +3945,7 @@
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3821,7 +3959,7 @@
         <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3835,7 +3973,7 @@
         <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3849,7 +3987,7 @@
         <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3863,7 +4001,7 @@
         <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3877,7 +4015,7 @@
         <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3891,7 +4029,7 @@
         <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3905,7 +4043,7 @@
         <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3919,7 +4057,7 @@
         <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3933,7 +4071,7 @@
         <v>64</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3947,7 +4085,7 @@
         <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3961,7 +4099,7 @@
         <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3975,7 +4113,7 @@
         <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3989,7 +4127,7 @@
         <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4003,7 +4141,7 @@
         <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4017,7 +4155,7 @@
         <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4031,7 +4169,7 @@
         <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4045,7 +4183,7 @@
         <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4059,7 +4197,7 @@
         <v>64</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4073,7 +4211,7 @@
         <v>64</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4087,7 +4225,7 @@
         <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4101,7 +4239,7 @@
         <v>64</v>
       </c>
       <c r="D133" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4115,7 +4253,7 @@
         <v>64</v>
       </c>
       <c r="D134" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4129,7 +4267,7 @@
         <v>64</v>
       </c>
       <c r="D135" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4143,7 +4281,7 @@
         <v>64</v>
       </c>
       <c r="D136" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4157,7 +4295,7 @@
         <v>64</v>
       </c>
       <c r="D137" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4171,7 +4309,7 @@
         <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4185,7 +4323,7 @@
         <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4199,7 +4337,7 @@
         <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4213,7 +4351,7 @@
         <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4227,7 +4365,7 @@
         <v>64</v>
       </c>
       <c r="D142" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4241,7 +4379,7 @@
         <v>64</v>
       </c>
       <c r="D143" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4255,7 +4393,7 @@
         <v>64</v>
       </c>
       <c r="D144" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4269,7 +4407,7 @@
         <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4283,7 +4421,7 @@
         <v>64</v>
       </c>
       <c r="D146" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4297,7 +4435,7 @@
         <v>64</v>
       </c>
       <c r="D147" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4311,7 +4449,7 @@
         <v>64</v>
       </c>
       <c r="D148" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4325,7 +4463,7 @@
         <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4339,7 +4477,7 @@
         <v>64</v>
       </c>
       <c r="D150" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4353,7 +4491,7 @@
         <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4367,7 +4505,7 @@
         <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4381,7 +4519,7 @@
         <v>64</v>
       </c>
       <c r="D153" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4395,7 +4533,7 @@
         <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -4409,7 +4547,7 @@
         <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4423,7 +4561,7 @@
         <v>64</v>
       </c>
       <c r="D156" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4437,7 +4575,7 @@
         <v>64</v>
       </c>
       <c r="D157" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4445,13 +4583,13 @@
         <v>401470</v>
       </c>
       <c r="B158" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C158" t="s">
         <v>64</v>
       </c>
       <c r="D158" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4459,13 +4597,13 @@
         <v>400970</v>
       </c>
       <c r="B159" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C159" t="s">
         <v>64</v>
       </c>
       <c r="D159" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4473,13 +4611,13 @@
         <v>403790</v>
       </c>
       <c r="B160" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C160" t="s">
         <v>64</v>
       </c>
       <c r="D160" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4487,13 +4625,13 @@
         <v>401170</v>
       </c>
       <c r="B161" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C161" t="s">
         <v>64</v>
       </c>
       <c r="D161" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -4501,13 +4639,13 @@
         <v>402460</v>
       </c>
       <c r="B162" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C162" t="s">
         <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4521,7 +4659,7 @@
         <v>64</v>
       </c>
       <c r="D163" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4535,7 +4673,7 @@
         <v>64</v>
       </c>
       <c r="D164" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4549,7 +4687,7 @@
         <v>64</v>
       </c>
       <c r="D165" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4563,7 +4701,7 @@
         <v>64</v>
       </c>
       <c r="D166" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -4571,13 +4709,13 @@
         <v>402520</v>
       </c>
       <c r="B167" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C167" t="s">
         <v>64</v>
       </c>
       <c r="D167" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4591,7 +4729,7 @@
         <v>64</v>
       </c>
       <c r="D168" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -4605,7 +4743,7 @@
         <v>64</v>
       </c>
       <c r="D169" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -4619,7 +4757,7 @@
         <v>64</v>
       </c>
       <c r="D170" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4633,7 +4771,7 @@
         <v>64</v>
       </c>
       <c r="D171" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4641,13 +4779,13 @@
         <v>368680</v>
       </c>
       <c r="B172" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C172" t="s">
         <v>64</v>
       </c>
       <c r="D172" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4655,13 +4793,13 @@
         <v>396500</v>
       </c>
       <c r="B173" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C173" t="s">
         <v>64</v>
       </c>
       <c r="D173" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4675,7 +4813,7 @@
         <v>64</v>
       </c>
       <c r="D174" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4689,7 +4827,7 @@
         <v>64</v>
       </c>
       <c r="D175" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4703,7 +4841,7 @@
         <v>64</v>
       </c>
       <c r="D176" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4717,7 +4855,7 @@
         <v>64</v>
       </c>
       <c r="D177" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4731,7 +4869,7 @@
         <v>64</v>
       </c>
       <c r="D178" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4745,7 +4883,7 @@
         <v>64</v>
       </c>
       <c r="D179" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4759,7 +4897,7 @@
         <v>64</v>
       </c>
       <c r="D180" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4773,7 +4911,7 @@
         <v>64</v>
       </c>
       <c r="D181" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4787,7 +4925,7 @@
         <v>64</v>
       </c>
       <c r="D182" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4801,379 +4939,379 @@
         <v>64</v>
       </c>
       <c r="D183" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>385590</v>
+        <v>414270</v>
       </c>
       <c r="B184" t="s">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="C184" t="s">
         <v>64</v>
       </c>
       <c r="D184" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>385600</v>
+        <v>417450</v>
       </c>
       <c r="B185" t="s">
-        <v>153</v>
+        <v>600</v>
       </c>
       <c r="C185" t="s">
         <v>64</v>
       </c>
       <c r="D185" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>385710</v>
+        <v>419650</v>
       </c>
       <c r="B186" t="s">
-        <v>154</v>
+        <v>601</v>
       </c>
       <c r="C186" t="s">
         <v>64</v>
       </c>
       <c r="D186" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>387280</v>
+        <v>385590</v>
       </c>
       <c r="B187" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C187" t="s">
         <v>64</v>
       </c>
       <c r="D187" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>373490</v>
+        <v>385600</v>
       </c>
       <c r="B188" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C188" t="s">
         <v>64</v>
       </c>
       <c r="D188" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>91180</v>
+        <v>385710</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C189" t="s">
         <v>64</v>
       </c>
       <c r="D189" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>102780</v>
+        <v>387280</v>
       </c>
       <c r="B190" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C190" t="s">
         <v>64</v>
       </c>
       <c r="D190" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>314700</v>
+        <v>373490</v>
       </c>
       <c r="B191" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C191" t="s">
         <v>64</v>
       </c>
       <c r="D191" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>315270</v>
+        <v>91180</v>
       </c>
       <c r="B192" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C192" t="s">
         <v>64</v>
       </c>
       <c r="D192" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>315480</v>
+        <v>102780</v>
       </c>
       <c r="B193" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C193" t="s">
         <v>64</v>
       </c>
       <c r="D193" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>315930</v>
+        <v>314700</v>
       </c>
       <c r="B194" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C194" t="s">
         <v>64</v>
       </c>
       <c r="D194" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>322120</v>
+        <v>315270</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C195" t="s">
         <v>64</v>
       </c>
       <c r="D195" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>322130</v>
+        <v>315480</v>
       </c>
       <c r="B196" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C196" t="s">
         <v>64</v>
       </c>
       <c r="D196" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>322150</v>
+        <v>315930</v>
       </c>
       <c r="B197" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C197" t="s">
         <v>64</v>
       </c>
       <c r="D197" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>322400</v>
+        <v>322120</v>
       </c>
       <c r="B198" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C198" t="s">
         <v>64</v>
       </c>
       <c r="D198" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>325010</v>
+        <v>322130</v>
       </c>
       <c r="B199" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C199" t="s">
         <v>64</v>
       </c>
       <c r="D199" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>326230</v>
+        <v>322150</v>
       </c>
       <c r="B200" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C200" t="s">
         <v>64</v>
       </c>
       <c r="D200" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>98560</v>
+        <v>322400</v>
       </c>
       <c r="B201" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C201" t="s">
         <v>64</v>
       </c>
       <c r="D201" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>333940</v>
+        <v>325010</v>
       </c>
       <c r="B202" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C202" t="s">
         <v>64</v>
       </c>
       <c r="D202" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>333950</v>
+        <v>326230</v>
       </c>
       <c r="B203" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C203" t="s">
         <v>64</v>
       </c>
       <c r="D203" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>333960</v>
+        <v>98560</v>
       </c>
       <c r="B204" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C204" t="s">
         <v>64</v>
       </c>
       <c r="D204" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>333970</v>
+        <v>333940</v>
       </c>
       <c r="B205" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C205" t="s">
         <v>64</v>
       </c>
       <c r="D205" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>333980</v>
+        <v>333950</v>
       </c>
       <c r="B206" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C206" t="s">
         <v>64</v>
       </c>
       <c r="D206" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>337120</v>
+        <v>333960</v>
       </c>
       <c r="B207" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C207" t="s">
         <v>64</v>
       </c>
       <c r="D207" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>337160</v>
+        <v>333970</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C208" t="s">
         <v>64</v>
       </c>
       <c r="D208" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>91230</v>
+        <v>333980</v>
       </c>
       <c r="B209" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C209" t="s">
         <v>64</v>
       </c>
       <c r="D209" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>91220</v>
+        <v>337120</v>
       </c>
       <c r="B210" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C210" t="s">
         <v>64</v>
@@ -5184,416 +5322,416 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>326240</v>
+        <v>337160</v>
       </c>
       <c r="B211" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C211" t="s">
         <v>64</v>
       </c>
       <c r="D211" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>252720</v>
+        <v>417630</v>
       </c>
       <c r="B212" t="s">
-        <v>190</v>
+        <v>598</v>
       </c>
       <c r="C212" t="s">
         <v>64</v>
       </c>
       <c r="D212" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>388420</v>
+        <v>91230</v>
       </c>
       <c r="B213" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C213" t="s">
         <v>64</v>
       </c>
       <c r="D213" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>213610</v>
+        <v>91220</v>
       </c>
       <c r="B214" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C214" t="s">
         <v>64</v>
       </c>
       <c r="D214" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>215620</v>
+        <v>326240</v>
       </c>
       <c r="B215" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C215" t="s">
         <v>64</v>
       </c>
       <c r="D215" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>217790</v>
+        <v>252720</v>
       </c>
       <c r="B216" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C216" t="s">
         <v>64</v>
       </c>
       <c r="D216" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>223190</v>
+        <v>388420</v>
       </c>
       <c r="B217" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C217" t="s">
         <v>64</v>
       </c>
       <c r="D217" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>226380</v>
+        <v>213610</v>
       </c>
       <c r="B218" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C218" t="s">
         <v>64</v>
       </c>
       <c r="D218" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>138530</v>
+        <v>215620</v>
       </c>
       <c r="B219" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C219" t="s">
         <v>64</v>
       </c>
       <c r="D219" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>138520</v>
+        <v>217790</v>
       </c>
       <c r="B220" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C220" t="s">
         <v>64</v>
       </c>
       <c r="D220" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>227540</v>
+        <v>223190</v>
       </c>
       <c r="B221" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C221" t="s">
         <v>64</v>
       </c>
       <c r="D221" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>244670</v>
+        <v>226380</v>
       </c>
       <c r="B222" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C222" t="s">
         <v>64</v>
       </c>
       <c r="D222" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>244660</v>
+        <v>138530</v>
       </c>
       <c r="B223" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C223" t="s">
         <v>64</v>
       </c>
       <c r="D223" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>227550</v>
+        <v>138520</v>
       </c>
       <c r="B224" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C224" t="s">
         <v>64</v>
       </c>
       <c r="D224" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>227560</v>
+        <v>227540</v>
       </c>
       <c r="B225" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C225" t="s">
         <v>64</v>
       </c>
       <c r="D225" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>227570</v>
+        <v>244670</v>
       </c>
       <c r="B226" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C226" t="s">
         <v>64</v>
       </c>
       <c r="D226" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>228790</v>
+        <v>244660</v>
       </c>
       <c r="B227" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C227" t="s">
         <v>64</v>
       </c>
       <c r="D227" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>228800</v>
+        <v>227550</v>
       </c>
       <c r="B228" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C228" t="s">
         <v>64</v>
       </c>
       <c r="D228" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>228810</v>
+        <v>227560</v>
       </c>
       <c r="B229" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C229" t="s">
         <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>244620</v>
+        <v>227570</v>
       </c>
       <c r="B230" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C230" t="s">
         <v>64</v>
       </c>
       <c r="D230" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>244580</v>
+        <v>228790</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C231" t="s">
         <v>64</v>
       </c>
       <c r="D231" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>243890</v>
+        <v>228800</v>
       </c>
       <c r="B232" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C232" t="s">
         <v>64</v>
       </c>
       <c r="D232" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>131890</v>
+        <v>228810</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C233" t="s">
         <v>64</v>
       </c>
       <c r="D233" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>234310</v>
+        <v>244620</v>
       </c>
       <c r="B234" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C234" t="s">
         <v>64</v>
       </c>
       <c r="D234" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>243880</v>
+        <v>244580</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C235" t="s">
         <v>64</v>
       </c>
       <c r="D235" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>174350</v>
+        <v>243890</v>
       </c>
       <c r="B236" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C236" t="s">
         <v>64</v>
       </c>
       <c r="D236" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>139290</v>
+        <v>131890</v>
       </c>
       <c r="B237" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C237" t="s">
         <v>64</v>
       </c>
       <c r="D237" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>140570</v>
+        <v>234310</v>
       </c>
       <c r="B238" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C238" t="s">
         <v>64</v>
       </c>
       <c r="D238" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>140580</v>
+        <v>243880</v>
       </c>
       <c r="B239" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C239" t="s">
         <v>64</v>
       </c>
       <c r="D239" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>140700</v>
+        <v>174350</v>
       </c>
       <c r="B240" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C240" t="s">
         <v>64</v>
@@ -5604,24 +5742,24 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>140710</v>
+        <v>139290</v>
       </c>
       <c r="B241" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C241" t="s">
         <v>64</v>
       </c>
       <c r="D241" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>139260</v>
+        <v>140570</v>
       </c>
       <c r="B242" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C242" t="s">
         <v>64</v>
@@ -5632,150 +5770,150 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>143460</v>
+        <v>140580</v>
       </c>
       <c r="B243" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C243" t="s">
         <v>64</v>
       </c>
       <c r="D243" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>143860</v>
+        <v>140700</v>
       </c>
       <c r="B244" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C244" t="s">
         <v>64</v>
       </c>
       <c r="D244" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>145850</v>
+        <v>140710</v>
       </c>
       <c r="B245" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C245" t="s">
         <v>64</v>
       </c>
       <c r="D245" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>147970</v>
+        <v>139260</v>
       </c>
       <c r="B246" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C246" t="s">
         <v>64</v>
       </c>
       <c r="D246" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>139250</v>
+        <v>143460</v>
       </c>
       <c r="B247" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C247" t="s">
         <v>64</v>
       </c>
       <c r="D247" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>139230</v>
+        <v>143860</v>
       </c>
       <c r="B248" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C248" t="s">
         <v>64</v>
       </c>
       <c r="D248" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>139240</v>
+        <v>145850</v>
       </c>
       <c r="B249" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C249" t="s">
         <v>64</v>
       </c>
       <c r="D249" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>138540</v>
+        <v>147970</v>
       </c>
       <c r="B250" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C250" t="s">
         <v>64</v>
       </c>
       <c r="D250" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>139220</v>
+        <v>139250</v>
       </c>
       <c r="B251" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C251" t="s">
         <v>64</v>
       </c>
       <c r="D251" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>157500</v>
+        <v>139230</v>
       </c>
       <c r="B252" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C252" t="s">
         <v>64</v>
       </c>
       <c r="D252" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>157490</v>
+        <v>139240</v>
       </c>
       <c r="B253" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C253" t="s">
         <v>64</v>
@@ -5786,2883 +5924,2883 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>395160</v>
+        <v>138540</v>
       </c>
       <c r="B254" t="s">
-        <v>522</v>
+        <v>234</v>
       </c>
       <c r="C254" t="s">
         <v>64</v>
       </c>
       <c r="D254" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>395150</v>
+        <v>139220</v>
       </c>
       <c r="B255" t="s">
-        <v>534</v>
+        <v>235</v>
       </c>
       <c r="C255" t="s">
         <v>64</v>
       </c>
       <c r="D255" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>395760</v>
+        <v>157500</v>
       </c>
       <c r="B256" t="s">
-        <v>535</v>
+        <v>237</v>
       </c>
       <c r="C256" t="s">
         <v>64</v>
       </c>
       <c r="D256" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>395750</v>
+        <v>157490</v>
       </c>
       <c r="B257" t="s">
-        <v>536</v>
+        <v>238</v>
       </c>
       <c r="C257" t="s">
         <v>64</v>
       </c>
       <c r="D257" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>395270</v>
+        <v>395160</v>
       </c>
       <c r="B258" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="C258" t="s">
         <v>64</v>
       </c>
       <c r="D258" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>395290</v>
+        <v>395150</v>
       </c>
       <c r="B259" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C259" t="s">
         <v>64</v>
       </c>
       <c r="D259" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>395280</v>
+        <v>395760</v>
       </c>
       <c r="B260" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C260" t="s">
         <v>64</v>
       </c>
       <c r="D260" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>404540</v>
+        <v>395750</v>
       </c>
       <c r="B261" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="C261" t="s">
         <v>64</v>
       </c>
       <c r="D261" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>404260</v>
+        <v>395270</v>
       </c>
       <c r="B262" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="C262" t="s">
         <v>64</v>
       </c>
       <c r="D262" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>404120</v>
+        <v>395290</v>
       </c>
       <c r="B263" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="C263" t="s">
         <v>64</v>
       </c>
       <c r="D263" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>404470</v>
+        <v>395280</v>
       </c>
       <c r="B264" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="C264" t="s">
         <v>64</v>
       </c>
       <c r="D264" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>403990</v>
+        <v>404540</v>
       </c>
       <c r="B265" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C265" t="s">
         <v>64</v>
       </c>
       <c r="D265" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>404650</v>
+        <v>404260</v>
       </c>
       <c r="B266" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
       </c>
       <c r="D266" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>407160</v>
+        <v>404120</v>
       </c>
       <c r="B267" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C267" t="s">
         <v>64</v>
       </c>
       <c r="D267" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>407170</v>
+        <v>404470</v>
       </c>
       <c r="B268" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C268" t="s">
         <v>64</v>
       </c>
       <c r="D268" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>407820</v>
+        <v>403990</v>
       </c>
       <c r="B269" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C269" t="s">
         <v>64</v>
       </c>
       <c r="D269" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>407300</v>
+        <v>404650</v>
       </c>
       <c r="B270" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C270" t="s">
         <v>64</v>
       </c>
       <c r="D270" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="4">
-        <v>166400</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>483</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>407160</v>
+      </c>
+      <c r="B271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C271" t="s">
+        <v>64</v>
+      </c>
+      <c r="D271" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>137930</v>
+        <v>407170</v>
       </c>
       <c r="B272" t="s">
-        <v>243</v>
+        <v>565</v>
       </c>
       <c r="C272" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D272" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>360140</v>
+        <v>407820</v>
       </c>
       <c r="B273" t="s">
-        <v>159</v>
+        <v>566</v>
       </c>
       <c r="C273" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D273" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>360150</v>
+        <v>407300</v>
       </c>
       <c r="B274" t="s">
-        <v>174</v>
+        <v>569</v>
       </c>
       <c r="C274" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D274" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>230480</v>
+        <v>411540</v>
       </c>
       <c r="B275" t="s">
-        <v>242</v>
+        <v>581</v>
       </c>
       <c r="C275" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D275" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>282000</v>
+        <v>412570</v>
       </c>
       <c r="B276" t="s">
-        <v>244</v>
+        <v>582</v>
       </c>
       <c r="C276" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D276" t="s">
-        <v>481</v>
+        <v>587</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>275750</v>
+        <v>410870</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>583</v>
       </c>
       <c r="C277" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D277" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>306520</v>
+        <v>413930</v>
       </c>
       <c r="B278" t="s">
-        <v>246</v>
+        <v>585</v>
       </c>
       <c r="C278" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D278" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>252410</v>
+        <v>412560</v>
       </c>
       <c r="B279" t="s">
-        <v>248</v>
+        <v>586</v>
       </c>
       <c r="C279" t="s">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="D279" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>301410</v>
-      </c>
-      <c r="B280" t="s">
-        <v>249</v>
-      </c>
-      <c r="C280" t="s">
-        <v>484</v>
-      </c>
-      <c r="D280" t="s">
-        <v>481</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>166400</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>291620</v>
+        <v>137930</v>
       </c>
       <c r="B281" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C281" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D281" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>252420</v>
+        <v>360140</v>
       </c>
       <c r="B282" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="C282" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D282" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>253240</v>
+        <v>360150</v>
       </c>
       <c r="B283" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="C283" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D283" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>253230</v>
+        <v>230480</v>
       </c>
       <c r="B284" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C284" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D284" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>253160</v>
+        <v>282000</v>
       </c>
       <c r="B285" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C285" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D285" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>251340</v>
+        <v>275750</v>
       </c>
       <c r="B286" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D286" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>252710</v>
+        <v>306520</v>
       </c>
       <c r="B287" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C287" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D287" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>250780</v>
+        <v>252410</v>
       </c>
       <c r="B288" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C288" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D288" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>252670</v>
+        <v>301410</v>
       </c>
       <c r="B289" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C289" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D289" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>225800</v>
+        <v>291620</v>
       </c>
       <c r="B290" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C290" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D290" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>304780</v>
+        <v>252420</v>
       </c>
       <c r="B291" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="C291" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D291" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>278240</v>
+        <v>253240</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>259</v>
       </c>
       <c r="C292" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D292" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>291630</v>
+        <v>253230</v>
       </c>
       <c r="B293" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C293" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D293" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>306530</v>
+        <v>253160</v>
       </c>
       <c r="B294" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C294" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D294" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>253250</v>
+        <v>251340</v>
       </c>
       <c r="B295" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C295" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D295" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>267770</v>
+        <v>252710</v>
       </c>
       <c r="B296" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C296" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D296" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>253150</v>
+        <v>250780</v>
       </c>
       <c r="B297" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C297" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D297" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>252400</v>
+        <v>252670</v>
       </c>
       <c r="B298" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C298" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D298" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>334690</v>
+        <v>225800</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="C299" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D299" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>334700</v>
+        <v>304780</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="C300" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D300" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>261220</v>
+        <v>278240</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D301" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>139310</v>
+        <v>291630</v>
       </c>
       <c r="B302" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="C302" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D302" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>139320</v>
+        <v>306530</v>
       </c>
       <c r="B303" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="C303" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D303" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>144600</v>
+        <v>253250</v>
       </c>
       <c r="B304" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="C304" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D304" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>132030</v>
+        <v>267770</v>
       </c>
       <c r="B305" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C305" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D305" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>130680</v>
+        <v>253150</v>
       </c>
       <c r="B306" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="C306" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D306" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>137610</v>
+        <v>252400</v>
       </c>
       <c r="B307" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="C307" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="D307" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>138920</v>
+        <v>334690</v>
       </c>
       <c r="B308" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C308" t="s">
         <v>303</v>
       </c>
       <c r="D308" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>271050</v>
+        <v>334700</v>
       </c>
       <c r="B309" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C309" t="s">
         <v>303</v>
       </c>
       <c r="D309" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>138910</v>
+        <v>261220</v>
       </c>
       <c r="B310" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C310" t="s">
         <v>303</v>
       </c>
       <c r="D310" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>160580</v>
+        <v>139310</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C311" t="s">
         <v>303</v>
       </c>
       <c r="D311" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>271060</v>
+        <v>139320</v>
       </c>
       <c r="B312" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C312" t="s">
         <v>303</v>
       </c>
       <c r="D312" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>280940</v>
+        <v>144600</v>
       </c>
       <c r="B313" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="C313" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D313" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>217770</v>
+        <v>132030</v>
       </c>
       <c r="B314" t="s">
-        <v>419</v>
+        <v>309</v>
       </c>
       <c r="C314" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D314" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>319640</v>
+        <v>130680</v>
       </c>
       <c r="B315" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="C315" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="D315" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>225130</v>
+        <v>137610</v>
       </c>
       <c r="B316" t="s">
-        <v>458</v>
+        <v>311</v>
       </c>
       <c r="C316" t="s">
+        <v>303</v>
+      </c>
+      <c r="D316" t="s">
         <v>494</v>
-      </c>
-      <c r="D316" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>148070</v>
+        <v>138920</v>
       </c>
       <c r="B317" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C317" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D317" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>152380</v>
+        <v>271050</v>
       </c>
       <c r="B318" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C318" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D318" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>365780</v>
+        <v>138910</v>
       </c>
       <c r="B319" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C319" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D319" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>176950</v>
+        <v>160580</v>
       </c>
       <c r="B320" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C320" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D320" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>385560</v>
+        <v>271060</v>
       </c>
       <c r="B321" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C321" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D321" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>167860</v>
+        <v>280940</v>
       </c>
       <c r="B322" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="C322" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D322" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>346000</v>
+        <v>217770</v>
       </c>
       <c r="B323" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="C323" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D323" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>342620</v>
+        <v>319640</v>
       </c>
       <c r="B324" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="C324" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D324" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>342610</v>
+        <v>225130</v>
       </c>
       <c r="B325" t="s">
-        <v>340</v>
+        <v>452</v>
       </c>
       <c r="C325" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D325" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>342600</v>
+        <v>411060</v>
       </c>
       <c r="B326" t="s">
-        <v>341</v>
+        <v>589</v>
       </c>
       <c r="C326" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D326" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>342500</v>
+        <v>148070</v>
       </c>
       <c r="B327" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C327" t="s">
         <v>318</v>
       </c>
       <c r="D327" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>176710</v>
+        <v>152380</v>
       </c>
       <c r="B328" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C328" t="s">
         <v>318</v>
       </c>
       <c r="D328" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>196230</v>
+        <v>365780</v>
       </c>
       <c r="B329" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C329" t="s">
         <v>318</v>
       </c>
       <c r="D329" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>114470</v>
+        <v>176950</v>
       </c>
       <c r="B330" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C330" t="s">
         <v>318</v>
       </c>
       <c r="D330" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>289670</v>
+        <v>385560</v>
       </c>
       <c r="B331" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C331" t="s">
         <v>318</v>
       </c>
       <c r="D331" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>298340</v>
+        <v>167860</v>
       </c>
       <c r="B332" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C332" t="s">
         <v>318</v>
       </c>
       <c r="D332" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>153130</v>
+        <v>346000</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C333" t="s">
         <v>318</v>
       </c>
       <c r="D333" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>272910</v>
+        <v>176710</v>
       </c>
       <c r="B334" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C334" t="s">
         <v>318</v>
       </c>
       <c r="D334" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>299070</v>
+        <v>196230</v>
       </c>
       <c r="B335" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C335" t="s">
         <v>318</v>
       </c>
       <c r="D335" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>295000</v>
+        <v>114470</v>
       </c>
       <c r="B336" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C336" t="s">
         <v>318</v>
       </c>
       <c r="D336" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>299080</v>
+        <v>289670</v>
       </c>
       <c r="B337" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C337" t="s">
         <v>318</v>
       </c>
       <c r="D337" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>302170</v>
+        <v>298340</v>
       </c>
       <c r="B338" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C338" t="s">
         <v>318</v>
       </c>
       <c r="D338" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>302180</v>
+        <v>153130</v>
       </c>
       <c r="B339" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C339" t="s">
         <v>318</v>
       </c>
       <c r="D339" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>114820</v>
+        <v>272910</v>
       </c>
       <c r="B340" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C340" t="s">
         <v>318</v>
       </c>
       <c r="D340" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>302190</v>
+        <v>299070</v>
       </c>
       <c r="B341" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C341" t="s">
         <v>318</v>
       </c>
       <c r="D341" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>295020</v>
+        <v>295000</v>
       </c>
       <c r="B342" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C342" t="s">
         <v>318</v>
       </c>
       <c r="D342" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>114260</v>
+        <v>299080</v>
       </c>
       <c r="B343" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C343" t="s">
         <v>318</v>
       </c>
       <c r="D343" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>114100</v>
+        <v>114820</v>
       </c>
       <c r="B344" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C344" t="s">
         <v>318</v>
       </c>
       <c r="D344" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>397420</v>
+        <v>302190</v>
       </c>
       <c r="B345" t="s">
-        <v>552</v>
+        <v>355</v>
       </c>
       <c r="C345" t="s">
         <v>318</v>
       </c>
       <c r="D345" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>114460</v>
+        <v>295020</v>
       </c>
       <c r="B346" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C346" t="s">
         <v>318</v>
       </c>
       <c r="D346" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>272570</v>
+        <v>114260</v>
       </c>
       <c r="B347" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C347" t="s">
         <v>318</v>
       </c>
       <c r="D347" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>292770</v>
+        <v>114100</v>
       </c>
       <c r="B348" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C348" t="s">
         <v>318</v>
       </c>
       <c r="D348" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>397410</v>
+        <v>397420</v>
       </c>
       <c r="B349" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C349" t="s">
         <v>318</v>
       </c>
       <c r="D349" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>272560</v>
+        <v>114460</v>
       </c>
       <c r="B350" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C350" t="s">
         <v>318</v>
       </c>
       <c r="D350" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>190620</v>
+        <v>272570</v>
       </c>
       <c r="B351" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="C351" t="s">
         <v>318</v>
       </c>
       <c r="D351" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>122260</v>
+        <v>292770</v>
       </c>
       <c r="B352" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="C352" t="s">
         <v>318</v>
       </c>
       <c r="D352" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>363510</v>
+        <v>397410</v>
       </c>
       <c r="B353" t="s">
-        <v>324</v>
+        <v>543</v>
       </c>
       <c r="C353" t="s">
         <v>318</v>
       </c>
       <c r="D353" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>157450</v>
+        <v>272560</v>
       </c>
       <c r="B354" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C354" t="s">
         <v>318</v>
       </c>
       <c r="D354" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>336160</v>
+        <v>190620</v>
       </c>
       <c r="B355" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C355" t="s">
         <v>318</v>
       </c>
       <c r="D355" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>273140</v>
+        <v>122260</v>
       </c>
       <c r="B356" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="C356" t="s">
         <v>318</v>
       </c>
       <c r="D356" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>214980</v>
+        <v>363510</v>
       </c>
       <c r="B357" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C357" t="s">
         <v>318</v>
       </c>
       <c r="D357" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>130730</v>
+        <v>157450</v>
       </c>
       <c r="B358" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C358" t="s">
         <v>318</v>
       </c>
       <c r="D358" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>272580</v>
+        <v>336160</v>
       </c>
       <c r="B359" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C359" t="s">
         <v>318</v>
       </c>
       <c r="D359" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>305080</v>
+        <v>273140</v>
       </c>
       <c r="B360" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C360" t="s">
         <v>318</v>
       </c>
       <c r="D360" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>284430</v>
+        <v>214980</v>
       </c>
       <c r="B361" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C361" t="s">
         <v>318</v>
       </c>
       <c r="D361" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>329750</v>
+        <v>130730</v>
       </c>
       <c r="B362" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C362" t="s">
         <v>318</v>
       </c>
       <c r="D362" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>308620</v>
+        <v>419890</v>
       </c>
       <c r="B363" t="s">
-        <v>345</v>
+        <v>607</v>
       </c>
       <c r="C363" t="s">
         <v>318</v>
       </c>
       <c r="D363" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>304660</v>
+        <v>272580</v>
       </c>
       <c r="B364" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C364" t="s">
         <v>318</v>
       </c>
       <c r="D364" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>267450</v>
+        <v>305080</v>
       </c>
       <c r="B365" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="C365" t="s">
         <v>318</v>
       </c>
       <c r="D365" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>267440</v>
+        <v>284430</v>
       </c>
       <c r="B366" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C366" t="s">
         <v>318</v>
       </c>
       <c r="D366" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>267500</v>
+        <v>329750</v>
       </c>
       <c r="B367" t="s">
-        <v>465</v>
+        <v>321</v>
       </c>
       <c r="C367" t="s">
         <v>318</v>
       </c>
       <c r="D367" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>304670</v>
+        <v>308620</v>
       </c>
       <c r="B368" t="s">
-        <v>470</v>
+        <v>341</v>
       </c>
       <c r="C368" t="s">
         <v>318</v>
       </c>
       <c r="D368" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>267490</v>
+        <v>304660</v>
       </c>
       <c r="B369" t="s">
-        <v>474</v>
+        <v>344</v>
       </c>
       <c r="C369" t="s">
         <v>318</v>
       </c>
       <c r="D369" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>390950</v>
+        <v>267450</v>
       </c>
       <c r="B370" t="s">
-        <v>515</v>
+        <v>422</v>
       </c>
       <c r="C370" t="s">
         <v>318</v>
       </c>
       <c r="D370" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>329660</v>
+        <v>267440</v>
       </c>
       <c r="B371" t="s">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="C371" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D371" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>251600</v>
+        <v>267500</v>
       </c>
       <c r="B372" t="s">
-        <v>271</v>
+        <v>459</v>
       </c>
       <c r="C372" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D372" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>329670</v>
+        <v>304670</v>
       </c>
       <c r="B373" t="s">
-        <v>281</v>
+        <v>464</v>
       </c>
       <c r="C373" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D373" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>183710</v>
+        <v>267490</v>
       </c>
       <c r="B374" t="s">
-        <v>282</v>
+        <v>468</v>
       </c>
       <c r="C374" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D374" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>183700</v>
+        <v>390950</v>
       </c>
       <c r="B375" t="s">
-        <v>283</v>
+        <v>509</v>
       </c>
       <c r="C375" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D375" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>357870</v>
+        <v>329660</v>
       </c>
       <c r="B376" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C376" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D376" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>329650</v>
+        <v>251600</v>
       </c>
       <c r="B377" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C377" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D377" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>241390</v>
+        <v>329670</v>
       </c>
       <c r="B378" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C378" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D378" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>253290</v>
+        <v>183710</v>
       </c>
       <c r="B379" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C379" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D379" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>238670</v>
+        <v>183700</v>
       </c>
       <c r="B380" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C380" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D380" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>237440</v>
+        <v>357870</v>
       </c>
       <c r="B381" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C381" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D381" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>321410</v>
+        <v>329650</v>
       </c>
       <c r="B382" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C382" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D382" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>237370</v>
+        <v>241390</v>
       </c>
       <c r="B383" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C383" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D383" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>341850</v>
+        <v>253290</v>
       </c>
       <c r="B384" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C384" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D384" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>278620</v>
+        <v>238670</v>
       </c>
       <c r="B385" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="C385" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="D385" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>385550</v>
+        <v>237440</v>
       </c>
       <c r="B386" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C386" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="D386" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>385540</v>
+        <v>321410</v>
       </c>
       <c r="B387" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C387" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="D387" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>363570</v>
+        <v>237370</v>
       </c>
       <c r="B388" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="C388" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="D388" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>356540</v>
+        <v>341850</v>
       </c>
       <c r="B389" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="C389" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="D389" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>273130</v>
+        <v>278620</v>
       </c>
       <c r="B390" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C390" t="s">
         <v>318</v>
       </c>
       <c r="D390" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>342140</v>
+        <v>385550</v>
       </c>
       <c r="B391" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C391" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="D391" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>332610</v>
+        <v>385540</v>
       </c>
       <c r="B392" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C392" t="s">
         <v>318</v>
       </c>
       <c r="D392" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>332620</v>
+        <v>363570</v>
       </c>
       <c r="B393" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C393" t="s">
         <v>318</v>
       </c>
       <c r="D393" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>182490</v>
+        <v>356540</v>
       </c>
       <c r="B394" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C394" t="s">
         <v>318</v>
       </c>
       <c r="D394" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>239660</v>
+        <v>273130</v>
       </c>
       <c r="B395" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C395" t="s">
         <v>318</v>
       </c>
       <c r="D395" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>136340</v>
+        <v>342140</v>
       </c>
       <c r="B396" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C396" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="D396" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>291130</v>
+        <v>332610</v>
       </c>
       <c r="B397" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="C397" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D397" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>256750</v>
+        <v>332620</v>
       </c>
       <c r="B398" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="C398" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D398" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>367380</v>
+        <v>182490</v>
       </c>
       <c r="B399" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="C399" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D399" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>251350</v>
+        <v>239660</v>
       </c>
       <c r="B400" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C400" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D400" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>256450</v>
+        <v>136340</v>
       </c>
       <c r="B401" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C401" t="s">
-        <v>502</v>
+        <v>318</v>
       </c>
       <c r="D401" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>256440</v>
+        <v>291130</v>
       </c>
       <c r="B402" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C402" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D402" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>368590</v>
+        <v>256750</v>
       </c>
       <c r="B403" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C403" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D403" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>291680</v>
+        <v>367380</v>
       </c>
       <c r="B404" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C404" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D404" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>291890</v>
+        <v>251350</v>
       </c>
       <c r="B405" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C405" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D405" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>245340</v>
+        <v>256450</v>
       </c>
       <c r="B406" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C406" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D406" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>371450</v>
+        <v>256440</v>
       </c>
       <c r="B407" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C407" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D407" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>371150</v>
+        <v>368590</v>
       </c>
       <c r="B408" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C408" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D408" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>276990</v>
+        <v>291680</v>
       </c>
       <c r="B409" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C409" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D409" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>387270</v>
+        <v>291890</v>
       </c>
       <c r="B410" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C410" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D410" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>407830</v>
+        <v>245340</v>
       </c>
       <c r="B411" t="s">
-        <v>573</v>
+        <v>378</v>
       </c>
       <c r="C411" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D411" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>241180</v>
+        <v>371450</v>
       </c>
       <c r="B412" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C412" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D412" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>238720</v>
+        <v>371150</v>
       </c>
       <c r="B413" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C413" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D413" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>117690</v>
+        <v>276990</v>
       </c>
       <c r="B414" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C414" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D414" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>280320</v>
+        <v>387270</v>
       </c>
       <c r="B415" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C415" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D415" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>280930</v>
+        <v>407830</v>
       </c>
       <c r="B416" t="s">
-        <v>393</v>
+        <v>567</v>
       </c>
       <c r="C416" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D416" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>276970</v>
+        <v>241180</v>
       </c>
       <c r="B417" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C417" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D417" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>283580</v>
+        <v>238720</v>
       </c>
       <c r="B418" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C418" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D418" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>381180</v>
+        <v>117690</v>
       </c>
       <c r="B419" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C419" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D419" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>381170</v>
+        <v>280320</v>
       </c>
       <c r="B420" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C420" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D420" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>379810</v>
+        <v>280930</v>
       </c>
       <c r="B421" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C421" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D421" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>379800</v>
+        <v>276970</v>
       </c>
       <c r="B422" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C422" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D422" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>150460</v>
+        <v>283580</v>
       </c>
       <c r="B423" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="C423" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D423" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>371130</v>
+        <v>419430</v>
       </c>
       <c r="B424" t="s">
-        <v>401</v>
+        <v>608</v>
       </c>
       <c r="C424" t="s">
-        <v>502</v>
+        <v>609</v>
       </c>
       <c r="D424" t="s">
-        <v>491</v>
+        <v>610</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>379790</v>
+        <v>419420</v>
       </c>
       <c r="B425" t="s">
-        <v>402</v>
+        <v>611</v>
       </c>
       <c r="C425" t="s">
-        <v>502</v>
+        <v>609</v>
       </c>
       <c r="D425" t="s">
-        <v>495</v>
+        <v>612</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>400570</v>
+        <v>381180</v>
       </c>
       <c r="B426" t="s">
-        <v>550</v>
+        <v>391</v>
       </c>
       <c r="C426" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D426" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>143850</v>
+        <v>381170</v>
       </c>
       <c r="B427" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C427" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D427" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>236350</v>
+        <v>379810</v>
       </c>
       <c r="B428" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C428" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D428" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>276650</v>
+        <v>379800</v>
       </c>
       <c r="B429" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C429" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D429" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>276000</v>
+        <v>150460</v>
       </c>
       <c r="B430" t="s">
-        <v>406</v>
+        <v>230</v>
       </c>
       <c r="C430" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D430" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>133690</v>
+        <v>371130</v>
       </c>
       <c r="B431" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C431" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D431" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>275980</v>
+        <v>379790</v>
       </c>
       <c r="B432" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C432" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D432" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>373790</v>
+        <v>400570</v>
       </c>
       <c r="B433" t="s">
-        <v>409</v>
+        <v>544</v>
       </c>
       <c r="C433" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D433" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>373530</v>
+        <v>143850</v>
       </c>
       <c r="B434" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C434" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D434" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>287180</v>
+        <v>236350</v>
       </c>
       <c r="B435" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C435" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D435" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>372330</v>
+        <v>276650</v>
       </c>
       <c r="B436" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C436" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D436" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>371870</v>
+        <v>276000</v>
       </c>
       <c r="B437" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C437" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D437" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>371470</v>
+        <v>133690</v>
       </c>
       <c r="B438" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C438" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D438" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>371460</v>
+        <v>418660</v>
       </c>
       <c r="B439" t="s">
-        <v>415</v>
+        <v>602</v>
       </c>
       <c r="C439" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D439" t="s">
-        <v>489</v>
+        <v>605</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>371160</v>
+        <v>418670</v>
       </c>
       <c r="B440" t="s">
-        <v>416</v>
+        <v>603</v>
       </c>
       <c r="C440" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D440" t="s">
-        <v>489</v>
+        <v>606</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>379780</v>
+        <v>419170</v>
       </c>
       <c r="B441" t="s">
-        <v>417</v>
+        <v>604</v>
       </c>
       <c r="C441" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D441" t="s">
-        <v>493</v>
+        <v>605</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>309230</v>
+        <v>275980</v>
       </c>
       <c r="B442" t="s">
-        <v>157</v>
+        <v>402</v>
       </c>
       <c r="C442" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D442" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>245350</v>
+        <v>373790</v>
       </c>
       <c r="B443" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C443" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D443" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>360750</v>
+        <v>373530</v>
       </c>
       <c r="B444" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C444" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D444" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>399110</v>
+        <v>287180</v>
       </c>
       <c r="B445" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="C445" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D445" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>400580</v>
+        <v>372330</v>
       </c>
       <c r="B446" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
       <c r="C446" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D446" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>400590</v>
+        <v>371870</v>
       </c>
       <c r="B447" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="C447" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D447" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>401590</v>
+        <v>371470</v>
       </c>
       <c r="B448" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
       <c r="C448" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D448" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>195930</v>
+        <v>371460</v>
       </c>
       <c r="B449" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C449" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D449" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>195970</v>
+        <v>371160</v>
       </c>
       <c r="B450" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C450" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D450" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>195980</v>
+        <v>379780</v>
       </c>
       <c r="B451" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C451" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D451" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>196030</v>
+        <v>309230</v>
       </c>
       <c r="B452" t="s">
-        <v>424</v>
+        <v>157</v>
       </c>
       <c r="C452" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D452" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>277540</v>
+        <v>245350</v>
       </c>
       <c r="B453" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C453" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D453" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>399580</v>
+        <v>360750</v>
       </c>
       <c r="B454" t="s">
-        <v>562</v>
+        <v>414</v>
       </c>
       <c r="C454" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D454" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>200030</v>
+        <v>399110</v>
       </c>
       <c r="B455" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
       <c r="C455" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D455" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>402970</v>
+        <v>400580</v>
       </c>
       <c r="B456" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C456" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D456" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>200250</v>
+        <v>400590</v>
       </c>
       <c r="B457" t="s">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="C457" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D457" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>203780</v>
+        <v>401590</v>
       </c>
       <c r="B458" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="C458" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D458" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>204450</v>
+        <v>195930</v>
       </c>
       <c r="B459" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C459" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D459" t="s">
         <v>489</v>
@@ -8670,954 +8808,1276 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>217780</v>
+        <v>195970</v>
       </c>
       <c r="B460" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C460" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D460" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>204480</v>
+        <v>195980</v>
       </c>
       <c r="B461" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C461" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D461" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>205720</v>
+        <v>196030</v>
       </c>
       <c r="B462" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C462" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D462" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>208470</v>
+        <v>277540</v>
       </c>
       <c r="B463" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C463" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D463" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>261920</v>
+        <v>399580</v>
       </c>
       <c r="B464" t="s">
-        <v>436</v>
+        <v>556</v>
       </c>
       <c r="C464" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D464" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>265690</v>
+        <v>200030</v>
       </c>
       <c r="B465" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C465" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D465" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>314250</v>
+        <v>402970</v>
       </c>
       <c r="B466" t="s">
-        <v>438</v>
+        <v>557</v>
       </c>
       <c r="C466" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D466" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>245360</v>
+        <v>200250</v>
       </c>
       <c r="B467" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C467" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D467" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>310080</v>
+        <v>203780</v>
       </c>
       <c r="B468" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C468" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D468" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>250730</v>
+        <v>204450</v>
       </c>
       <c r="B469" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C469" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D469" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>213630</v>
+        <v>217780</v>
       </c>
       <c r="B470" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C470" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D470" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>245710</v>
+        <v>204480</v>
       </c>
       <c r="B471" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C471" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D471" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>248270</v>
+        <v>205720</v>
       </c>
       <c r="B472" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C472" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D472" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>195920</v>
+        <v>208470</v>
       </c>
       <c r="B473" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C473" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D473" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>101280</v>
+        <v>261920</v>
       </c>
       <c r="B474" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C474" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D474" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>192090</v>
+        <v>265690</v>
       </c>
       <c r="B475" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C475" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D475" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>218420</v>
+        <v>314250</v>
       </c>
       <c r="B476" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C476" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D476" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>360200</v>
+        <v>245360</v>
       </c>
       <c r="B477" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C477" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D477" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>269530</v>
+        <v>310080</v>
       </c>
       <c r="B478" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C478" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D478" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>269420</v>
+        <v>250730</v>
       </c>
       <c r="B479" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C479" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D479" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>168580</v>
+        <v>213630</v>
       </c>
       <c r="B480" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C480" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D480" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>319870</v>
+        <v>245710</v>
       </c>
       <c r="B481" t="s">
-        <v>166</v>
+        <v>438</v>
       </c>
       <c r="C481" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D481" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>248260</v>
+        <v>248270</v>
       </c>
       <c r="B482" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C482" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D482" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>169950</v>
+        <v>195920</v>
       </c>
       <c r="B483" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C483" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D483" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>354350</v>
+        <v>101280</v>
       </c>
       <c r="B484" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C484" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D484" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>269370</v>
+        <v>192090</v>
       </c>
       <c r="B485" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C485" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D485" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>225060</v>
+        <v>218420</v>
       </c>
       <c r="B486" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C486" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D486" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>298770</v>
+        <v>360200</v>
       </c>
       <c r="B487" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C487" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D487" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>174360</v>
+        <v>269530</v>
       </c>
       <c r="B488" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C488" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D488" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>269540</v>
+        <v>269420</v>
       </c>
       <c r="B489" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C489" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D489" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>225050</v>
+        <v>168580</v>
       </c>
       <c r="B490" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C490" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D490" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>225030</v>
+        <v>319870</v>
       </c>
       <c r="B491" t="s">
-        <v>464</v>
+        <v>166</v>
       </c>
       <c r="C491" t="s">
+        <v>501</v>
+      </c>
+      <c r="D491" t="s">
         <v>502</v>
-      </c>
-      <c r="D491" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>220130</v>
+        <v>248260</v>
       </c>
       <c r="B492" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="C492" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D492" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>219900</v>
+        <v>169950</v>
       </c>
       <c r="B493" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C493" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D493" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>185680</v>
+        <v>354350</v>
       </c>
       <c r="B494" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="C494" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D494" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>99140</v>
+        <v>269370</v>
       </c>
       <c r="B495" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C495" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D495" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>189400</v>
+        <v>225060</v>
       </c>
       <c r="B496" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C496" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D496" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>105010</v>
+        <v>298770</v>
       </c>
       <c r="B497" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C497" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D497" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>219480</v>
+        <v>174360</v>
       </c>
       <c r="B498" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C498" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D498" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>304940</v>
+        <v>269540</v>
       </c>
       <c r="B499" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C499" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D499" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>225040</v>
+        <v>225050</v>
       </c>
       <c r="B500" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C500" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D500" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>219390</v>
+        <v>225030</v>
       </c>
       <c r="B501" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C501" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D501" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>138230</v>
+        <v>220130</v>
       </c>
       <c r="B502" t="s">
-        <v>272</v>
+        <v>460</v>
       </c>
       <c r="C502" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D502" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>261110</v>
+        <v>219900</v>
       </c>
       <c r="B503" t="s">
-        <v>274</v>
+        <v>461</v>
       </c>
       <c r="C503" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D503" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>292560</v>
+        <v>185680</v>
       </c>
       <c r="B504" t="s">
-        <v>275</v>
+        <v>462</v>
       </c>
       <c r="C504" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D504" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>261120</v>
+        <v>99140</v>
       </c>
       <c r="B505" t="s">
-        <v>276</v>
+        <v>463</v>
       </c>
       <c r="C505" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D505" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>352540</v>
+        <v>189400</v>
       </c>
       <c r="B506" t="s">
-        <v>277</v>
+        <v>465</v>
       </c>
       <c r="C506" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D506" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>354240</v>
+        <v>105010</v>
       </c>
       <c r="B507" t="s">
-        <v>278</v>
+        <v>466</v>
       </c>
       <c r="C507" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D507" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>352560</v>
+        <v>219480</v>
       </c>
       <c r="B508" t="s">
-        <v>279</v>
+        <v>467</v>
       </c>
       <c r="C508" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D508" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>261270</v>
+        <v>304940</v>
       </c>
       <c r="B509" t="s">
-        <v>280</v>
+        <v>469</v>
       </c>
       <c r="C509" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D509" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>182480</v>
+        <v>225040</v>
       </c>
       <c r="B510" t="s">
-        <v>286</v>
+        <v>470</v>
       </c>
       <c r="C510" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D510" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>261260</v>
+        <v>219390</v>
       </c>
       <c r="B511" t="s">
-        <v>288</v>
+        <v>471</v>
       </c>
       <c r="C511" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D511" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>139660</v>
+        <v>138230</v>
       </c>
       <c r="B512" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C512" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D512" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>261250</v>
+        <v>261110</v>
       </c>
       <c r="B513" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C513" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D513" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>375270</v>
+        <v>292560</v>
       </c>
       <c r="B514" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C514" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D514" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>181480</v>
+        <v>261120</v>
       </c>
       <c r="B515" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C515" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D515" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>316300</v>
+        <v>352540</v>
       </c>
       <c r="B516" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C516" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D516" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>261240</v>
+        <v>354240</v>
       </c>
       <c r="B517" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C517" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D517" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>390390</v>
+        <v>352560</v>
       </c>
       <c r="B518" t="s">
-        <v>516</v>
+        <v>279</v>
       </c>
       <c r="C518" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D518" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>390400</v>
+        <v>261270</v>
       </c>
       <c r="B519" t="s">
-        <v>517</v>
+        <v>280</v>
       </c>
       <c r="C519" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D519" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>394670</v>
+        <v>182480</v>
       </c>
       <c r="B520" t="s">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="C520" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D520" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>394660</v>
+        <v>261260</v>
       </c>
       <c r="B521" t="s">
-        <v>519</v>
+        <v>288</v>
       </c>
       <c r="C521" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D521" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>394350</v>
+        <v>139660</v>
       </c>
       <c r="B522" t="s">
-        <v>520</v>
+        <v>289</v>
       </c>
       <c r="C522" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D522" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>394340</v>
+        <v>261250</v>
       </c>
       <c r="B523" t="s">
-        <v>521</v>
+        <v>296</v>
       </c>
       <c r="C523" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D523" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>396510</v>
+        <v>375270</v>
       </c>
       <c r="B524" t="s">
-        <v>544</v>
+        <v>297</v>
       </c>
       <c r="C524" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D524" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>396520</v>
+        <v>181480</v>
       </c>
       <c r="B525" t="s">
-        <v>545</v>
+        <v>298</v>
       </c>
       <c r="C525" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D525" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>391600</v>
+        <v>316300</v>
       </c>
       <c r="B526" t="s">
-        <v>546</v>
+        <v>300</v>
       </c>
       <c r="C526" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D526" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527">
+        <v>261240</v>
+      </c>
+      <c r="B527" t="s">
+        <v>301</v>
+      </c>
+      <c r="C527" t="s">
+        <v>497</v>
+      </c>
+      <c r="D527" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>390390</v>
+      </c>
+      <c r="B528" t="s">
+        <v>510</v>
+      </c>
+      <c r="C528" t="s">
+        <v>497</v>
+      </c>
+      <c r="D528" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>390400</v>
+      </c>
+      <c r="B529" t="s">
+        <v>511</v>
+      </c>
+      <c r="C529" t="s">
+        <v>497</v>
+      </c>
+      <c r="D529" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>394670</v>
+      </c>
+      <c r="B530" t="s">
+        <v>512</v>
+      </c>
+      <c r="C530" t="s">
+        <v>497</v>
+      </c>
+      <c r="D530" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>394660</v>
+      </c>
+      <c r="B531" t="s">
+        <v>513</v>
+      </c>
+      <c r="C531" t="s">
+        <v>497</v>
+      </c>
+      <c r="D531" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>394350</v>
+      </c>
+      <c r="B532" t="s">
+        <v>514</v>
+      </c>
+      <c r="C532" t="s">
+        <v>497</v>
+      </c>
+      <c r="D532" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>394340</v>
+      </c>
+      <c r="B533" t="s">
+        <v>515</v>
+      </c>
+      <c r="C533" t="s">
+        <v>497</v>
+      </c>
+      <c r="D533" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>396510</v>
+      </c>
+      <c r="B534" t="s">
+        <v>538</v>
+      </c>
+      <c r="C534" t="s">
+        <v>497</v>
+      </c>
+      <c r="D534" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>396520</v>
+      </c>
+      <c r="B535" t="s">
+        <v>539</v>
+      </c>
+      <c r="C535" t="s">
+        <v>497</v>
+      </c>
+      <c r="D535" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>391600</v>
+      </c>
+      <c r="B536" t="s">
+        <v>540</v>
+      </c>
+      <c r="C536" t="s">
+        <v>497</v>
+      </c>
+      <c r="D536" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
         <v>391590</v>
       </c>
-      <c r="B527" t="s">
-        <v>547</v>
-      </c>
-      <c r="C527" t="s">
-        <v>503</v>
-      </c>
-      <c r="D527" t="s">
-        <v>496</v>
+      <c r="B537" t="s">
+        <v>541</v>
+      </c>
+      <c r="C537" t="s">
+        <v>497</v>
+      </c>
+      <c r="D537" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>412770</v>
+      </c>
+      <c r="B538" t="s">
+        <v>570</v>
+      </c>
+      <c r="C538" t="s">
+        <v>497</v>
+      </c>
+      <c r="D538" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>411420</v>
+      </c>
+      <c r="B539" t="s">
+        <v>571</v>
+      </c>
+      <c r="C539" t="s">
+        <v>497</v>
+      </c>
+      <c r="D539" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>409820</v>
+      </c>
+      <c r="B540" t="s">
+        <v>572</v>
+      </c>
+      <c r="C540" t="s">
+        <v>577</v>
+      </c>
+      <c r="D540" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>409810</v>
+      </c>
+      <c r="B541" t="s">
+        <v>573</v>
+      </c>
+      <c r="C541" t="s">
+        <v>577</v>
+      </c>
+      <c r="D541" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>411050</v>
+      </c>
+      <c r="B542" t="s">
+        <v>574</v>
+      </c>
+      <c r="C542" t="s">
+        <v>577</v>
+      </c>
+      <c r="D542" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>411720</v>
+      </c>
+      <c r="B543" t="s">
+        <v>575</v>
+      </c>
+      <c r="C543" t="s">
+        <v>577</v>
+      </c>
+      <c r="D543" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>411860</v>
+      </c>
+      <c r="B544" t="s">
+        <v>576</v>
+      </c>
+      <c r="C544" t="s">
+        <v>577</v>
+      </c>
+      <c r="D544" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>413220</v>
+      </c>
+      <c r="B545" t="s">
+        <v>584</v>
+      </c>
+      <c r="C545" t="s">
+        <v>577</v>
+      </c>
+      <c r="D545" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>414780</v>
+      </c>
+      <c r="B546" t="s">
+        <v>590</v>
+      </c>
+      <c r="C546" t="s">
+        <v>595</v>
+      </c>
+      <c r="D546" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>415340</v>
+      </c>
+      <c r="B547" t="s">
+        <v>591</v>
+      </c>
+      <c r="C547" t="s">
+        <v>595</v>
+      </c>
+      <c r="D547" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>416090</v>
+      </c>
+      <c r="B548" t="s">
+        <v>592</v>
+      </c>
+      <c r="C548" t="s">
+        <v>595</v>
+      </c>
+      <c r="D548" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>415760</v>
+      </c>
+      <c r="B549" t="s">
+        <v>593</v>
+      </c>
+      <c r="C549" t="s">
+        <v>595</v>
+      </c>
+      <c r="D549" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>415920</v>
+      </c>
+      <c r="B550" t="s">
+        <v>594</v>
+      </c>
+      <c r="C550" t="s">
+        <v>595</v>
+      </c>
+      <c r="D550" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
